--- a/info/список ароматизаторов.xlsx
+++ b/info/список ароматизаторов.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="414">
   <si>
     <t>A</t>
   </si>
@@ -6147,6 +6147,9 @@
   </si>
   <si>
     <t xml:space="preserve"> },</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, </t>
   </si>
 </sst>
 </file>
@@ -8303,7 +8306,7 @@
   <dimension ref="A1:L197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8340,8 +8343,8 @@
         <v>{name: 'Absinthe (Абсент)' },</v>
       </c>
       <c r="L1" t="str">
-        <f>CONCATENATE($F$1,$G$1,C1,$H$1,C1,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f>CONCATENATE($F$1,$G$1,B1,$H$2,$H$1,B1,$J$1)</f>
+        <v>{id: 'Absinthe (Абсент)', name: 'Absinthe (Абсент)' },</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -8352,13 +8355,16 @@
         <f t="shared" ref="B2:B65" si="0">CONCATENATE("'",A2,"'")</f>
         <v>'Acai (Ягода асаи)'</v>
       </c>
+      <c r="H2" t="s">
+        <v>413</v>
+      </c>
       <c r="K2" t="str">
         <f t="shared" ref="K2:K65" si="1">CONCATENATE($F$1,$H$1,B2,$J$1)</f>
         <v>{name: 'Acai (Ягода асаи)' },</v>
       </c>
       <c r="L2" t="str">
-        <f>CONCATENATE($F$1,$G$1,C2,$H$1,C2,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" ref="L2:L65" si="2">CONCATENATE($F$1,$G$1,B2,$H$2,$H$1,B2,$J$1)</f>
+        <v>{id: 'Acai (Ягода асаи)', name: 'Acai (Ягода асаи)' },</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8374,8 +8380,8 @@
         <v>{name: 'Acetyl Pyrazine (Ацетил пиразин)' },</v>
       </c>
       <c r="L3" t="str">
-        <f>CONCATENATE($F$1,$G$1,C3,$H$1,C3,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Acetyl Pyrazine (Ацетил пиразин)', name: 'Acetyl Pyrazine (Ацетил пиразин)' },</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8391,8 +8397,8 @@
         <v>{name: 'Almond (Миндаль)' },</v>
       </c>
       <c r="L4" t="str">
-        <f>CONCATENATE($F$1,$G$1,C4,$H$1,C4,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Almond (Миндаль)', name: 'Almond (Миндаль)' },</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8408,8 +8414,8 @@
         <v>{name: 'Apple (Яблоко)' },</v>
       </c>
       <c r="L5" t="str">
-        <f>CONCATENATE($F$1,$G$1,C5,$H$1,C5,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Apple (Яблоко)', name: 'Apple (Яблоко)' },</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8425,8 +8431,8 @@
         <v>{name: 'Apple (tart granny smith) (Яблоко (Гренни Смит))' },</v>
       </c>
       <c r="L6" t="str">
-        <f>CONCATENATE($F$1,$G$1,C6,$H$1,C6,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Apple (tart granny smith) (Яблоко (Гренни Смит))', name: 'Apple (tart granny smith) (Яблоко (Гренни Смит))' },</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8442,8 +8448,8 @@
         <v>{name: 'Apple Candy (Яблочный мармелад)' },</v>
       </c>
       <c r="L7" t="str">
-        <f>CONCATENATE($F$1,$G$1,C7,$H$1,C7,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Apple Candy (Яблочный мармелад)', name: 'Apple Candy (Яблочный мармелад)' },</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8459,8 +8465,8 @@
         <v>{name: 'Apple Pie (Яблочный пирог)' },</v>
       </c>
       <c r="L8" t="str">
-        <f>CONCATENATE($F$1,$G$1,C8,$H$1,C8,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Apple Pie (Яблочный пирог)', name: 'Apple Pie (Яблочный пирог)' },</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8476,8 +8482,8 @@
         <v>{name: 'Apricot (Абрикос)' },</v>
       </c>
       <c r="L9" t="str">
-        <f>CONCATENATE($F$1,$G$1,C9,$H$1,C9,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Apricot (Абрикос)', name: 'Apricot (Абрикос)' },</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8493,8 +8499,8 @@
         <v>{name: 'Banana (Банан)' },</v>
       </c>
       <c r="L10" t="str">
-        <f>CONCATENATE($F$1,$G$1,C10,$H$1,C10,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Banana (Банан)', name: 'Banana (Банан)' },</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8510,8 +8516,8 @@
         <v>{name: 'Banana Cream (Банановый крем)' },</v>
       </c>
       <c r="L11" t="str">
-        <f>CONCATENATE($F$1,$G$1,C11,$H$1,C11,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Banana Cream (Банановый крем)', name: 'Banana Cream (Банановый крем)' },</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8527,8 +8533,8 @@
         <v>{name: 'Banana Nut Bread (Банановый хлеб)' },</v>
       </c>
       <c r="L12" t="str">
-        <f>CONCATENATE($F$1,$G$1,C12,$H$1,C12,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Banana Nut Bread (Банановый хлеб)', name: 'Banana Nut Bread (Банановый хлеб)' },</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8544,8 +8550,8 @@
         <v>{name: 'Bananas Foster (Банановый фостер)' },</v>
       </c>
       <c r="L13" t="str">
-        <f>CONCATENATE($F$1,$G$1,C13,$H$1,C13,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Bananas Foster (Банановый фостер)', name: 'Bananas Foster (Банановый фостер)' },</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8561,8 +8567,8 @@
         <v>{name: 'Bavarian Cream (Баварский крем)' },</v>
       </c>
       <c r="L14" t="str">
-        <f>CONCATENATE($F$1,$G$1,C14,$H$1,C14,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Bavarian Cream (Баварский крем)', name: 'Bavarian Cream (Баварский крем)' },</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8578,8 +8584,8 @@
         <v>{name: 'Berry Crunch (Ягодные хлопья)' },</v>
       </c>
       <c r="L15" t="str">
-        <f>CONCATENATE($F$1,$G$1,C15,$H$1,C15,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Berry Crunch (Ягодные хлопья)', name: 'Berry Crunch (Ягодные хлопья)' },</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8595,8 +8601,8 @@
         <v>{name: 'Bitter Nut Extra (Горький орех)' },</v>
       </c>
       <c r="L16" t="str">
-        <f>CONCATENATE($F$1,$G$1,C16,$H$1,C16,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Bitter Nut Extra (Горький орех)', name: 'Bitter Nut Extra (Горький орех)' },</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8612,8 +8618,8 @@
         <v>{name: 'Bittersweet Chocolate (Биттерсвит шоколад)' },</v>
       </c>
       <c r="L17" t="str">
-        <f>CONCATENATE($F$1,$G$1,C17,$H$1,C17,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Bittersweet Chocolate (Биттерсвит шоколад)', name: 'Bittersweet Chocolate (Биттерсвит шоколад)' },</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8629,8 +8635,8 @@
         <v>{name: 'Black Cherry (Черешня)' },</v>
       </c>
       <c r="L18" t="str">
-        <f>CONCATENATE($F$1,$G$1,C18,$H$1,C18,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Black Cherry (Черешня)', name: 'Black Cherry (Черешня)' },</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8646,8 +8652,8 @@
         <v>{name: 'Black Currant (Черная смородина)' },</v>
       </c>
       <c r="L19" t="str">
-        <f>CONCATENATE($F$1,$G$1,C19,$H$1,C19,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Black Currant (Черная смородина)', name: 'Black Currant (Черная смородина)' },</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8663,8 +8669,8 @@
         <v>{name: 'Black Honey (Черный мед и табак)' },</v>
       </c>
       <c r="L20" t="str">
-        <f>CONCATENATE($F$1,$G$1,C20,$H$1,C20,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Black Honey (Черный мед и табак)', name: 'Black Honey (Черный мед и табак)' },</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -8680,8 +8686,8 @@
         <v>{name: 'Black Tea (Черный чай)' },</v>
       </c>
       <c r="L21" t="str">
-        <f>CONCATENATE($F$1,$G$1,C21,$H$1,C21,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Black Tea (Черный чай)', name: 'Black Tea (Черный чай)' },</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -8697,8 +8703,8 @@
         <v>{name: 'Blackberry (Ежевика)' },</v>
       </c>
       <c r="L22" t="str">
-        <f>CONCATENATE($F$1,$G$1,C22,$H$1,C22,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Blackberry (Ежевика)', name: 'Blackberry (Ежевика)' },</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -8714,8 +8720,8 @@
         <v>{name: 'Blue Raspberry (Голубая малина)' },</v>
       </c>
       <c r="L23" t="str">
-        <f>CONCATENATE($F$1,$G$1,C23,$H$1,C23,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Blue Raspberry (Голубая малина)', name: 'Blue Raspberry (Голубая малина)' },</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -8731,8 +8737,8 @@
         <v>{name: 'Blueberry (Extra) (Черника)' },</v>
       </c>
       <c r="L24" t="str">
-        <f>CONCATENATE($F$1,$G$1,C24,$H$1,C24,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Blueberry (Extra) (Черника)', name: 'Blueberry (Extra) (Черника)' },</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -8748,8 +8754,8 @@
         <v>{name: 'Blueberry Candy (Черничные леденцы)' },</v>
       </c>
       <c r="L25" t="str">
-        <f>CONCATENATE($F$1,$G$1,C25,$H$1,C25,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Blueberry Candy (Черничные леденцы)', name: 'Blueberry Candy (Черничные леденцы)' },</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -8765,8 +8771,8 @@
         <v>{name: 'Blueberry Wild (Дикая черника)' },</v>
       </c>
       <c r="L26" t="str">
-        <f>CONCATENATE($F$1,$G$1,C26,$H$1,C26,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Blueberry Wild (Дикая черника)', name: 'Blueberry Wild (Дикая черника)' },</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -8782,8 +8788,8 @@
         <v>{name: 'Boysenberry (Шелковица )' },</v>
       </c>
       <c r="L27" t="str">
-        <f>CONCATENATE($F$1,$G$1,C27,$H$1,C27,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Boysenberry (Шелковица )', name: 'Boysenberry (Шелковица )' },</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8799,8 +8805,8 @@
         <v>{name: 'Brandy (Бренди)' },</v>
       </c>
       <c r="L28" t="str">
-        <f>CONCATENATE($F$1,$G$1,C28,$H$1,C28,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Brandy (Бренди)', name: 'Brandy (Бренди)' },</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -8816,8 +8822,8 @@
         <v>{name: 'Brown Sugar (Коричневый сахар)' },</v>
       </c>
       <c r="L29" t="str">
-        <f>CONCATENATE($F$1,$G$1,C29,$H$1,C29,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Brown Sugar (Коричневый сахар)', name: 'Brown Sugar (Коричневый сахар)' },</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -8833,8 +8839,8 @@
         <v>{name: 'Bubblegum (Жвачка)' },</v>
       </c>
       <c r="L30" t="str">
-        <f>CONCATENATE($F$1,$G$1,C30,$H$1,C30,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Bubblegum (Жвачка)', name: 'Bubblegum (Жвачка)' },</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -8850,8 +8856,8 @@
         <v>{name: 'Bubblegum (Fruity) (Жвачка (Фруктовая))' },</v>
       </c>
       <c r="L31" t="str">
-        <f>CONCATENATE($F$1,$G$1,C31,$H$1,C31,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Bubblegum (Fruity) (Жвачка (Фруктовая))', name: 'Bubblegum (Fruity) (Жвачка (Фруктовая))' },</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -8867,8 +8873,8 @@
         <v>{name: 'Butter (Масло)' },</v>
       </c>
       <c r="L32" t="str">
-        <f>CONCATENATE($F$1,$G$1,C32,$H$1,C32,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Butter (Масло)', name: 'Butter (Масло)' },</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -8884,8 +8890,8 @@
         <v>{name: 'Butterscotch (Ирис)' },</v>
       </c>
       <c r="L33" t="str">
-        <f>CONCATENATE($F$1,$G$1,C33,$H$1,C33,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Butterscotch (Ирис)', name: 'Butterscotch (Ирис)' },</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -8901,8 +8907,8 @@
         <v>{name: 'Cantaloupe (Канталупа)' },</v>
       </c>
       <c r="L34" t="str">
-        <f>CONCATENATE($F$1,$G$1,C34,$H$1,C34,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cantaloupe (Канталупа)', name: 'Cantaloupe (Канталупа)' },</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -8918,8 +8924,8 @@
         <v>{name: 'Cappucсino (Каппучино)' },</v>
       </c>
       <c r="L35" t="str">
-        <f>CONCATENATE($F$1,$G$1,C35,$H$1,C35,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cappucсino (Каппучино)', name: 'Cappucсino (Каппучино)' },</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -8935,8 +8941,8 @@
         <v>{name: 'Caramel (Карамель)' },</v>
       </c>
       <c r="L36" t="str">
-        <f>CONCATENATE($F$1,$G$1,C36,$H$1,C36,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Caramel (Карамель)', name: 'Caramel (Карамель)' },</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -8952,8 +8958,8 @@
         <v>{name: 'Caramel (Original) (Карамель (Оригинальная))' },</v>
       </c>
       <c r="L37" t="str">
-        <f>CONCATENATE($F$1,$G$1,C37,$H$1,C37,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Caramel (Original) (Карамель (Оригинальная))', name: 'Caramel (Original) (Карамель (Оригинальная))' },</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -8969,8 +8975,8 @@
         <v>{name: 'Caramel Candy (Карамельная конфета)' },</v>
       </c>
       <c r="L38" t="str">
-        <f>CONCATENATE($F$1,$G$1,C38,$H$1,C38,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Caramel Candy (Карамельная конфета)', name: 'Caramel Candy (Карамельная конфета)' },</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -8986,8 +8992,8 @@
         <v>{name: 'Caramel Cappuccino (Карамель-каппучино)' },</v>
       </c>
       <c r="L39" t="str">
-        <f>CONCATENATE($F$1,$G$1,C39,$H$1,C39,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Caramel Cappuccino (Карамель-каппучино)', name: 'Caramel Cappuccino (Карамель-каппучино)' },</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9003,8 +9009,8 @@
         <v>{name: 'Chai Tea (Чай)' },</v>
       </c>
       <c r="L40" t="str">
-        <f>CONCATENATE($F$1,$G$1,C40,$H$1,C40,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Chai Tea (Чай)', name: 'Chai Tea (Чай)' },</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9020,8 +9026,8 @@
         <v>{name: 'Champagne (Шампанское)' },</v>
       </c>
       <c r="L41" t="str">
-        <f>CONCATENATE($F$1,$G$1,C41,$H$1,C41,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Champagne (Шампанское)', name: 'Champagne (Шампанское)' },</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -9037,8 +9043,8 @@
         <v>{name: 'Cheesecake (Чизкейк)' },</v>
       </c>
       <c r="L42" t="str">
-        <f>CONCATENATE($F$1,$G$1,C42,$H$1,C42,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cheesecake (Чизкейк)', name: 'Cheesecake (Чизкейк)' },</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9054,8 +9060,8 @@
         <v>{name: 'Cheesecake (Graham Crust) (Чизкейк (корочка))' },</v>
       </c>
       <c r="L43" t="str">
-        <f>CONCATENATE($F$1,$G$1,C43,$H$1,C43,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cheesecake (Graham Crust) (Чизкейк (корочка))', name: 'Cheesecake (Graham Crust) (Чизкейк (корочка))' },</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9071,8 +9077,8 @@
         <v>{name: 'Cherry Blossom (Цветущая вишня)' },</v>
       </c>
       <c r="L44" t="str">
-        <f>CONCATENATE($F$1,$G$1,C44,$H$1,C44,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cherry Blossom (Цветущая вишня)', name: 'Cherry Blossom (Цветущая вишня)' },</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9088,8 +9094,8 @@
         <v>{name: 'Cherry Extract (Экстракт вишни)' },</v>
       </c>
       <c r="L45" t="str">
-        <f>CONCATENATE($F$1,$G$1,C45,$H$1,C45,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cherry Extract (Экстракт вишни)', name: 'Cherry Extract (Экстракт вишни)' },</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9105,8 +9111,8 @@
         <v>{name: 'Chocolate (Шоколад)' },</v>
       </c>
       <c r="L46" t="str">
-        <f>CONCATENATE($F$1,$G$1,C46,$H$1,C46,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Chocolate (Шоколад)', name: 'Chocolate (Шоколад)' },</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9122,8 +9128,8 @@
         <v>{name: 'Cinnamon (Корица)' },</v>
       </c>
       <c r="L47" t="str">
-        <f>CONCATENATE($F$1,$G$1,C47,$H$1,C47,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cinnamon (Корица)', name: 'Cinnamon (Корица)' },</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -9139,8 +9145,8 @@
         <v>{name: 'Cinnamon Danish (Корица датская)' },</v>
       </c>
       <c r="L48" t="str">
-        <f>CONCATENATE($F$1,$G$1,C48,$H$1,C48,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cinnamon Danish (Корица датская)', name: 'Cinnamon Danish (Корица датская)' },</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -9156,8 +9162,8 @@
         <v>{name: 'Cinnamon Red Hot (Корица)' },</v>
       </c>
       <c r="L49" t="str">
-        <f>CONCATENATE($F$1,$G$1,C49,$H$1,C49,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cinnamon Red Hot (Корица)', name: 'Cinnamon Red Hot (Корица)' },</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -9173,8 +9179,8 @@
         <v>{name: 'Cinnamon Spice (Острая корица)' },</v>
       </c>
       <c r="L50" t="str">
-        <f>CONCATENATE($F$1,$G$1,C50,$H$1,C50,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cinnamon Spice (Острая корица)', name: 'Cinnamon Spice (Острая корица)' },</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -9190,8 +9196,8 @@
         <v>{name: 'Cinnamon Sugar Cookie (Печенье с корицей)' },</v>
       </c>
       <c r="L51" t="str">
-        <f>CONCATENATE($F$1,$G$1,C51,$H$1,C51,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cinnamon Sugar Cookie (Печенье с корицей)', name: 'Cinnamon Sugar Cookie (Печенье с корицей)' },</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9207,8 +9213,8 @@
         <v>{name: 'Citrus Punch (Цитрусовый пунш)' },</v>
       </c>
       <c r="L52" t="str">
-        <f>CONCATENATE($F$1,$G$1,C52,$H$1,C52,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Citrus Punch (Цитрусовый пунш)', name: 'Citrus Punch (Цитрусовый пунш)' },</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9224,8 +9230,8 @@
         <v>{name: 'Clove (Гвоздика)' },</v>
       </c>
       <c r="L53" t="str">
-        <f>CONCATENATE($F$1,$G$1,C53,$H$1,C53,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Clove (Гвоздика)', name: 'Clove (Гвоздика)' },</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -9241,8 +9247,8 @@
         <v>{name: 'Cocoa Rounds (Шоколадные шарики)' },</v>
       </c>
       <c r="L54" t="str">
-        <f>CONCATENATE($F$1,$G$1,C54,$H$1,C54,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cocoa Rounds (Шоколадные шарики)', name: 'Cocoa Rounds (Шоколадные шарики)' },</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -9258,8 +9264,8 @@
         <v>{name: 'Coconut (Кокос)' },</v>
       </c>
       <c r="L55" t="str">
-        <f>CONCATENATE($F$1,$G$1,C55,$H$1,C55,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Coconut (Кокос)', name: 'Coconut (Кокос)' },</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -9275,8 +9281,8 @@
         <v>{name: 'Coconut (Extra) (Кокос (Экстра))' },</v>
       </c>
       <c r="L56" t="str">
-        <f>CONCATENATE($F$1,$G$1,C56,$H$1,C56,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Coconut (Extra) (Кокос (Экстра))', name: 'Coconut (Extra) (Кокос (Экстра))' },</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -9292,8 +9298,8 @@
         <v>{name: 'Coconut Candy (Кокосовые конфеты)' },</v>
       </c>
       <c r="L57" t="str">
-        <f>CONCATENATE($F$1,$G$1,C57,$H$1,C57,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Coconut Candy (Кокосовые конфеты)', name: 'Coconut Candy (Кокосовые конфеты)' },</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -9309,8 +9315,8 @@
         <v>{name: 'Coffee (Кофе)' },</v>
       </c>
       <c r="L58" t="str">
-        <f>CONCATENATE($F$1,$G$1,C58,$H$1,C58,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Coffee (Кофе)', name: 'Coffee (Кофе)' },</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -9326,8 +9332,8 @@
         <v>{name: 'Cotton Candy (Сладкая вата)' },</v>
       </c>
       <c r="L59" t="str">
-        <f>CONCATENATE($F$1,$G$1,C59,$H$1,C59,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cotton Candy (Сладкая вата)', name: 'Cotton Candy (Сладкая вата)' },</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9343,8 +9349,8 @@
         <v>{name: 'Cranberry (Клюква)' },</v>
       </c>
       <c r="L60" t="str">
-        <f>CONCATENATE($F$1,$G$1,C60,$H$1,C60,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cranberry (Клюква)', name: 'Cranberry (Клюква)' },</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9360,8 +9366,8 @@
         <v>{name: 'Cream Soda (Крем-сода)' },</v>
       </c>
       <c r="L61" t="str">
-        <f>CONCATENATE($F$1,$G$1,C61,$H$1,C61,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cream Soda (Крем-сода)', name: 'Cream Soda (Крем-сода)' },</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9377,8 +9383,8 @@
         <v>{name: 'Creme de Menthe (Сладкий мятный ликер)' },</v>
       </c>
       <c r="L62" t="str">
-        <f>CONCATENATE($F$1,$G$1,C62,$H$1,C62,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Creme de Menthe (Сладкий мятный ликер)', name: 'Creme de Menthe (Сладкий мятный ликер)' },</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -9394,8 +9400,8 @@
         <v>{name: 'Cucumber (Огурец)' },</v>
       </c>
       <c r="L63" t="str">
-        <f>CONCATENATE($F$1,$G$1,C63,$H$1,C63,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Cucumber (Огурец)', name: 'Cucumber (Огурец)' },</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -9411,8 +9417,8 @@
         <v>{name: 'Dairy/Milk (Молоко)' },</v>
       </c>
       <c r="L64" t="str">
-        <f>CONCATENATE($F$1,$G$1,C64,$H$1,C64,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'Dairy/Milk (Молоко)', name: 'Dairy/Milk (Молоко)' },</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -9428,8 +9434,8 @@
         <v>{name: 'DK Tobacco Base (Табак)' },</v>
       </c>
       <c r="L65" t="str">
-        <f>CONCATENATE($F$1,$G$1,C65,$H$1,C65,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="2"/>
+        <v>{id: 'DK Tobacco Base (Табак)', name: 'DK Tobacco Base (Табак)' },</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -9437,16 +9443,16 @@
         <v>282</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="2">CONCATENATE("'",A66,"'")</f>
+        <f t="shared" ref="B66:B129" si="3">CONCATENATE("'",A66,"'")</f>
         <v>'Double Chocolate (Clear) (Двойной шоколад)'</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K129" si="3">CONCATENATE($F$1,$H$1,B66,$J$1)</f>
+        <f t="shared" ref="K66:K129" si="4">CONCATENATE($F$1,$H$1,B66,$J$1)</f>
         <v>{name: 'Double Chocolate (Clear) (Двойной шоколад)' },</v>
       </c>
       <c r="L66" t="str">
-        <f>CONCATENATE($F$1,$G$1,C66,$H$1,C66,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" ref="L66:L129" si="5">CONCATENATE($F$1,$G$1,B66,$H$2,$H$1,B66,$J$1)</f>
+        <v>{id: 'Double Chocolate (Clear) (Двойной шоколад)', name: 'Double Chocolate (Clear) (Двойной шоколад)' },</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -9454,16 +9460,16 @@
         <v>283</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Double Chocolate (Dark) (Двойной шоколад (Темный))'</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Double Chocolate (Dark) (Двойной шоколад (Темный))' },</v>
       </c>
       <c r="L67" t="str">
-        <f>CONCATENATE($F$1,$G$1,C67,$H$1,C67,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Double Chocolate (Dark) (Двойной шоколад (Темный))', name: 'Double Chocolate (Dark) (Двойной шоколад (Темный))' },</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -9471,16 +9477,16 @@
         <v>284</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Dragonfruit (Драгонфрут (питайя))'</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Dragonfruit (Драгонфрут (питайя))' },</v>
       </c>
       <c r="L68" t="str">
-        <f>CONCATENATE($F$1,$G$1,C68,$H$1,C68,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Dragonfruit (Драгонфрут (питайя))', name: 'Dragonfruit (Драгонфрут (питайя))' },</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -9488,16 +9494,16 @@
         <v>285</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Dulce de Leche (Сгущенное молоко)'</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Dulce de Leche (Сгущенное молоко)' },</v>
       </c>
       <c r="L69" t="str">
-        <f>CONCATENATE($F$1,$G$1,C69,$H$1,C69,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Dulce de Leche (Сгущенное молоко)', name: 'Dulce de Leche (Сгущенное молоко)' },</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -9505,16 +9511,16 @@
         <v>286</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Earl Grey Tea (Эрл-грей)'</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Earl Grey Tea (Эрл-грей)' },</v>
       </c>
       <c r="L70" t="str">
-        <f>CONCATENATE($F$1,$G$1,C70,$H$1,C70,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Earl Grey Tea (Эрл-грей)', name: 'Earl Grey Tea (Эрл-грей)' },</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -9522,16 +9528,16 @@
         <v>287</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Elderberry (Бузина)'</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Elderberry (Бузина)' },</v>
       </c>
       <c r="L71" t="str">
-        <f>CONCATENATE($F$1,$G$1,C71,$H$1,C71,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Elderberry (Бузина)', name: 'Elderberry (Бузина)' },</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -9539,16 +9545,16 @@
         <v>288</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Energy Drink (Энергетический напиток)'</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Energy Drink (Энергетический напиток)' },</v>
       </c>
       <c r="L72" t="str">
-        <f>CONCATENATE($F$1,$G$1,C72,$H$1,C72,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Energy Drink (Энергетический напиток)', name: 'Energy Drink (Энергетический напиток)' },</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -9556,16 +9562,16 @@
         <v>289</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'English Toffee (Тоффи)'</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'English Toffee (Тоффи)' },</v>
       </c>
       <c r="L73" t="str">
-        <f>CONCATENATE($F$1,$G$1,C73,$H$1,C73,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'English Toffee (Тоффи)', name: 'English Toffee (Тоффи)' },</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -9573,16 +9579,16 @@
         <v>290</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Espresso (Эспрессо)'</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Espresso (Эспрессо)' },</v>
       </c>
       <c r="L74" t="str">
-        <f>CONCATENATE($F$1,$G$1,C74,$H$1,C74,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Espresso (Эспрессо)', name: 'Espresso (Эспрессо)' },</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -9590,16 +9596,16 @@
         <v>291</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Ethyl Maltol (Этил мальтол)'</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Ethyl Maltol (Этил мальтол)' },</v>
       </c>
       <c r="L75" t="str">
-        <f>CONCATENATE($F$1,$G$1,C75,$H$1,C75,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Ethyl Maltol (Этил мальтол)', name: 'Ethyl Maltol (Этил мальтол)' },</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -9607,16 +9613,16 @@
         <v>292</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'French Vanilla (Французкая ваниль)'</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'French Vanilla (Французкая ваниль)' },</v>
       </c>
       <c r="L76" t="str">
-        <f>CONCATENATE($F$1,$G$1,C76,$H$1,C76,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'French Vanilla (Французкая ваниль)', name: 'French Vanilla (Французкая ваниль)' },</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -9624,16 +9630,16 @@
         <v>82</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'French Vanilla Deluxe (Французкая ваниль (Делюкс))'</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'French Vanilla Deluxe (Французкая ваниль (Делюкс))' },</v>
       </c>
       <c r="L77" t="str">
-        <f>CONCATENATE($F$1,$G$1,C77,$H$1,C77,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'French Vanilla Deluxe (Французкая ваниль (Делюкс))', name: 'French Vanilla Deluxe (Французкая ваниль (Делюкс))' },</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -9641,16 +9647,16 @@
         <v>293</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Frosted Donut (Пончик)'</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Frosted Donut (Пончик)' },</v>
       </c>
       <c r="L78" t="str">
-        <f>CONCATENATE($F$1,$G$1,C78,$H$1,C78,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Frosted Donut (Пончик)', name: 'Frosted Donut (Пончик)' },</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -9658,16 +9664,16 @@
         <v>294</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Fruit Circles (Фруктовые кольца)'</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Fruit Circles (Фруктовые кольца)' },</v>
       </c>
       <c r="L79" t="str">
-        <f>CONCATENATE($F$1,$G$1,C79,$H$1,C79,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Fruit Circles (Фруктовые кольца)', name: 'Fruit Circles (Фруктовые кольца)' },</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -9675,16 +9681,16 @@
         <v>295</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Fruit Circles With Milk (Фруктовые кольца с молоком)'</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Fruit Circles With Milk (Фруктовые кольца с молоком)' },</v>
       </c>
       <c r="L80" t="str">
-        <f>CONCATENATE($F$1,$G$1,C80,$H$1,C80,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Fruit Circles With Milk (Фруктовые кольца с молоком)', name: 'Fruit Circles With Milk (Фруктовые кольца с молоком)' },</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -9692,16 +9698,16 @@
         <v>296</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Fruity Stick Gum (Жвачка (Fruity Stick))'</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Fruity Stick Gum (Жвачка (Fruity Stick))' },</v>
       </c>
       <c r="L81" t="str">
-        <f>CONCATENATE($F$1,$G$1,C81,$H$1,C81,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Fruity Stick Gum (Жвачка (Fruity Stick))', name: 'Fruity Stick Gum (Жвачка (Fruity Stick))' },</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -9709,16 +9715,16 @@
         <v>297</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Fudge Brownie (Брауни)'</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Fudge Brownie (Брауни)' },</v>
       </c>
       <c r="L82" t="str">
-        <f>CONCATENATE($F$1,$G$1,C82,$H$1,C82,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Fudge Brownie (Брауни)', name: 'Fudge Brownie (Брауни)' },</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -9726,16 +9732,16 @@
         <v>298</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Ginger Ale (Имбирный Эль)'</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Ginger Ale (Имбирный Эль)' },</v>
       </c>
       <c r="L83" t="str">
-        <f>CONCATENATE($F$1,$G$1,C83,$H$1,C83,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Ginger Ale (Имбирный Эль)', name: 'Ginger Ale (Имбирный Эль)' },</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -9743,16 +9749,16 @@
         <v>299</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Gingerbread (Имбирный пряник)'</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Gingerbread (Имбирный пряник)' },</v>
       </c>
       <c r="L84" t="str">
-        <f>CONCATENATE($F$1,$G$1,C84,$H$1,C84,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Gingerbread (Имбирный пряник)', name: 'Gingerbread (Имбирный пряник)' },</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -9760,16 +9766,16 @@
         <v>300</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Graham Cracker (Грэхем крекер)'</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Graham Cracker (Грэхем крекер)' },</v>
       </c>
       <c r="L85" t="str">
-        <f>CONCATENATE($F$1,$G$1,C85,$H$1,C85,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Graham Cracker (Грэхем крекер)', name: 'Graham Cracker (Грэхем крекер)' },</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -9777,16 +9783,16 @@
         <v>301</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Graham Cracker Clear (Грэхем крекер)'</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Graham Cracker Clear (Грэхем крекер)' },</v>
       </c>
       <c r="L86" t="str">
-        <f>CONCATENATE($F$1,$G$1,C86,$H$1,C86,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Graham Cracker Clear (Грэхем крекер)', name: 'Graham Cracker Clear (Грэхем крекер)' },</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -9794,16 +9800,16 @@
         <v>302</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Grape Candy (Виноградные леденцы)'</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Grape Candy (Виноградные леденцы)' },</v>
       </c>
       <c r="L87" t="str">
-        <f>CONCATENATE($F$1,$G$1,C87,$H$1,C87,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Grape Candy (Виноградные леденцы)', name: 'Grape Candy (Виноградные леденцы)' },</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -9811,16 +9817,16 @@
         <v>303</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Grape Juice (Виноградный сок)'</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Grape Juice (Виноградный сок)' },</v>
       </c>
       <c r="L88" t="str">
-        <f>CONCATENATE($F$1,$G$1,C88,$H$1,C88,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Grape Juice (Виноградный сок)', name: 'Grape Juice (Виноградный сок)' },</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -9828,16 +9834,16 @@
         <v>304</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Greek Yogurt (Греческий йогурт)'</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Greek Yogurt (Греческий йогурт)' },</v>
       </c>
       <c r="L89" t="str">
-        <f>CONCATENATE($F$1,$G$1,C89,$H$1,C89,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Greek Yogurt (Греческий йогурт)', name: 'Greek Yogurt (Греческий йогурт)' },</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -9845,16 +9851,16 @@
         <v>305</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Green Apple (Зеленое яблоко)'</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Green Apple (Зеленое яблоко)' },</v>
       </c>
       <c r="L90" t="str">
-        <f>CONCATENATE($F$1,$G$1,C90,$H$1,C90,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Green Apple (Зеленое яблоко)', name: 'Green Apple (Зеленое яблоко)' },</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -9862,16 +9868,16 @@
         <v>306</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Green Tea (Зеленый чай)'</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Green Tea (Зеленый чай)' },</v>
       </c>
       <c r="L91" t="str">
-        <f>CONCATENATE($F$1,$G$1,C91,$H$1,C91,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Green Tea (Зеленый чай)', name: 'Green Tea (Зеленый чай)' },</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -9879,16 +9885,16 @@
         <v>307</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Guava (Гуайява)'</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Guava (Гуайява)' },</v>
       </c>
       <c r="L92" t="str">
-        <f>CONCATENATE($F$1,$G$1,C92,$H$1,C92,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Guava (Гуайява)', name: 'Guava (Гуайява)' },</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -9896,16 +9902,16 @@
         <v>308</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Gummy Candy (Тянучки)'</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Gummy Candy (Тянучки)' },</v>
       </c>
       <c r="L93" t="str">
-        <f>CONCATENATE($F$1,$G$1,C93,$H$1,C93,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Gummy Candy (Тянучки)', name: 'Gummy Candy (Тянучки)' },</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -9913,16 +9919,16 @@
         <v>309</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Hazelnut (Лесной орех)'</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Hazelnut (Лесной орех)' },</v>
       </c>
       <c r="L94" t="str">
-        <f>CONCATENATE($F$1,$G$1,C94,$H$1,C94,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Hazelnut (Лесной орех)', name: 'Hazelnut (Лесной орех)' },</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -9930,16 +9936,16 @@
         <v>310</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Hibiscus (Гибискус)'</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Hibiscus (Гибискус)' },</v>
       </c>
       <c r="L95" t="str">
-        <f>CONCATENATE($F$1,$G$1,C95,$H$1,C95,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Hibiscus (Гибискус)', name: 'Hibiscus (Гибискус)' },</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -9947,16 +9953,16 @@
         <v>311</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Honey (Мед)'</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Honey (Мед)' },</v>
       </c>
       <c r="L96" t="str">
-        <f>CONCATENATE($F$1,$G$1,C96,$H$1,C96,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Honey (Мед)', name: 'Honey (Мед)' },</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -9964,16 +9970,16 @@
         <v>312</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Honeydew (Медовая дыня)'</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Honeydew (Медовая дыня)' },</v>
       </c>
       <c r="L97" t="str">
-        <f>CONCATENATE($F$1,$G$1,C97,$H$1,C97,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Honeydew (Медовая дыня)', name: 'Honeydew (Медовая дыня)' },</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -9981,16 +9987,16 @@
         <v>313</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Honeydew II (Медовая дыня (версия 2))'</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Honeydew II (Медовая дыня (версия 2))' },</v>
       </c>
       <c r="L98" t="str">
-        <f>CONCATENATE($F$1,$G$1,C98,$H$1,C98,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Honeydew II (Медовая дыня (версия 2))', name: 'Honeydew II (Медовая дыня (версия 2))' },</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -9998,16 +10004,16 @@
         <v>314</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Honeysuckle (Жимолость)'</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Honeysuckle (Жимолость)' },</v>
       </c>
       <c r="L99" t="str">
-        <f>CONCATENATE($F$1,$G$1,C99,$H$1,C99,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Honeysuckle (Жимолость)', name: 'Honeysuckle (Жимолость)' },</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -10015,16 +10021,16 @@
         <v>315</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Horehound (Шандра)'</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Horehound (Шандра)' },</v>
       </c>
       <c r="L100" t="str">
-        <f>CONCATENATE($F$1,$G$1,C100,$H$1,C100,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Horehound (Шандра)', name: 'Horehound (Шандра)' },</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -10032,16 +10038,16 @@
         <v>316</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Huckleberry (Хаклберри)'</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Huckleberry (Хаклберри)' },</v>
       </c>
       <c r="L101" t="str">
-        <f>CONCATENATE($F$1,$G$1,C101,$H$1,C101,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Huckleberry (Хаклберри)', name: 'Huckleberry (Хаклберри)' },</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -10049,16 +10055,16 @@
         <v>317</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Irish Cream (Ирландские сливки)'</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Irish Cream (Ирландские сливки)' },</v>
       </c>
       <c r="L102" t="str">
-        <f>CONCATENATE($F$1,$G$1,C102,$H$1,C102,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Irish Cream (Ирландские сливки)', name: 'Irish Cream (Ирландские сливки)' },</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -10066,16 +10072,16 @@
         <v>318</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Jackfruit (Джекфрут)'</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Jackfruit (Джекфрут)' },</v>
       </c>
       <c r="L103" t="str">
-        <f>CONCATENATE($F$1,$G$1,C103,$H$1,C103,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Jackfruit (Джекфрут)', name: 'Jackfruit (Джекфрут)' },</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -10083,16 +10089,16 @@
         <v>319</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Jamaican Rum (Ямайский ром)'</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Jamaican Rum (Ямайский ром)' },</v>
       </c>
       <c r="L104" t="str">
-        <f>CONCATENATE($F$1,$G$1,C104,$H$1,C104,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Jamaican Rum (Ямайский ром)', name: 'Jamaican Rum (Ямайский ром)' },</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -10100,16 +10106,16 @@
         <v>320</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Kalua and Cream (Калуа и сливки)'</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Kalua and Cream (Калуа и сливки)' },</v>
       </c>
       <c r="L105" t="str">
-        <f>CONCATENATE($F$1,$G$1,C105,$H$1,C105,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Kalua and Cream (Калуа и сливки)', name: 'Kalua and Cream (Калуа и сливки)' },</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -10117,16 +10123,16 @@
         <v>321</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Kentucky Bourbon (Бурбон из Кентукки)'</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Kentucky Bourbon (Бурбон из Кентукки)' },</v>
       </c>
       <c r="L106" t="str">
-        <f>CONCATENATE($F$1,$G$1,C106,$H$1,C106,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Kentucky Bourbon (Бурбон из Кентукки)', name: 'Kentucky Bourbon (Бурбон из Кентукки)' },</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -10134,16 +10140,16 @@
         <v>322</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Key Lime (Лайм)'</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Key Lime (Лайм)' },</v>
       </c>
       <c r="L107" t="str">
-        <f>CONCATENATE($F$1,$G$1,C107,$H$1,C107,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Key Lime (Лайм)', name: 'Key Lime (Лайм)' },</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -10151,16 +10157,16 @@
         <v>323</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Kiwi (Киви)'</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Kiwi (Киви)' },</v>
       </c>
       <c r="L108" t="str">
-        <f>CONCATENATE($F$1,$G$1,C108,$H$1,C108,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Kiwi (Киви)', name: 'Kiwi (Киви)' },</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -10168,16 +10174,16 @@
         <v>324</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Kiwi (Double) (Киви (двойной))'</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Kiwi (Double) (Киви (двойной))' },</v>
       </c>
       <c r="L109" t="str">
-        <f>CONCATENATE($F$1,$G$1,C109,$H$1,C109,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Kiwi (Double) (Киви (двойной))', name: 'Kiwi (Double) (Киви (двойной))' },</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -10185,16 +10191,16 @@
         <v>325</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Koolada 10 PG (Кулада)'</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Koolada 10 PG (Кулада)' },</v>
       </c>
       <c r="L110" t="str">
-        <f>CONCATENATE($F$1,$G$1,C110,$H$1,C110,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Koolada 10 PG (Кулада)', name: 'Koolada 10 PG (Кулада)' },</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -10202,16 +10208,16 @@
         <v>326</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Lemon (water soluble) (Лимон)'</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Lemon (water soluble) (Лимон)' },</v>
       </c>
       <c r="L111" t="str">
-        <f>CONCATENATE($F$1,$G$1,C111,$H$1,C111,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Lemon (water soluble) (Лимон)', name: 'Lemon (water soluble) (Лимон)' },</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -10219,16 +10225,16 @@
         <v>327</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Lemon 2 (Лимон (Версия 2))'</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Lemon 2 (Лимон (Версия 2))' },</v>
       </c>
       <c r="L112" t="str">
-        <f>CONCATENATE($F$1,$G$1,C112,$H$1,C112,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Lemon 2 (Лимон (Версия 2))', name: 'Lemon 2 (Лимон (Версия 2))' },</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -10236,16 +10242,16 @@
         <v>328</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Lemon Lime (Лимон-лайм)'</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Lemon Lime (Лимон-лайм)' },</v>
       </c>
       <c r="L113" t="str">
-        <f>CONCATENATE($F$1,$G$1,C113,$H$1,C113,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Lemon Lime (Лимон-лайм)', name: 'Lemon Lime (Лимон-лайм)' },</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -10253,16 +10259,16 @@
         <v>329</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Lemon Lime 2 (Лимон лайм (версия 2))'</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Lemon Lime 2 (Лимон лайм (версия 2))' },</v>
       </c>
       <c r="L114" t="str">
-        <f>CONCATENATE($F$1,$G$1,C114,$H$1,C114,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Lemon Lime 2 (Лимон лайм (версия 2))', name: 'Lemon Lime 2 (Лимон лайм (версия 2))' },</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -10270,16 +10276,16 @@
         <v>330</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Lemonade Cookie (Лимонадное печенье)'</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Lemonade Cookie (Лимонадное печенье)' },</v>
       </c>
       <c r="L115" t="str">
-        <f>CONCATENATE($F$1,$G$1,C115,$H$1,C115,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Lemonade Cookie (Лимонадное печенье)', name: 'Lemonade Cookie (Лимонадное печенье)' },</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -10287,16 +10293,16 @@
         <v>127</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Lucky Leprechaun Cereal (Зефирные хлопья)'</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Lucky Leprechaun Cereal (Зефирные хлопья)' },</v>
       </c>
       <c r="L116" t="str">
-        <f>CONCATENATE($F$1,$G$1,C116,$H$1,C116,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Lucky Leprechaun Cereal (Зефирные хлопья)', name: 'Lucky Leprechaun Cereal (Зефирные хлопья)' },</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -10304,16 +10310,16 @@
         <v>331</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Lychee (Личи)'</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Lychee (Личи)' },</v>
       </c>
       <c r="L117" t="str">
-        <f>CONCATENATE($F$1,$G$1,C117,$H$1,C117,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Lychee (Личи)', name: 'Lychee (Личи)' },</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -10321,16 +10327,16 @@
         <v>332</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'M Type Premium (Эм тайп премиум (табак))'</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'M Type Premium (Эм тайп премиум (табак))' },</v>
       </c>
       <c r="L118" t="str">
-        <f>CONCATENATE($F$1,$G$1,C118,$H$1,C118,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'M Type Premium (Эм тайп премиум (табак))', name: 'M Type Premium (Эм тайп премиум (табак))' },</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -10338,16 +10344,16 @@
         <v>333</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Malted milk (Сухое молоко)'</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Malted milk (Сухое молоко)' },</v>
       </c>
       <c r="L119" t="str">
-        <f>CONCATENATE($F$1,$G$1,C119,$H$1,C119,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Malted milk (Сухое молоко)', name: 'Malted milk (Сухое молоко)' },</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -10355,16 +10361,16 @@
         <v>334</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Mango (Манго)'</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Mango (Манго)' },</v>
       </c>
       <c r="L120" t="str">
-        <f>CONCATENATE($F$1,$G$1,C120,$H$1,C120,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Mango (Манго)', name: 'Mango (Манго)' },</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -10372,16 +10378,16 @@
         <v>335</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Maple Extract (Кленовый экстракт)'</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Maple Extract (Кленовый экстракт)' },</v>
       </c>
       <c r="L121" t="str">
-        <f>CONCATENATE($F$1,$G$1,C121,$H$1,C121,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Maple Extract (Кленовый экстракт)', name: 'Maple Extract (Кленовый экстракт)' },</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -10389,16 +10395,16 @@
         <v>336</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Maple Syrup (Кленовый сироп)'</v>
       </c>
       <c r="K122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Maple Syrup (Кленовый сироп)' },</v>
       </c>
       <c r="L122" t="str">
-        <f>CONCATENATE($F$1,$G$1,C122,$H$1,C122,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Maple Syrup (Кленовый сироп)', name: 'Maple Syrup (Кленовый сироп)' },</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -10406,16 +10412,16 @@
         <v>337</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Marshmallow (Маршмеллоу)'</v>
       </c>
       <c r="K123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Marshmallow (Маршмеллоу)' },</v>
       </c>
       <c r="L123" t="str">
-        <f>CONCATENATE($F$1,$G$1,C123,$H$1,C123,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Marshmallow (Маршмеллоу)', name: 'Marshmallow (Маршмеллоу)' },</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -10423,16 +10429,16 @@
         <v>338</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Mary Jane (Мери Джейн)'</v>
       </c>
       <c r="K124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Mary Jane (Мери Джейн)' },</v>
       </c>
       <c r="L124" t="str">
-        <f>CONCATENATE($F$1,$G$1,C124,$H$1,C124,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Mary Jane (Мери Джейн)', name: 'Mary Jane (Мери Джейн)' },</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -10440,16 +10446,16 @@
         <v>339</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Menthol liquid (Ментол)'</v>
       </c>
       <c r="K125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Menthol liquid (Ментол)' },</v>
       </c>
       <c r="L125" t="str">
-        <f>CONCATENATE($F$1,$G$1,C125,$H$1,C125,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Menthol liquid (Ментол)', name: 'Menthol liquid (Ментол)' },</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -10457,16 +10463,16 @@
         <v>340</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Meringue (Безе)'</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Meringue (Безе)' },</v>
       </c>
       <c r="L126" t="str">
-        <f>CONCATENATE($F$1,$G$1,C126,$H$1,C126,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Meringue (Безе)', name: 'Meringue (Безе)' },</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -10474,16 +10480,16 @@
         <v>341</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Milk Chocolate (Молочный шоколад)'</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Milk Chocolate (Молочный шоколад)' },</v>
       </c>
       <c r="L127" t="str">
-        <f>CONCATENATE($F$1,$G$1,C127,$H$1,C127,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Milk Chocolate (Молочный шоколад)', name: 'Milk Chocolate (Молочный шоколад)' },</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -10491,16 +10497,16 @@
         <v>342</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Mojito Havana (Мохито)'</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Mojito Havana (Мохито)' },</v>
       </c>
       <c r="L128" t="str">
-        <f>CONCATENATE($F$1,$G$1,C128,$H$1,C128,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Mojito Havana (Мохито)', name: 'Mojito Havana (Мохито)' },</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -10508,16 +10514,16 @@
         <v>343</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>'Molasses (Меласса)'</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{name: 'Molasses (Меласса)' },</v>
       </c>
       <c r="L129" t="str">
-        <f>CONCATENATE($F$1,$G$1,C129,$H$1,C129,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="5"/>
+        <v>{id: 'Molasses (Меласса)', name: 'Molasses (Меласса)' },</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -10525,16 +10531,16 @@
         <v>344</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="4">CONCATENATE("'",A130,"'")</f>
+        <f t="shared" ref="B130:B193" si="6">CONCATENATE("'",A130,"'")</f>
         <v>'Musk Candy (Конфеты Musk Lifesaver)'</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" ref="K130:K193" si="5">CONCATENATE($F$1,$H$1,B130,$J$1)</f>
+        <f t="shared" ref="K130:K193" si="7">CONCATENATE($F$1,$H$1,B130,$J$1)</f>
         <v>{name: 'Musk Candy (Конфеты Musk Lifesaver)' },</v>
       </c>
       <c r="L130" t="str">
-        <f>CONCATENATE($F$1,$G$1,C130,$H$1,C130,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" ref="L130:L193" si="8">CONCATENATE($F$1,$G$1,B130,$H$2,$H$1,B130,$J$1)</f>
+        <v>{id: 'Musk Candy (Конфеты Musk Lifesaver)', name: 'Musk Candy (Конфеты Musk Lifesaver)' },</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -10542,16 +10548,16 @@
         <v>345</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Nectarine (Нектарин)'</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Nectarine (Нектарин)' },</v>
       </c>
       <c r="L131" t="str">
-        <f>CONCATENATE($F$1,$G$1,C131,$H$1,C131,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Nectarine (Нектарин)', name: 'Nectarine (Нектарин)' },</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -10559,16 +10565,16 @@
         <v>346</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Oatmeal Cookie (Овсянное печенье)'</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Oatmeal Cookie (Овсянное печенье)' },</v>
       </c>
       <c r="L132" t="str">
-        <f>CONCATENATE($F$1,$G$1,C132,$H$1,C132,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Oatmeal Cookie (Овсянное печенье)', name: 'Oatmeal Cookie (Овсянное печенье)' },</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -10576,16 +10582,16 @@
         <v>347</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Orange Cream (Апельсиновый крем)'</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Orange Cream (Апельсиновый крем)' },</v>
       </c>
       <c r="L133" t="str">
-        <f>CONCATENATE($F$1,$G$1,C133,$H$1,C133,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Orange Cream (Апельсиновый крем)', name: 'Orange Cream (Апельсиновый крем)' },</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -10593,16 +10599,16 @@
         <v>348</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Orange Mandarin (Мандарин)'</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Orange Mandarin (Мандарин)' },</v>
       </c>
       <c r="L134" t="str">
-        <f>CONCATENATE($F$1,$G$1,C134,$H$1,C134,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Orange Mandarin (Мандарин)', name: 'Orange Mandarin (Мандарин)' },</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -10610,16 +10616,16 @@
         <v>349</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pancake (Панкейк)'</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pancake (Панкейк)' },</v>
       </c>
       <c r="L135" t="str">
-        <f>CONCATENATE($F$1,$G$1,C135,$H$1,C135,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pancake (Панкейк)', name: 'Pancake (Панкейк)' },</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -10627,16 +10633,16 @@
         <v>350</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Papaya (Папайя)'</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Papaya (Папайя)' },</v>
       </c>
       <c r="L136" t="str">
-        <f>CONCATENATE($F$1,$G$1,C136,$H$1,C136,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Papaya (Папайя)', name: 'Papaya (Папайя)' },</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -10644,16 +10650,16 @@
         <v>351</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Passion Fruit (Маракуйя)'</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Passion Fruit (Маракуйя)' },</v>
       </c>
       <c r="L137" t="str">
-        <f>CONCATENATE($F$1,$G$1,C137,$H$1,C137,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Passion Fruit (Маракуйя)', name: 'Passion Fruit (Маракуйя)' },</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -10661,16 +10667,16 @@
         <v>352</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Peach (Персик)'</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Peach (Персик)' },</v>
       </c>
       <c r="L138" t="str">
-        <f>CONCATENATE($F$1,$G$1,C138,$H$1,C138,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Peach (Персик)', name: 'Peach (Персик)' },</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -10678,16 +10684,16 @@
         <v>353</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Peach (Juicy) (Сок персика)'</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Peach (Juicy) (Сок персика)' },</v>
       </c>
       <c r="L139" t="str">
-        <f>CONCATENATE($F$1,$G$1,C139,$H$1,C139,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Peach (Juicy) (Сок персика)', name: 'Peach (Juicy) (Сок персика)' },</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -10695,16 +10701,16 @@
         <v>354</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Peanut Butter (Арахисовое масло)'</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Peanut Butter (Арахисовое масло)' },</v>
       </c>
       <c r="L140" t="str">
-        <f>CONCATENATE($F$1,$G$1,C140,$H$1,C140,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Peanut Butter (Арахисовое масло)', name: 'Peanut Butter (Арахисовое масло)' },</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -10712,16 +10718,16 @@
         <v>355</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pear (Груша)'</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pear (Груша)' },</v>
       </c>
       <c r="L141" t="str">
-        <f>CONCATENATE($F$1,$G$1,C141,$H$1,C141,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pear (Груша)', name: 'Pear (Груша)' },</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -10729,16 +10735,16 @@
         <v>356</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pear Candy (Грушевые конфеты)'</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pear Candy (Грушевые конфеты)' },</v>
       </c>
       <c r="L142" t="str">
-        <f>CONCATENATE($F$1,$G$1,C142,$H$1,C142,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pear Candy (Грушевые конфеты)', name: 'Pear Candy (Грушевые конфеты)' },</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -10746,16 +10752,16 @@
         <v>357</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pecan (Орех Пекан)'</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pecan (Орех Пекан)' },</v>
       </c>
       <c r="L143" t="str">
-        <f>CONCATENATE($F$1,$G$1,C143,$H$1,C143,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pecan (Орех Пекан)', name: 'Pecan (Орех Пекан)' },</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -10763,16 +10769,16 @@
         <v>358</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Peppermint (Перечная мята)'</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Peppermint (Перечная мята)' },</v>
       </c>
       <c r="L144" t="str">
-        <f>CONCATENATE($F$1,$G$1,C144,$H$1,C144,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Peppermint (Перечная мята)', name: 'Peppermint (Перечная мята)' },</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -10780,16 +10786,16 @@
         <v>359</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pie Crust (Корочка пирога)'</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pie Crust (Корочка пирога)' },</v>
       </c>
       <c r="L145" t="str">
-        <f>CONCATENATE($F$1,$G$1,C145,$H$1,C145,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pie Crust (Корочка пирога)', name: 'Pie Crust (Корочка пирога)' },</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -10797,16 +10803,16 @@
         <v>161</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pina Colada (Пина Колада)'</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pina Colada (Пина Колада)' },</v>
       </c>
       <c r="L146" t="str">
-        <f>CONCATENATE($F$1,$G$1,C146,$H$1,C146,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pina Colada (Пина Колада)', name: 'Pina Colada (Пина Колада)' },</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -10814,16 +10820,16 @@
         <v>360</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pineapple (Ананас)'</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pineapple (Ананас)' },</v>
       </c>
       <c r="L147" t="str">
-        <f>CONCATENATE($F$1,$G$1,C147,$H$1,C147,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pineapple (Ананас)', name: 'Pineapple (Ананас)' },</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -10831,16 +10837,16 @@
         <v>361</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pistachio (Фисташки)'</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pistachio (Фисташки)' },</v>
       </c>
       <c r="L148" t="str">
-        <f>CONCATENATE($F$1,$G$1,C148,$H$1,C148,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pistachio (Фисташки)', name: 'Pistachio (Фисташки)' },</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -10848,16 +10854,16 @@
         <v>362</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Plum (Слива)'</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Plum (Слива)' },</v>
       </c>
       <c r="L149" t="str">
-        <f>CONCATENATE($F$1,$G$1,C149,$H$1,C149,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Plum (Слива)', name: 'Plum (Слива)' },</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -10865,16 +10871,16 @@
         <v>363</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pomegranate (Гранат)'</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pomegranate (Гранат)' },</v>
       </c>
       <c r="L150" t="str">
-        <f>CONCATENATE($F$1,$G$1,C150,$H$1,C150,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pomegranate (Гранат)', name: 'Pomegranate (Гранат)' },</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -10882,16 +10888,16 @@
         <v>364</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Pomegranate Deluxe (Гранат (делюкс))'</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Pomegranate Deluxe (Гранат (делюкс))' },</v>
       </c>
       <c r="L151" t="str">
-        <f>CONCATENATE($F$1,$G$1,C151,$H$1,C151,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Pomegranate Deluxe (Гранат (делюкс))', name: 'Pomegranate Deluxe (Гранат (делюкс))' },</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -10899,16 +10905,16 @@
         <v>167</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Popcorn (Попкорн)'</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Popcorn (Попкорн)' },</v>
       </c>
       <c r="L152" t="str">
-        <f>CONCATENATE($F$1,$G$1,C152,$H$1,C152,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Popcorn (Попкорн)', name: 'Popcorn (Попкорн)' },</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -10916,16 +10922,16 @@
         <v>365</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Quince (Айва)'</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Quince (Айва)' },</v>
       </c>
       <c r="L153" t="str">
-        <f>CONCATENATE($F$1,$G$1,C153,$H$1,C153,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Quince (Айва)', name: 'Quince (Айва)' },</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -10933,16 +10939,16 @@
         <v>366</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Rainbow Drops (Скиттлс)'</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Rainbow Drops (Скиттлс)' },</v>
       </c>
       <c r="L154" t="str">
-        <f>CONCATENATE($F$1,$G$1,C154,$H$1,C154,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Rainbow Drops (Скиттлс)', name: 'Rainbow Drops (Скиттлс)' },</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -10950,16 +10956,16 @@
         <v>367</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Raisin (Изюм)'</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Raisin (Изюм)' },</v>
       </c>
       <c r="L155" t="str">
-        <f>CONCATENATE($F$1,$G$1,C155,$H$1,C155,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Raisin (Изюм)', name: 'Raisin (Изюм)' },</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -10967,16 +10973,16 @@
         <v>368</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Raspberry (Малина)'</v>
       </c>
       <c r="K156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Raspberry (Малина)' },</v>
       </c>
       <c r="L156" t="str">
-        <f>CONCATENATE($F$1,$G$1,C156,$H$1,C156,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Raspberry (Малина)', name: 'Raspberry (Малина)' },</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -10984,16 +10990,16 @@
         <v>369</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Raspberry (Sweet) (Сладкая малина)'</v>
       </c>
       <c r="K157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Raspberry (Sweet) (Сладкая малина)' },</v>
       </c>
       <c r="L157" t="str">
-        <f>CONCATENATE($F$1,$G$1,C157,$H$1,C157,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Raspberry (Sweet) (Сладкая малина)', name: 'Raspberry (Sweet) (Сладкая малина)' },</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -11001,16 +11007,16 @@
         <v>370</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Red Licorice (Красная лакрица)'</v>
       </c>
       <c r="K158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Red Licorice (Красная лакрица)' },</v>
       </c>
       <c r="L158" t="str">
-        <f>CONCATENATE($F$1,$G$1,C158,$H$1,C158,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Red Licorice (Красная лакрица)', name: 'Red Licorice (Красная лакрица)' },</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -11018,16 +11024,16 @@
         <v>371</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Red Type II Blend (Ред тайп (табак))'</v>
       </c>
       <c r="K159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Red Type II Blend (Ред тайп (табак))' },</v>
       </c>
       <c r="L159" t="str">
-        <f>CONCATENATE($F$1,$G$1,C159,$H$1,C159,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Red Type II Blend (Ред тайп (табак))', name: 'Red Type II Blend (Ред тайп (табак))' },</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -11035,16 +11041,16 @@
         <v>372</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Rice Crunchies (Рисовые хлопья)'</v>
       </c>
       <c r="K160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Rice Crunchies (Рисовые хлопья)' },</v>
       </c>
       <c r="L160" t="str">
-        <f>CONCATENATE($F$1,$G$1,C160,$H$1,C160,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Rice Crunchies (Рисовые хлопья)', name: 'Rice Crunchies (Рисовые хлопья)' },</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -11052,16 +11058,16 @@
         <v>373</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Ripe Banana (Спелый банан)'</v>
       </c>
       <c r="K161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Ripe Banana (Спелый банан)' },</v>
       </c>
       <c r="L161" t="str">
-        <f>CONCATENATE($F$1,$G$1,C161,$H$1,C161,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Ripe Banana (Спелый банан)', name: 'Ripe Banana (Спелый банан)' },</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -11069,16 +11075,16 @@
         <v>374</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Root beer flavor (pg) (Рутбир)'</v>
       </c>
       <c r="K162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Root beer flavor (pg) (Рутбир)' },</v>
       </c>
       <c r="L162" t="str">
-        <f>CONCATENATE($F$1,$G$1,C162,$H$1,C162,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Root beer flavor (pg) (Рутбир)', name: 'Root beer flavor (pg) (Рутбир)' },</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -11086,16 +11092,16 @@
         <v>375</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Root Beer Float (Рутбир Float)'</v>
       </c>
       <c r="K163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Root Beer Float (Рутбир Float)' },</v>
       </c>
       <c r="L163" t="str">
-        <f>CONCATENATE($F$1,$G$1,C163,$H$1,C163,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Root Beer Float (Рутбир Float)', name: 'Root Beer Float (Рутбир Float)' },</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -11103,16 +11109,16 @@
         <v>376</v>
       </c>
       <c r="B164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'RY4 Double (RY4 (Табак (двойной)))'</v>
       </c>
       <c r="K164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'RY4 Double (RY4 (Табак (двойной)))' },</v>
       </c>
       <c r="L164" t="str">
-        <f>CONCATENATE($F$1,$G$1,C164,$H$1,C164,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'RY4 Double (RY4 (Табак (двойной)))', name: 'RY4 Double (RY4 (Табак (двойной)))' },</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -11120,16 +11126,16 @@
         <v>377</v>
       </c>
       <c r="B165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'RY4 Type (RY4 (Табак))'</v>
       </c>
       <c r="K165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'RY4 Type (RY4 (Табак))' },</v>
       </c>
       <c r="L165" t="str">
-        <f>CONCATENATE($F$1,$G$1,C165,$H$1,C165,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'RY4 Type (RY4 (Табак))', name: 'RY4 Type (RY4 (Табак))' },</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -11137,16 +11143,16 @@
         <v>378</v>
       </c>
       <c r="B166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Slim Mint Cookie (Мятное печенье)'</v>
       </c>
       <c r="K166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Slim Mint Cookie (Мятное печенье)' },</v>
       </c>
       <c r="L166" t="str">
-        <f>CONCATENATE($F$1,$G$1,C166,$H$1,C166,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Slim Mint Cookie (Мятное печенье)', name: 'Slim Mint Cookie (Мятное печенье)' },</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -11154,16 +11160,16 @@
         <v>379</v>
       </c>
       <c r="B167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Smooth (Smooth)'</v>
       </c>
       <c r="K167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Smooth (Smooth)' },</v>
       </c>
       <c r="L167" t="str">
-        <f>CONCATENATE($F$1,$G$1,C167,$H$1,C167,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Smooth (Smooth)', name: 'Smooth (Smooth)' },</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -11171,16 +11177,16 @@
         <v>380</v>
       </c>
       <c r="B168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Sour (Кислый)'</v>
       </c>
       <c r="K168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Sour (Кислый)' },</v>
       </c>
       <c r="L168" t="str">
-        <f>CONCATENATE($F$1,$G$1,C168,$H$1,C168,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Sour (Кислый)', name: 'Sour (Кислый)' },</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -11188,16 +11194,16 @@
         <v>381</v>
       </c>
       <c r="B169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Spearmint (Мята колосистая)'</v>
       </c>
       <c r="K169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Spearmint (Мята колосистая)' },</v>
       </c>
       <c r="L169" t="str">
-        <f>CONCATENATE($F$1,$G$1,C169,$H$1,C169,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Spearmint (Мята колосистая)', name: 'Spearmint (Мята колосистая)' },</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -11205,16 +11211,16 @@
         <v>382</v>
       </c>
       <c r="B170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Strawberries and Cream (Клубника со сливками)'</v>
       </c>
       <c r="K170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Strawberries and Cream (Клубника со сливками)' },</v>
       </c>
       <c r="L170" t="str">
-        <f>CONCATENATE($F$1,$G$1,C170,$H$1,C170,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Strawberries and Cream (Клубника со сливками)', name: 'Strawberries and Cream (Клубника со сливками)' },</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -11222,16 +11228,16 @@
         <v>383</v>
       </c>
       <c r="B171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Strawberry (Клубника)'</v>
       </c>
       <c r="K171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Strawberry (Клубника)' },</v>
       </c>
       <c r="L171" t="str">
-        <f>CONCATENATE($F$1,$G$1,C171,$H$1,C171,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Strawberry (Клубника)', name: 'Strawberry (Клубника)' },</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -11239,16 +11245,16 @@
         <v>384</v>
       </c>
       <c r="B172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Strawberry (Ripe) (Спелая клубника)'</v>
       </c>
       <c r="K172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Strawberry (Ripe) (Спелая клубника)' },</v>
       </c>
       <c r="L172" t="str">
-        <f>CONCATENATE($F$1,$G$1,C172,$H$1,C172,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Strawberry (Ripe) (Спелая клубника)', name: 'Strawberry (Ripe) (Спелая клубника)' },</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -11256,16 +11262,16 @@
         <v>385</v>
       </c>
       <c r="B173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Swedish Gummy (Шведский гамми)'</v>
       </c>
       <c r="K173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Swedish Gummy (Шведский гамми)' },</v>
       </c>
       <c r="L173" t="str">
-        <f>CONCATENATE($F$1,$G$1,C173,$H$1,C173,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Swedish Gummy (Шведский гамми)', name: 'Swedish Gummy (Шведский гамми)' },</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -11273,16 +11279,16 @@
         <v>386</v>
       </c>
       <c r="B174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Sweet and Tart (Кофеты Sweet Tart (Холодок))'</v>
       </c>
       <c r="K174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Sweet and Tart (Кофеты Sweet Tart (Холодок))' },</v>
       </c>
       <c r="L174" t="str">
-        <f>CONCATENATE($F$1,$G$1,C174,$H$1,C174,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Sweet and Tart (Кофеты Sweet Tart (Холодок))', name: 'Sweet and Tart (Кофеты Sweet Tart (Холодок))' },</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -11290,16 +11296,16 @@
         <v>387</v>
       </c>
       <c r="B175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Sweet Cream (Сладкий крем)'</v>
       </c>
       <c r="K175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Sweet Cream (Сладкий крем)' },</v>
       </c>
       <c r="L175" t="str">
-        <f>CONCATENATE($F$1,$G$1,C175,$H$1,C175,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Sweet Cream (Сладкий крем)', name: 'Sweet Cream (Сладкий крем)' },</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -11307,16 +11313,16 @@
         <v>388</v>
       </c>
       <c r="B176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Sweet Tea (Сладкий чай)'</v>
       </c>
       <c r="K176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Sweet Tea (Сладкий чай)' },</v>
       </c>
       <c r="L176" t="str">
-        <f>CONCATENATE($F$1,$G$1,C176,$H$1,C176,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Sweet Tea (Сладкий чай)', name: 'Sweet Tea (Сладкий чай)' },</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -11324,16 +11330,16 @@
         <v>389</v>
       </c>
       <c r="B177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Sweetener (Подсластитель)'</v>
       </c>
       <c r="K177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Sweetener (Подсластитель)' },</v>
       </c>
       <c r="L177" t="str">
-        <f>CONCATENATE($F$1,$G$1,C177,$H$1,C177,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Sweetener (Подсластитель)', name: 'Sweetener (Подсластитель)' },</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -11341,16 +11347,16 @@
         <v>390</v>
       </c>
       <c r="B178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Tiramisu (Тирамису)'</v>
       </c>
       <c r="K178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Tiramisu (Тирамису)' },</v>
       </c>
       <c r="L178" t="str">
-        <f>CONCATENATE($F$1,$G$1,C178,$H$1,C178,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Tiramisu (Тирамису)', name: 'Tiramisu (Тирамису)' },</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -11358,16 +11364,16 @@
         <v>391</v>
       </c>
       <c r="B179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Toasted Almond (Жаренный миндаль)'</v>
       </c>
       <c r="K179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Toasted Almond (Жаренный миндаль)' },</v>
       </c>
       <c r="L179" t="str">
-        <f>CONCATENATE($F$1,$G$1,C179,$H$1,C179,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Toasted Almond (Жаренный миндаль)', name: 'Toasted Almond (Жаренный миндаль)' },</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -11375,16 +11381,16 @@
         <v>392</v>
       </c>
       <c r="B180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Toasted Marshmallow (Поджареный зефир)'</v>
       </c>
       <c r="K180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Toasted Marshmallow (Поджареный зефир)' },</v>
       </c>
       <c r="L180" t="str">
-        <f>CONCATENATE($F$1,$G$1,C180,$H$1,C180,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Toasted Marshmallow (Поджареный зефир)', name: 'Toasted Marshmallow (Поджареный зефир)' },</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -11392,16 +11398,16 @@
         <v>393</v>
       </c>
       <c r="B181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Tutti-Frutti (Тутти-фрутти)'</v>
       </c>
       <c r="K181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Tutti-Frutti (Тутти-фрутти)' },</v>
       </c>
       <c r="L181" t="str">
-        <f>CONCATENATE($F$1,$G$1,C181,$H$1,C181,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Tutti-Frutti (Тутти-фрутти)', name: 'Tutti-Frutti (Тутти-фрутти)' },</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -11409,16 +11415,16 @@
         <v>394</v>
       </c>
       <c r="B182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Vanilla (Bourbon) (Ваниль бурбон)'</v>
       </c>
       <c r="K182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Vanilla (Bourbon) (Ваниль бурбон)' },</v>
       </c>
       <c r="L182" t="str">
-        <f>CONCATENATE($F$1,$G$1,C182,$H$1,C182,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Vanilla (Bourbon) (Ваниль бурбон)', name: 'Vanilla (Bourbon) (Ваниль бурбон)' },</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -11426,16 +11432,16 @@
         <v>395</v>
       </c>
       <c r="B183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Vanilla Bean Gelato (Ванильный заварной крем)'</v>
       </c>
       <c r="K183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Vanilla Bean Gelato (Ванильный заварной крем)' },</v>
       </c>
       <c r="L183" t="str">
-        <f>CONCATENATE($F$1,$G$1,C183,$H$1,C183,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Vanilla Bean Gelato (Ванильный заварной крем)', name: 'Vanilla Bean Gelato (Ванильный заварной крем)' },</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -11443,16 +11449,16 @@
         <v>396</v>
       </c>
       <c r="B184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Vanilla Bean Ice Cream (Ванильное мороженное)'</v>
       </c>
       <c r="K184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
       </c>
       <c r="L184" t="str">
-        <f>CONCATENATE($F$1,$G$1,C184,$H$1,C184,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Vanilla Bean Ice Cream (Ванильное мороженное)', name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -11460,16 +11466,16 @@
         <v>397</v>
       </c>
       <c r="B185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Vanilla Cupcake (Ванильный пирог)'</v>
       </c>
       <c r="K185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Vanilla Cupcake (Ванильный пирог)' },</v>
       </c>
       <c r="L185" t="str">
-        <f>CONCATENATE($F$1,$G$1,C185,$H$1,C185,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Vanilla Cupcake (Ванильный пирог)', name: 'Vanilla Cupcake (Ванильный пирог)' },</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -11477,16 +11483,16 @@
         <v>398</v>
       </c>
       <c r="B186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Vanilla Custard (Ванильный кастард)'</v>
       </c>
       <c r="K186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Vanilla Custard (Ванильный кастард)' },</v>
       </c>
       <c r="L186" t="str">
-        <f>CONCATENATE($F$1,$G$1,C186,$H$1,C186,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Vanilla Custard (Ванильный кастард)', name: 'Vanilla Custard (Ванильный кастард)' },</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -11494,16 +11500,16 @@
         <v>399</v>
       </c>
       <c r="B187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Vanilla Swirl (Ванильный рожок)'</v>
       </c>
       <c r="K187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Vanilla Swirl (Ванильный рожок)' },</v>
       </c>
       <c r="L187" t="str">
-        <f>CONCATENATE($F$1,$G$1,C187,$H$1,C187,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Vanilla Swirl (Ванильный рожок)', name: 'Vanilla Swirl (Ванильный рожок)' },</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -11511,16 +11517,16 @@
         <v>400</v>
       </c>
       <c r="B188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Vanillin 10 (PG) (Ванилин)'</v>
       </c>
       <c r="K188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Vanillin 10 (PG) (Ванилин)' },</v>
       </c>
       <c r="L188" t="str">
-        <f>CONCATENATE($F$1,$G$1,C188,$H$1,C188,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Vanillin 10 (PG) (Ванилин)', name: 'Vanillin 10 (PG) (Ванилин)' },</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -11528,16 +11534,16 @@
         <v>401</v>
       </c>
       <c r="B189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Waffle (Вафли)'</v>
       </c>
       <c r="K189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Waffle (Вафли)' },</v>
       </c>
       <c r="L189" t="str">
-        <f>CONCATENATE($F$1,$G$1,C189,$H$1,C189,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Waffle (Вафли)', name: 'Waffle (Вафли)' },</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -11545,16 +11551,16 @@
         <v>211</v>
       </c>
       <c r="B190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Waffle (Belgian) (Бельгийские вафли)'</v>
       </c>
       <c r="K190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Waffle (Belgian) (Бельгийские вафли)' },</v>
       </c>
       <c r="L190" t="str">
-        <f>CONCATENATE($F$1,$G$1,C190,$H$1,C190,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Waffle (Belgian) (Бельгийские вафли)', name: 'Waffle (Belgian) (Бельгийские вафли)' },</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -11562,16 +11568,16 @@
         <v>402</v>
       </c>
       <c r="B191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Watermelon (Арбуз)'</v>
       </c>
       <c r="K191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Watermelon (Арбуз)' },</v>
       </c>
       <c r="L191" t="str">
-        <f>CONCATENATE($F$1,$G$1,C191,$H$1,C191,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Watermelon (Арбуз)', name: 'Watermelon (Арбуз)' },</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -11579,16 +11585,16 @@
         <v>403</v>
       </c>
       <c r="B192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Watermelon Candy (Арбузные леденцы)'</v>
       </c>
       <c r="K192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Watermelon Candy (Арбузные леденцы)' },</v>
       </c>
       <c r="L192" t="str">
-        <f>CONCATENATE($F$1,$G$1,C192,$H$1,C192,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Watermelon Candy (Арбузные леденцы)', name: 'Watermelon Candy (Арбузные леденцы)' },</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -11596,16 +11602,16 @@
         <v>404</v>
       </c>
       <c r="B193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>'Western (Вестерн)'</v>
       </c>
       <c r="K193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>{name: 'Western (Вестерн)' },</v>
       </c>
       <c r="L193" t="str">
-        <f>CONCATENATE($F$1,$G$1,C193,$H$1,C193,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="8"/>
+        <v>{id: 'Western (Вестерн)', name: 'Western (Вестерн)' },</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -11613,16 +11619,16 @@
         <v>405</v>
       </c>
       <c r="B194" t="str">
-        <f t="shared" ref="B194:B197" si="6">CONCATENATE("'",A194,"'")</f>
+        <f t="shared" ref="B194:B197" si="9">CONCATENATE("'",A194,"'")</f>
         <v>'Whipped Cream (Взбитые сливки)'</v>
       </c>
       <c r="K194" t="str">
-        <f t="shared" ref="K194:K197" si="7">CONCATENATE($F$1,$H$1,B194,$J$1)</f>
+        <f t="shared" ref="K194:K197" si="10">CONCATENATE($F$1,$H$1,B194,$J$1)</f>
         <v>{name: 'Whipped Cream (Взбитые сливки)' },</v>
       </c>
       <c r="L194" t="str">
-        <f>CONCATENATE($F$1,$G$1,C194,$H$1,C194,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" ref="L194:L197" si="11">CONCATENATE($F$1,$G$1,B194,$H$2,$H$1,B194,$J$1)</f>
+        <v>{id: 'Whipped Cream (Взбитые сливки)', name: 'Whipped Cream (Взбитые сливки)' },</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -11630,16 +11636,16 @@
         <v>406</v>
       </c>
       <c r="B195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>'White Chocolate (Белый шоколад)'</v>
       </c>
       <c r="K195" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{name: 'White Chocolate (Белый шоколад)' },</v>
       </c>
       <c r="L195" t="str">
-        <f>CONCATENATE($F$1,$G$1,C195,$H$1,C195,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="11"/>
+        <v>{id: 'White Chocolate (Белый шоколад)', name: 'White Chocolate (Белый шоколад)' },</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -11647,16 +11653,16 @@
         <v>407</v>
       </c>
       <c r="B196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>'Wintergreen (Мятные кофеты)'</v>
       </c>
       <c r="K196" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{name: 'Wintergreen (Мятные кофеты)' },</v>
       </c>
       <c r="L196" t="str">
-        <f>CONCATENATE($F$1,$G$1,C196,$H$1,C196,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="11"/>
+        <v>{id: 'Wintergreen (Мятные кофеты)', name: 'Wintergreen (Мятные кофеты)' },</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -11664,16 +11670,16 @@
         <v>219</v>
       </c>
       <c r="B197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>'Yam (Ямс)'</v>
       </c>
       <c r="K197" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>{name: 'Yam (Ямс)' },</v>
       </c>
       <c r="L197" t="str">
-        <f>CONCATENATE($F$1,$G$1,C197,$H$1,C197,$I$1)</f>
-        <v>{id: name: isSelected: false</v>
+        <f t="shared" si="11"/>
+        <v>{id: 'Yam (Ямс)', name: 'Yam (Ямс)' },</v>
       </c>
     </row>
   </sheetData>

--- a/info/список ароматизаторов.xlsx
+++ b/info/список ароматизаторов.xlsx
@@ -2,15 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Capella" sheetId="3" r:id="rId3"/>
+    <sheet name="FlavourArt" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="542">
   <si>
     <t>A</t>
   </si>
@@ -6150,12 +6152,396 @@
   </si>
   <si>
     <t xml:space="preserve">, </t>
+  </si>
+  <si>
+    <t>Apple Pie V2 (Яблочный пирог 2)</t>
+  </si>
+  <si>
+    <t>Banana (Банан)</t>
+  </si>
+  <si>
+    <t>Bavarian Cream (Баварский крем)</t>
+  </si>
+  <si>
+    <t>Blackberry (Ежевика)</t>
+  </si>
+  <si>
+    <t>Bubble Gum (Жвачка)</t>
+  </si>
+  <si>
+    <t>Butter Cream (Крем)</t>
+  </si>
+  <si>
+    <t>Cake Batter (Тесто для кекса)</t>
+  </si>
+  <si>
+    <t>Cantaloupe (Мускусная дыня)</t>
+  </si>
+  <si>
+    <t>Cappuccino (Каппучино)</t>
+  </si>
+  <si>
+    <t>Caramel V2 (Карамель 2)</t>
+  </si>
+  <si>
+    <t>Cereal 27 (Кукурузные хлопья)</t>
+  </si>
+  <si>
+    <t>Cherry (Wild) w/Stevia (Дикая вишня и стевия)</t>
+  </si>
+  <si>
+    <t>Chocolate Coconut Almond (Шоколад кокос миндаль)</t>
+  </si>
+  <si>
+    <t>Chocolate Glazed Doughnut (Глазированный шаколадный пончик)</t>
+  </si>
+  <si>
+    <t>Chocolate Raspberry (Малина с шоколадом)</t>
+  </si>
+  <si>
+    <t>Cola (Кола)</t>
+  </si>
+  <si>
+    <t>Concord Grape w/Stevia (Конкорд и стевия)</t>
+  </si>
+  <si>
+    <t>Cool Mint (Мятная свежесть)</t>
+  </si>
+  <si>
+    <t>Cranberry (Клюква)</t>
+  </si>
+  <si>
+    <t>Creamy Yogurt (Кремовый йогурт)</t>
+  </si>
+  <si>
+    <t>Double Apple (Двойное яблоко)</t>
+  </si>
+  <si>
+    <t>Double Watermelon (Двойной арбуз)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Драгонфрут)</t>
+  </si>
+  <si>
+    <t>Funnel Cake (Торт "Муравейник")</t>
+  </si>
+  <si>
+    <t>Golden Pineapple (Золотой ананас)</t>
+  </si>
+  <si>
+    <t>Graham Cracker V2 (Грэхем крекер 2)</t>
+  </si>
+  <si>
+    <t>Grapefruit (Грейпфрут)</t>
+  </si>
+  <si>
+    <t>Greek Yogurt (Греческий йогурт)</t>
+  </si>
+  <si>
+    <t>Green Apple (Зеленое яблоко)</t>
+  </si>
+  <si>
+    <t>Grenadine (Гренадин)</t>
+  </si>
+  <si>
+    <t>Harvest Berry (Лесные ягоды)</t>
+  </si>
+  <si>
+    <t>Hazelnut (Лесной орех)</t>
+  </si>
+  <si>
+    <t>Honeydew Melon (Медовая дыня)</t>
+  </si>
+  <si>
+    <t>Jelly Candys (Конфеты желе)</t>
+  </si>
+  <si>
+    <t>Juicy Lemon (Сок лимона)</t>
+  </si>
+  <si>
+    <t>Juicy Orange (Сочный апельсин)</t>
+  </si>
+  <si>
+    <t>Juicy Peach (Сочный персик)</t>
+  </si>
+  <si>
+    <t>Kiwi (Киви)</t>
+  </si>
+  <si>
+    <t>Kiwi Strawberry (Киви и клубника)</t>
+  </si>
+  <si>
+    <t>Lemon Lime (Лимон-лайм)</t>
+  </si>
+  <si>
+    <t>Maple (Pancake Syrup) (Кленовый сироп)</t>
+  </si>
+  <si>
+    <t>Milk Chocolate Toffee (Шоколаный тоффи)</t>
+  </si>
+  <si>
+    <t>New York Cheesecake v2 (New York чизкейк v2)</t>
+  </si>
+  <si>
+    <t>Orange Creamsicle (Апельсиновое мороженное)</t>
+  </si>
+  <si>
+    <t>Orange Mango (Апельсин и манго)</t>
+  </si>
+  <si>
+    <t>Passion Fruit (Маракуйя)</t>
+  </si>
+  <si>
+    <t>Peach w/Stevia (Персик и стевия)</t>
+  </si>
+  <si>
+    <t>Peaches and Cream (Персики в крему)</t>
+  </si>
+  <si>
+    <t>Peaches and Cream v2 (Персики в крему v2)</t>
+  </si>
+  <si>
+    <t>Peanut Butter V2 (Арахисовое масло (версия 2))</t>
+  </si>
+  <si>
+    <t>Pear Flavor (Груша)</t>
+  </si>
+  <si>
+    <t>Pink Lemonades (Лимонад)</t>
+  </si>
+  <si>
+    <t>Pomegranate V2 (Гранат 2)</t>
+  </si>
+  <si>
+    <t>Raspberry (Малина)</t>
+  </si>
+  <si>
+    <t>Raspberry V2 (Малина 2)</t>
+  </si>
+  <si>
+    <t>Strawberries and Cream ( Клубника в сливках)</t>
+  </si>
+  <si>
+    <t>Strawberry Taffys (Клубничный тэфи)</t>
+  </si>
+  <si>
+    <t>Sugar Cookie v2 (Сахарное печенье v2)</t>
+  </si>
+  <si>
+    <t>Super Sweet Sucralose Sweetener (Подсластитель)</t>
+  </si>
+  <si>
+    <t>Sweet Cream (Сладкий крем)</t>
+  </si>
+  <si>
+    <t>Sweet Lychee (Сладкий личи)</t>
+  </si>
+  <si>
+    <t>Sweet Mango (Сладкий манго)</t>
+  </si>
+  <si>
+    <t>Sweet Tangerine (Сладкий мандарин)</t>
+  </si>
+  <si>
+    <t>Sweet Tangerine Rf (Сладкий мандарин)</t>
+  </si>
+  <si>
+    <t>Sweet Tea (Сладкий чай)</t>
+  </si>
+  <si>
+    <t>Sweet Watermelon (Сладкий арбуз)</t>
+  </si>
+  <si>
+    <t>Vanilla Bean Ice Cream (Ванильное мороженное)</t>
+  </si>
+  <si>
+    <t>Vanilla Cupcake V2 (Ванильный пирог)</t>
+  </si>
+  <si>
+    <t>Vanilla Custard (Ванильный кастард)</t>
+  </si>
+  <si>
+    <t>Vanilla Whipped Cream (Ванильные взбитые сливки)</t>
+  </si>
+  <si>
+    <t>Waffle (Вафли)</t>
+  </si>
+  <si>
+    <t>Yellow Peach (Желтый персик)</t>
+  </si>
+  <si>
+    <t>Apple Pie (Яблочный пирог)</t>
+  </si>
+  <si>
+    <t>Apricot (Абрикос)</t>
+  </si>
+  <si>
+    <t>Banana Split (Банановый сплит)</t>
+  </si>
+  <si>
+    <t>Blueberry (Черника)</t>
+  </si>
+  <si>
+    <t>Blueberry Cinnamon Crumble (Черничный пирог с корицей)</t>
+  </si>
+  <si>
+    <t>Blueberry Jam (Черничное варенье)</t>
+  </si>
+  <si>
+    <t>Blueberry Pomegranate (Черника и гранат)</t>
+  </si>
+  <si>
+    <t>Boston Cream Pie V2 (Бостонский кремовый пирог)</t>
+  </si>
+  <si>
+    <t>Churro (Чуррос)</t>
+  </si>
+  <si>
+    <t>Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)</t>
+  </si>
+  <si>
+    <t>Coconut (Кокос)</t>
+  </si>
+  <si>
+    <t>French Vanilla (Французкая ваниль)</t>
+  </si>
+  <si>
+    <t>Glazed Doughnut (Глазированный пончик)</t>
+  </si>
+  <si>
+    <t>Italian Lemon Sicily (Сицилийский лимон)</t>
+  </si>
+  <si>
+    <t>Jelly Candy (Конфеты из желе)</t>
+  </si>
+  <si>
+    <t>Lemon Meringue Pie (Лимонный пирог с безе)</t>
+  </si>
+  <si>
+    <t>New York Cheesecake (New York чизкейк)</t>
+  </si>
+  <si>
+    <t>Simply Vanilla (Ваниль)</t>
+  </si>
+  <si>
+    <t>Sweet Strawberry (Сладкая клубника)</t>
+  </si>
+  <si>
+    <t>Sweet Strawberry RF (Сладкая клубника РФ)</t>
+  </si>
+  <si>
+    <t>Vanilla Custard V2 (Ванильный крем v2)</t>
+  </si>
+  <si>
+    <t>Wild Cherry (Дикая вишня)</t>
+  </si>
+  <si>
+    <t>Apple Pie (Яблочный Пирог)</t>
+  </si>
+  <si>
+    <t>Bilberry (Черника)</t>
+  </si>
+  <si>
+    <t>Biscotto Cookie (Овсяное Печенье)</t>
+  </si>
+  <si>
+    <t>Blackcurrant (Черная Смородина)</t>
+  </si>
+  <si>
+    <t>Caramel (Карамель)</t>
+  </si>
+  <si>
+    <t>Champagne (Шампанское)</t>
+  </si>
+  <si>
+    <t>Cherry (Вишня)</t>
+  </si>
+  <si>
+    <t>Citrus Mix (Цитрусовый Микс)</t>
+  </si>
+  <si>
+    <t>Classic Vanilla (Ваниль)</t>
+  </si>
+  <si>
+    <t>Custard Cream (Заварной Крем)</t>
+  </si>
+  <si>
+    <t>Forest Fruit Mix (Фруктовый Микс)</t>
+  </si>
+  <si>
+    <t>Fuji Apple (Яблоко Fuji)</t>
+  </si>
+  <si>
+    <t>Green Tea (Зеленый Чай)</t>
+  </si>
+  <si>
+    <t>Hazelnut (Лесной Орех)</t>
+  </si>
+  <si>
+    <t>Lemon Sicily (Лимон Сицилийский)</t>
+  </si>
+  <si>
+    <t>Lime Tahity Distilled (Лайм)</t>
+  </si>
+  <si>
+    <t>Mandarin (Мандарин)</t>
+  </si>
+  <si>
+    <t>Mango (Манго)</t>
+  </si>
+  <si>
+    <t>Marshmallow (Зефир)</t>
+  </si>
+  <si>
+    <t>Maxx Blend (Табак Maxx Blend)</t>
+  </si>
+  <si>
+    <t>Melon Cantaloupe (Мускусная Дыня)</t>
+  </si>
+  <si>
+    <t>Menthol (Ментол)</t>
+  </si>
+  <si>
+    <t>Meringue (Безе)</t>
+  </si>
+  <si>
+    <t>Nonna’s Cake (Пирог Нонны)</t>
+  </si>
+  <si>
+    <t>Orange (Апельсин)</t>
+  </si>
+  <si>
+    <t>Passionfruit (Маракуйя)</t>
+  </si>
+  <si>
+    <t>Soho (Табак Soho)</t>
+  </si>
+  <si>
+    <t>Spearmint (Мятная Жвачка)</t>
+  </si>
+  <si>
+    <t>Stark Apple (Яблоко Красное)</t>
+  </si>
+  <si>
+    <t>Strawberry (Клубника)</t>
+  </si>
+  <si>
+    <t>Virginia (Табак Virginia)</t>
+  </si>
+  <si>
+    <t>Watermelon (Арбуз)</t>
+  </si>
+  <si>
+    <t>White Peach (Белый Персик)</t>
+  </si>
+  <si>
+    <t>Yogurt (Йогурт)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -6515,7 +6901,7 @@
   <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8305,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11685,4 +12071,2338 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE("'",A1,"'")</f>
+        <v>'Apple Pie (Яблочный пирог)'</v>
+      </c>
+      <c r="F1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE($F$1,$H$1,B1,$J$1)</f>
+        <v>{name: 'Apple Pie (Яблочный пирог)' },</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE($F$1,$G$1,B1,$H$2,$H$1,B1,$J$1)</f>
+        <v>{id: 'Apple Pie (Яблочный пирог)', name: 'Apple Pie (Яблочный пирог)' },</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE("'",A2,"'")</f>
+        <v>'Apple Pie V2 (Яблочный пирог 2)'</v>
+      </c>
+      <c r="H2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2" si="0">CONCATENATE($F$1,$H$1,B2,$J$1)</f>
+        <v>{name: 'Apple Pie V2 (Яблочный пирог 2)' },</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2" si="1">CONCATENATE($F$1,$G$1,B2,$H$2,$H$1,B2,$J$1)</f>
+        <v>{id: 'Apple Pie V2 (Яблочный пирог 2)', name: 'Apple Pie V2 (Яблочный пирог 2)' },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="2">CONCATENATE("'",A3,"'")</f>
+        <v>'Apricot (Абрикос)'</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K66" si="3">CONCATENATE($F$1,$H$1,B3,$J$1)</f>
+        <v>{name: 'Apricot (Абрикос)' },</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="4">CONCATENATE($F$1,$G$1,B3,$H$2,$H$1,B3,$J$1)</f>
+        <v>{id: 'Apricot (Абрикос)', name: 'Apricot (Абрикос)' },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="2"/>
+        <v>'Banana (Банан)'</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Banana (Банан)' },</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Banana (Банан)', name: 'Banana (Банан)' },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="2"/>
+        <v>'Banana Split (Банановый сплит)'</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Banana Split (Банановый сплит)' },</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Banana Split (Банановый сплит)', name: 'Banana Split (Банановый сплит)' },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="2"/>
+        <v>'Bavarian Cream (Баварский крем)'</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Bavarian Cream (Баварский крем)' },</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Bavarian Cream (Баварский крем)', name: 'Bavarian Cream (Баварский крем)' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="2"/>
+        <v>'Blackberry (Ежевика)'</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Blackberry (Ежевика)' },</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Blackberry (Ежевика)', name: 'Blackberry (Ежевика)' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="2"/>
+        <v>'Blueberry (Черника)'</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Blueberry (Черника)' },</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Blueberry (Черника)', name: 'Blueberry (Черника)' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="2"/>
+        <v>'Blueberry Cinnamon Crumble (Черничный пирог с корицей)'</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)' },</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)', name: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)' },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="2"/>
+        <v>'Blueberry Jam (Черничное варенье)'</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Blueberry Jam (Черничное варенье)' },</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Blueberry Jam (Черничное варенье)', name: 'Blueberry Jam (Черничное варенье)' },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="2"/>
+        <v>'Blueberry Pomegranate (Черника и гранат)'</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Blueberry Pomegranate (Черника и гранат)' },</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Blueberry Pomegranate (Черника и гранат)', name: 'Blueberry Pomegranate (Черника и гранат)' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>493</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="2"/>
+        <v>'Boston Cream Pie V2 (Бостонский кремовый пирог)'</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Boston Cream Pie V2 (Бостонский кремовый пирог)' },</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Boston Cream Pie V2 (Бостонский кремовый пирог)', name: 'Boston Cream Pie V2 (Бостонский кремовый пирог)' },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="2"/>
+        <v>'Bubble Gum (Жвачка)'</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Bubble Gum (Жвачка)' },</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Bubble Gum (Жвачка)', name: 'Bubble Gum (Жвачка)' },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="2"/>
+        <v>'Butter Cream (Крем)'</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Butter Cream (Крем)' },</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Butter Cream (Крем)', name: 'Butter Cream (Крем)' },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cake Batter (Тесто для кекса)'</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cake Batter (Тесто для кекса)' },</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cake Batter (Тесто для кекса)', name: 'Cake Batter (Тесто для кекса)' },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cantaloupe (Мускусная дыня)'</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cantaloupe (Мускусная дыня)' },</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cantaloupe (Мускусная дыня)', name: 'Cantaloupe (Мускусная дыня)' },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>422</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cappuccino (Каппучино)'</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cappuccino (Каппучино)' },</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cappuccino (Каппучино)', name: 'Cappuccino (Каппучино)' },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="2"/>
+        <v>'Caramel V2 (Карамель 2)'</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Caramel V2 (Карамель 2)' },</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Caramel V2 (Карамель 2)', name: 'Caramel V2 (Карамель 2)' },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cereal 27 (Кукурузные хлопья)'</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cereal 27 (Кукурузные хлопья)' },</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cereal 27 (Кукурузные хлопья)', name: 'Cereal 27 (Кукурузные хлопья)' },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cherry (Wild) w/Stevia (Дикая вишня и стевия)'</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)' },</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)', name: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)' },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="2"/>
+        <v>'Chocolate Coconut Almond (Шоколад кокос миндаль)'</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Chocolate Coconut Almond (Шоколад кокос миндаль)' },</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Chocolate Coconut Almond (Шоколад кокос миндаль)', name: 'Chocolate Coconut Almond (Шоколад кокос миндаль)' },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="2"/>
+        <v>'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)'</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)' },</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)', name: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)' },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="2"/>
+        <v>'Chocolate Raspberry (Малина с шоколадом)'</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Chocolate Raspberry (Малина с шоколадом)' },</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Chocolate Raspberry (Малина с шоколадом)', name: 'Chocolate Raspberry (Малина с шоколадом)' },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>494</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="2"/>
+        <v>'Churro (Чуррос)'</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Churro (Чуррос)' },</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Churro (Чуррос)', name: 'Churro (Чуррос)' },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>495</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)'</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)' },</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)', name: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)' },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="2"/>
+        <v>'Coconut (Кокос)'</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Coconut (Кокос)' },</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Coconut (Кокос)', name: 'Coconut (Кокос)' },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>429</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cola (Кола)'</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cola (Кола)' },</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cola (Кола)', name: 'Cola (Кола)' },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="2"/>
+        <v>'Concord Grape w/Stevia (Конкорд и стевия)'</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Concord Grape w/Stevia (Конкорд и стевия)' },</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Concord Grape w/Stevia (Конкорд и стевия)', name: 'Concord Grape w/Stevia (Конкорд и стевия)' },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cool Mint (Мятная свежесть)'</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cool Mint (Мятная свежесть)' },</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cool Mint (Мятная свежесть)', name: 'Cool Mint (Мятная свежесть)' },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="2"/>
+        <v>'Cranberry (Клюква)'</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Cranberry (Клюква)' },</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Cranberry (Клюква)', name: 'Cranberry (Клюква)' },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="2"/>
+        <v>'Creamy Yogurt (Кремовый йогурт)'</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Creamy Yogurt (Кремовый йогурт)' },</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Creamy Yogurt (Кремовый йогурт)', name: 'Creamy Yogurt (Кремовый йогурт)' },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>434</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="2"/>
+        <v>'Double Apple (Двойное яблоко)'</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Double Apple (Двойное яблоко)' },</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Double Apple (Двойное яблоко)', name: 'Double Apple (Двойное яблоко)' },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="2"/>
+        <v>'Double Watermelon (Двойной арбуз)'</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Double Watermelon (Двойной арбуз)' },</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Double Watermelon (Двойной арбуз)', name: 'Double Watermelon (Двойной арбуз)' },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>436</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="2"/>
+        <v>'Dragon Fruit (Драгонфрут)'</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Dragon Fruit (Драгонфрут)' },</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Dragon Fruit (Драгонфрут)', name: 'Dragon Fruit (Драгонфрут)' },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>497</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="2"/>
+        <v>'French Vanilla (Французкая ваниль)'</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'French Vanilla (Французкая ваниль)' },</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'French Vanilla (Французкая ваниль)', name: 'French Vanilla (Французкая ваниль)' },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="2"/>
+        <v>'Funnel Cake (Торт "Муравейник")'</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Funnel Cake (Торт "Муравейник")' },</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Funnel Cake (Торт "Муравейник")', name: 'Funnel Cake (Торт "Муравейник")' },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>498</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="2"/>
+        <v>'Glazed Doughnut (Глазированный пончик)'</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Glazed Doughnut (Глазированный пончик)' },</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Glazed Doughnut (Глазированный пончик)', name: 'Glazed Doughnut (Глазированный пончик)' },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="2"/>
+        <v>'Golden Pineapple (Золотой ананас)'</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Golden Pineapple (Золотой ананас)' },</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Golden Pineapple (Золотой ананас)', name: 'Golden Pineapple (Золотой ананас)' },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>439</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="2"/>
+        <v>'Graham Cracker V2 (Грэхем крекер 2)'</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Graham Cracker V2 (Грэхем крекер 2)' },</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Graham Cracker V2 (Грэхем крекер 2)', name: 'Graham Cracker V2 (Грэхем крекер 2)' },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="2"/>
+        <v>'Grapefruit (Грейпфрут)'</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Grapefruit (Грейпфрут)' },</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Grapefruit (Грейпфрут)', name: 'Grapefruit (Грейпфрут)' },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="2"/>
+        <v>'Greek Yogurt (Греческий йогурт)'</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Greek Yogurt (Греческий йогурт)' },</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Greek Yogurt (Греческий йогурт)', name: 'Greek Yogurt (Греческий йогурт)' },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>442</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="2"/>
+        <v>'Green Apple (Зеленое яблоко)'</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Green Apple (Зеленое яблоко)' },</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Green Apple (Зеленое яблоко)', name: 'Green Apple (Зеленое яблоко)' },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>443</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="2"/>
+        <v>'Grenadine (Гренадин)'</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Grenadine (Гренадин)' },</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Grenadine (Гренадин)', name: 'Grenadine (Гренадин)' },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>444</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="2"/>
+        <v>'Harvest Berry (Лесные ягоды)'</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Harvest Berry (Лесные ягоды)' },</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Harvest Berry (Лесные ягоды)', name: 'Harvest Berry (Лесные ягоды)' },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>445</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="2"/>
+        <v>'Hazelnut (Лесной орех)'</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Hazelnut (Лесной орех)' },</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Hazelnut (Лесной орех)', name: 'Hazelnut (Лесной орех)' },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="2"/>
+        <v>'Honeydew Melon (Медовая дыня)'</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Honeydew Melon (Медовая дыня)' },</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Honeydew Melon (Медовая дыня)', name: 'Honeydew Melon (Медовая дыня)' },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>499</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="2"/>
+        <v>'Italian Lemon Sicily (Сицилийский лимон)'</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Italian Lemon Sicily (Сицилийский лимон)' },</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Italian Lemon Sicily (Сицилийский лимон)', name: 'Italian Lemon Sicily (Сицилийский лимон)' },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>500</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="2"/>
+        <v>'Jelly Candy (Конфеты из желе)'</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Jelly Candy (Конфеты из желе)' },</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Jelly Candy (Конфеты из желе)', name: 'Jelly Candy (Конфеты из желе)' },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="2"/>
+        <v>'Jelly Candys (Конфеты желе)'</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Jelly Candys (Конфеты желе)' },</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Jelly Candys (Конфеты желе)', name: 'Jelly Candys (Конфеты желе)' },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>448</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="2"/>
+        <v>'Juicy Lemon (Сок лимона)'</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Juicy Lemon (Сок лимона)' },</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Juicy Lemon (Сок лимона)', name: 'Juicy Lemon (Сок лимона)' },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="2"/>
+        <v>'Juicy Orange (Сочный апельсин)'</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Juicy Orange (Сочный апельсин)' },</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Juicy Orange (Сочный апельсин)', name: 'Juicy Orange (Сочный апельсин)' },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>450</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="2"/>
+        <v>'Juicy Peach (Сочный персик)'</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Juicy Peach (Сочный персик)' },</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Juicy Peach (Сочный персик)', name: 'Juicy Peach (Сочный персик)' },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="2"/>
+        <v>'Kiwi (Киви)'</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Kiwi (Киви)' },</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Kiwi (Киви)', name: 'Kiwi (Киви)' },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>452</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="2"/>
+        <v>'Kiwi Strawberry (Киви и клубника)'</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Kiwi Strawberry (Киви и клубника)' },</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Kiwi Strawberry (Киви и клубника)', name: 'Kiwi Strawberry (Киви и клубника)' },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>453</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="2"/>
+        <v>'Lemon Lime (Лимон-лайм)'</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Lemon Lime (Лимон-лайм)' },</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Lemon Lime (Лимон-лайм)', name: 'Lemon Lime (Лимон-лайм)' },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>501</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="2"/>
+        <v>'Lemon Meringue Pie (Лимонный пирог с безе)'</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Lemon Meringue Pie (Лимонный пирог с безе)' },</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Lemon Meringue Pie (Лимонный пирог с безе)', name: 'Lemon Meringue Pie (Лимонный пирог с безе)' },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>454</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="2"/>
+        <v>'Maple (Pancake Syrup) (Кленовый сироп)'</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Maple (Pancake Syrup) (Кленовый сироп)' },</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Maple (Pancake Syrup) (Кленовый сироп)', name: 'Maple (Pancake Syrup) (Кленовый сироп)' },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>455</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="2"/>
+        <v>'Milk Chocolate Toffee (Шоколаный тоффи)'</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Milk Chocolate Toffee (Шоколаный тоффи)' },</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Milk Chocolate Toffee (Шоколаный тоффи)', name: 'Milk Chocolate Toffee (Шоколаный тоффи)' },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>502</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="2"/>
+        <v>'New York Cheesecake (New York чизкейк)'</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'New York Cheesecake (New York чизкейк)' },</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'New York Cheesecake (New York чизкейк)', name: 'New York Cheesecake (New York чизкейк)' },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>456</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="2"/>
+        <v>'New York Cheesecake v2 (New York чизкейк v2)'</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'New York Cheesecake v2 (New York чизкейк v2)' },</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'New York Cheesecake v2 (New York чизкейк v2)', name: 'New York Cheesecake v2 (New York чизкейк v2)' },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>457</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="2"/>
+        <v>'Orange Creamsicle (Апельсиновое мороженное)'</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Orange Creamsicle (Апельсиновое мороженное)' },</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Orange Creamsicle (Апельсиновое мороженное)', name: 'Orange Creamsicle (Апельсиновое мороженное)' },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>458</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="2"/>
+        <v>'Orange Mango (Апельсин и манго)'</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Orange Mango (Апельсин и манго)' },</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Orange Mango (Апельсин и манго)', name: 'Orange Mango (Апельсин и манго)' },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>459</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="2"/>
+        <v>'Passion Fruit (Маракуйя)'</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Passion Fruit (Маракуйя)' },</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Passion Fruit (Маракуйя)', name: 'Passion Fruit (Маракуйя)' },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>460</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="2"/>
+        <v>'Peach w/Stevia (Персик и стевия)'</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Peach w/Stevia (Персик и стевия)' },</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Peach w/Stevia (Персик и стевия)', name: 'Peach w/Stevia (Персик и стевия)' },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>461</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="2"/>
+        <v>'Peaches and Cream (Персики в крему)'</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Peaches and Cream (Персики в крему)' },</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Peaches and Cream (Персики в крему)', name: 'Peaches and Cream (Персики в крему)' },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>462</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="2"/>
+        <v>'Peaches and Cream v2 (Персики в крему v2)'</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="3"/>
+        <v>{name: 'Peaches and Cream v2 (Персики в крему v2)' },</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 'Peaches and Cream v2 (Персики в крему v2)', name: 'Peaches and Cream v2 (Персики в крему v2)' },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>463</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B94" si="5">CONCATENATE("'",A67,"'")</f>
+        <v>'Peanut Butter V2 (Арахисовое масло (версия 2))'</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" ref="K67:K94" si="6">CONCATENATE($F$1,$H$1,B67,$J$1)</f>
+        <v>{name: 'Peanut Butter V2 (Арахисовое масло (версия 2))' },</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L94" si="7">CONCATENATE($F$1,$G$1,B67,$H$2,$H$1,B67,$J$1)</f>
+        <v>{id: 'Peanut Butter V2 (Арахисовое масло (версия 2))', name: 'Peanut Butter V2 (Арахисовое масло (версия 2))' },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>464</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="5"/>
+        <v>'Pear Flavor (Груша)'</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Pear Flavor (Груша)' },</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Pear Flavor (Груша)', name: 'Pear Flavor (Груша)' },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>465</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="5"/>
+        <v>'Pink Lemonades (Лимонад)'</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Pink Lemonades (Лимонад)' },</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Pink Lemonades (Лимонад)', name: 'Pink Lemonades (Лимонад)' },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>466</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="5"/>
+        <v>'Pomegranate V2 (Гранат 2)'</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Pomegranate V2 (Гранат 2)' },</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Pomegranate V2 (Гранат 2)', name: 'Pomegranate V2 (Гранат 2)' },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>467</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="5"/>
+        <v>'Raspberry (Малина)'</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Raspberry (Малина)' },</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Raspberry (Малина)', name: 'Raspberry (Малина)' },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>468</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="5"/>
+        <v>'Raspberry V2 (Малина 2)'</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Raspberry V2 (Малина 2)' },</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Raspberry V2 (Малина 2)', name: 'Raspberry V2 (Малина 2)' },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>503</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="5"/>
+        <v>'Simply Vanilla (Ваниль)'</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Simply Vanilla (Ваниль)' },</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Simply Vanilla (Ваниль)', name: 'Simply Vanilla (Ваниль)' },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>469</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="5"/>
+        <v>'Strawberries and Cream ( Клубника в сливках)'</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Strawberries and Cream ( Клубника в сливках)' },</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Strawberries and Cream ( Клубника в сливках)', name: 'Strawberries and Cream ( Клубника в сливках)' },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>470</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="5"/>
+        <v>'Strawberry Taffys (Клубничный тэфи)'</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Strawberry Taffys (Клубничный тэфи)' },</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Strawberry Taffys (Клубничный тэфи)', name: 'Strawberry Taffys (Клубничный тэфи)' },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>471</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sugar Cookie v2 (Сахарное печенье v2)'</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sugar Cookie v2 (Сахарное печенье v2)' },</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sugar Cookie v2 (Сахарное печенье v2)', name: 'Sugar Cookie v2 (Сахарное печенье v2)' },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>472</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="5"/>
+        <v>'Super Sweet Sucralose Sweetener (Подсластитель)'</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Super Sweet Sucralose Sweetener (Подсластитель)' },</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Super Sweet Sucralose Sweetener (Подсластитель)', name: 'Super Sweet Sucralose Sweetener (Подсластитель)' },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>473</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Cream (Сладкий крем)'</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Cream (Сладкий крем)' },</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Cream (Сладкий крем)', name: 'Sweet Cream (Сладкий крем)' },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>474</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Lychee (Сладкий личи)'</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Lychee (Сладкий личи)' },</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Lychee (Сладкий личи)', name: 'Sweet Lychee (Сладкий личи)' },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>475</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Mango (Сладкий манго)'</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Mango (Сладкий манго)' },</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Mango (Сладкий манго)', name: 'Sweet Mango (Сладкий манго)' },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>504</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Strawberry (Сладкая клубника)'</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Strawberry (Сладкая клубника)' },</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Strawberry (Сладкая клубника)', name: 'Sweet Strawberry (Сладкая клубника)' },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>505</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Strawberry RF (Сладкая клубника РФ)'</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Strawberry RF (Сладкая клубника РФ)' },</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Strawberry RF (Сладкая клубника РФ)', name: 'Sweet Strawberry RF (Сладкая клубника РФ)' },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>476</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Tangerine (Сладкий мандарин)'</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Tangerine (Сладкий мандарин)' },</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Tangerine (Сладкий мандарин)', name: 'Sweet Tangerine (Сладкий мандарин)' },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>477</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Tangerine Rf (Сладкий мандарин)'</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Tangerine Rf (Сладкий мандарин)' },</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Tangerine Rf (Сладкий мандарин)', name: 'Sweet Tangerine Rf (Сладкий мандарин)' },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>478</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Tea (Сладкий чай)'</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Tea (Сладкий чай)' },</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Tea (Сладкий чай)', name: 'Sweet Tea (Сладкий чай)' },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="5"/>
+        <v>'Sweet Watermelon (Сладкий арбуз)'</v>
+      </c>
+      <c r="K86" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Sweet Watermelon (Сладкий арбуз)' },</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Sweet Watermelon (Сладкий арбуз)', name: 'Sweet Watermelon (Сладкий арбуз)' },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>480</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="5"/>
+        <v>'Vanilla Bean Ice Cream (Ванильное мороженное)'</v>
+      </c>
+      <c r="K87" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Vanilla Bean Ice Cream (Ванильное мороженное)', name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>481</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="5"/>
+        <v>'Vanilla Cupcake V2 (Ванильный пирог)'</v>
+      </c>
+      <c r="K88" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Vanilla Cupcake V2 (Ванильный пирог)' },</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Vanilla Cupcake V2 (Ванильный пирог)', name: 'Vanilla Cupcake V2 (Ванильный пирог)' },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>482</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="5"/>
+        <v>'Vanilla Custard (Ванильный кастард)'</v>
+      </c>
+      <c r="K89" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Vanilla Custard (Ванильный кастард)' },</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Vanilla Custard (Ванильный кастард)', name: 'Vanilla Custard (Ванильный кастард)' },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>506</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="5"/>
+        <v>'Vanilla Custard V2 (Ванильный крем v2)'</v>
+      </c>
+      <c r="K90" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Vanilla Custard V2 (Ванильный крем v2)' },</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Vanilla Custard V2 (Ванильный крем v2)', name: 'Vanilla Custard V2 (Ванильный крем v2)' },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>483</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="5"/>
+        <v>'Vanilla Whipped Cream (Ванильные взбитые сливки)'</v>
+      </c>
+      <c r="K91" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Vanilla Whipped Cream (Ванильные взбитые сливки)' },</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Vanilla Whipped Cream (Ванильные взбитые сливки)', name: 'Vanilla Whipped Cream (Ванильные взбитые сливки)' },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>484</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="5"/>
+        <v>'Waffle (Вафли)'</v>
+      </c>
+      <c r="K92" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Waffle (Вафли)' },</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Waffle (Вафли)', name: 'Waffle (Вафли)' },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>507</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="5"/>
+        <v>'Wild Cherry (Дикая вишня)'</v>
+      </c>
+      <c r="K93" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Wild Cherry (Дикая вишня)' },</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Wild Cherry (Дикая вишня)', name: 'Wild Cherry (Дикая вишня)' },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>485</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="5"/>
+        <v>'Yellow Peach (Желтый персик)'</v>
+      </c>
+      <c r="K94" t="str">
+        <f t="shared" si="6"/>
+        <v>{name: 'Yellow Peach (Желтый персик)' },</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="7"/>
+        <v>{id: 'Yellow Peach (Желтый персик)', name: 'Yellow Peach (Желтый персик)' },</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE("'",A1,"'")</f>
+        <v>'Apple Pie (Яблочный Пирог)'</v>
+      </c>
+      <c r="F1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" t="s">
+        <v>412</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE($F$1,$H$1,B1,$J$1)</f>
+        <v>{name: 'Apple Pie (Яблочный Пирог)' },</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE($F$1,$G$1,B1,$H$2,$H$1,B1,$J$1)</f>
+        <v>{id: 'Apple Pie (Яблочный Пирог)', name: 'Apple Pie (Яблочный Пирог)' },</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B39" si="0">CONCATENATE("'",A2,"'")</f>
+        <v>'Bilberry (Черника)'</v>
+      </c>
+      <c r="H2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K39" si="1">CONCATENATE($F$1,$H$1,B2,$J$1)</f>
+        <v>{name: 'Bilberry (Черника)' },</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L39" si="2">CONCATENATE($F$1,$G$1,B2,$H$2,$H$1,B2,$J$1)</f>
+        <v>{id: 'Bilberry (Черника)', name: 'Bilberry (Черника)' },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>'Biscotto Cookie (Овсяное Печенье)'</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Biscotto Cookie (Овсяное Печенье)' },</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Biscotto Cookie (Овсяное Печенье)', name: 'Biscotto Cookie (Овсяное Печенье)' },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>'Blackberry (Ежевика)'</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Blackberry (Ежевика)' },</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Blackberry (Ежевика)', name: 'Blackberry (Ежевика)' },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>'Blackcurrant (Черная Смородина)'</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Blackcurrant (Черная Смородина)' },</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Blackcurrant (Черная Смородина)', name: 'Blackcurrant (Черная Смородина)' },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>'Caramel (Карамель)'</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Caramel (Карамель)' },</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Caramel (Карамель)', name: 'Caramel (Карамель)' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>'Champagne (Шампанское)'</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Champagne (Шампанское)' },</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Champagne (Шампанское)', name: 'Champagne (Шампанское)' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cherry (Вишня)'</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Cherry (Вишня)' },</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Cherry (Вишня)', name: 'Cherry (Вишня)' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Citrus Mix (Цитрусовый Микс)'</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Citrus Mix (Цитрусовый Микс)' },</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Citrus Mix (Цитрусовый Микс)', name: 'Citrus Mix (Цитрусовый Микс)' },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Classic Vanilla (Ваниль)'</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Classic Vanilla (Ваниль)' },</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Classic Vanilla (Ваниль)', name: 'Classic Vanilla (Ваниль)' },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>'Coconut (Кокос)'</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Coconut (Кокос)' },</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Coconut (Кокос)', name: 'Coconut (Кокос)' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>'Cola (Кола)'</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Cola (Кола)' },</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Cola (Кола)', name: 'Cola (Кола)' },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>'Custard Cream (Заварной Крем)'</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Custard Cream (Заварной Крем)' },</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Custard Cream (Заварной Крем)', name: 'Custard Cream (Заварной Крем)' },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>518</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>'Forest Fruit Mix (Фруктовый Микс)'</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Forest Fruit Mix (Фруктовый Микс)' },</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Forest Fruit Mix (Фруктовый Микс)', name: 'Forest Fruit Mix (Фруктовый Микс)' },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fuji Apple (Яблоко Fuji)'</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Fuji Apple (Яблоко Fuji)' },</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Fuji Apple (Яблоко Fuji)', name: 'Fuji Apple (Яблоко Fuji)' },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>'Green Tea (Зеленый Чай)'</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Green Tea (Зеленый Чай)' },</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Green Tea (Зеленый Чай)', name: 'Green Tea (Зеленый Чай)' },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>521</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>'Hazelnut (Лесной Орех)'</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Hazelnut (Лесной Орех)' },</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Hazelnut (Лесной Орех)', name: 'Hazelnut (Лесной Орех)' },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>'Kiwi (Киви)'</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Kiwi (Киви)' },</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Kiwi (Киви)', name: 'Kiwi (Киви)' },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>522</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>'Lemon Sicily (Лимон Сицилийский)'</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Lemon Sicily (Лимон Сицилийский)' },</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Lemon Sicily (Лимон Сицилийский)', name: 'Lemon Sicily (Лимон Сицилийский)' },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>'Lime Tahity Distilled (Лайм)'</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Lime Tahity Distilled (Лайм)' },</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Lime Tahity Distilled (Лайм)', name: 'Lime Tahity Distilled (Лайм)' },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>524</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mandarin (Мандарин)'</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Mandarin (Мандарин)' },</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Mandarin (Мандарин)', name: 'Mandarin (Мандарин)' },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>'Mango (Манго)'</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Mango (Манго)' },</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Mango (Манго)', name: 'Mango (Манго)' },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>526</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>'Marshmallow (Зефир)'</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Marshmallow (Зефир)' },</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Marshmallow (Зефир)', name: 'Marshmallow (Зефир)' },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>'Maxx Blend (Табак Maxx Blend)'</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Maxx Blend (Табак Maxx Blend)' },</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Maxx Blend (Табак Maxx Blend)', name: 'Maxx Blend (Табак Maxx Blend)' },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>528</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>'Melon Cantaloupe (Мускусная Дыня)'</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Melon Cantaloupe (Мускусная Дыня)' },</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Melon Cantaloupe (Мускусная Дыня)', name: 'Melon Cantaloupe (Мускусная Дыня)' },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>529</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>'Menthol (Ментол)'</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Menthol (Ментол)' },</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Menthol (Ментол)', name: 'Menthol (Ментол)' },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>530</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>'Meringue (Безе)'</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Meringue (Безе)' },</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Meringue (Безе)', name: 'Meringue (Безе)' },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>531</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>'Nonna’s Cake (Пирог Нонны)'</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Nonna’s Cake (Пирог Нонны)' },</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Nonna’s Cake (Пирог Нонны)', name: 'Nonna’s Cake (Пирог Нонны)' },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>532</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>'Orange (Апельсин)'</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Orange (Апельсин)' },</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Orange (Апельсин)', name: 'Orange (Апельсин)' },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>533</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>'Passionfruit (Маракуйя)'</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Passionfruit (Маракуйя)' },</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Passionfruit (Маракуйя)', name: 'Passionfruit (Маракуйя)' },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>'Raspberry (Малина)'</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Raspberry (Малина)' },</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Raspberry (Малина)', name: 'Raspberry (Малина)' },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>534</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>'Soho (Табак Soho)'</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Soho (Табак Soho)' },</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Soho (Табак Soho)', name: 'Soho (Табак Soho)' },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>535</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>'Spearmint (Мятная Жвачка)'</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Spearmint (Мятная Жвачка)' },</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Spearmint (Мятная Жвачка)', name: 'Spearmint (Мятная Жвачка)' },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>536</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>'Stark Apple (Яблоко Красное)'</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Stark Apple (Яблоко Красное)' },</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Stark Apple (Яблоко Красное)', name: 'Stark Apple (Яблоко Красное)' },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>537</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>'Strawberry (Клубника)'</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Strawberry (Клубника)' },</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Strawberry (Клубника)', name: 'Strawberry (Клубника)' },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>538</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>'Virginia (Табак Virginia)'</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Virginia (Табак Virginia)' },</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Virginia (Табак Virginia)', name: 'Virginia (Табак Virginia)' },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>539</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>'Watermelon (Арбуз)'</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Watermelon (Арбуз)' },</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Watermelon (Арбуз)', name: 'Watermelon (Арбуз)' },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>540</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>'White Peach (Белый Персик)'</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'White Peach (Белый Персик)' },</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'White Peach (Белый Персик)', name: 'White Peach (Белый Персик)' },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>541</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>'Yogurt (Йогурт)'</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>{name: 'Yogurt (Йогурт)' },</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 'Yogurt (Йогурт)', name: 'Yogurt (Йогурт)' },</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info/список ароматизаторов.xlsx
+++ b/info/список ароматизаторов.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="TPA" sheetId="2" r:id="rId2"/>
     <sheet name="Capella" sheetId="3" r:id="rId3"/>
     <sheet name="FlavourArt" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="543">
   <si>
     <t>A</t>
   </si>
@@ -6536,12 +6536,15 @@
   </si>
   <si>
     <t>Yogurt (Йогурт)</t>
+  </si>
+  <si>
+    <t>selected: false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -8689,3383 +8692,3974 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L197"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>1001</v>
+      </c>
+      <c r="B1" t="s">
         <v>220</v>
       </c>
-      <c r="B1" t="str">
-        <f>CONCATENATE("'",A1,"'")</f>
+      <c r="C1" t="str">
+        <f>CONCATENATE("'",B1,"'")</f>
         <v>'Absinthe (Абсент)'</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>408</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>410</v>
       </c>
-      <c r="I1" t="s">
-        <v>411</v>
-      </c>
       <c r="J1" t="s">
+        <v>542</v>
+      </c>
+      <c r="K1" t="s">
         <v>412</v>
       </c>
-      <c r="K1" t="str">
-        <f>CONCATENATE($F$1,$H$1,B1,$J$1)</f>
+      <c r="L1" t="str">
+        <f>CONCATENATE($G$1,$I$1,C1,$K$1)</f>
         <v>{name: 'Absinthe (Абсент)' },</v>
       </c>
-      <c r="L1" t="str">
-        <f>CONCATENATE($F$1,$G$1,B1,$H$2,$H$1,B1,$J$1)</f>
-        <v>{id: 'Absinthe (Абсент)', name: 'Absinthe (Абсент)' },</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="M1" t="str">
+        <f>CONCATENATE($G$1,$H$1,A1,$I$2,$I$1,C1,$I$2,$J$1,$K$1)</f>
+        <v>{id: 1001, name: 'Absinthe (Абсент)', selected: false },</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1002</v>
+      </c>
+      <c r="B2" t="s">
         <v>221</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B65" si="0">CONCATENATE("'",A2,"'")</f>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE("'",B2,"'")</f>
         <v>'Acai (Ягода асаи)'</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>413</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K65" si="1">CONCATENATE($F$1,$H$1,B2,$J$1)</f>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L65" si="1">CONCATENATE($G$1,$I$1,C2,$K$1)</f>
         <v>{name: 'Acai (Ягода асаи)' },</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L65" si="2">CONCATENATE($F$1,$G$1,B2,$H$2,$H$1,B2,$J$1)</f>
-        <v>{id: 'Acai (Ягода асаи)', name: 'Acai (Ягода асаи)' },</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M65" si="2">CONCATENATE($G$1,$H$1,A2,$I$2,$I$1,C2,$I$2,$J$1,$K$1)</f>
+        <v>{id: 1002, name: 'Acai (Ягода асаи)', selected: false },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>1003</v>
+      </c>
+      <c r="B3" t="s">
         <v>222</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>'Acetyl Pyrazine (Ацетил пиразин)'</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Acetyl Pyrazine (Ацетил пиразин)' },</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Acetyl Pyrazine (Ацетил пиразин)', name: 'Acetyl Pyrazine (Ацетил пиразин)' },</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="M3" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1003, name: 'Acetyl Pyrazine (Ацетил пиразин)', selected: false },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>1004</v>
+      </c>
+      <c r="B4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>'Almond (Миндаль)'</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Almond (Миндаль)' },</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Almond (Миндаль)', name: 'Almond (Миндаль)' },</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1004, name: 'Almond (Миндаль)', selected: false },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>1005</v>
+      </c>
+      <c r="B5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>'Apple (Яблоко)'</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Apple (Яблоко)' },</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Apple (Яблоко)', name: 'Apple (Яблоко)' },</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1005, name: 'Apple (Яблоко)', selected: false },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>1006</v>
+      </c>
+      <c r="B6" t="s">
         <v>225</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>'Apple (tart granny smith) (Яблоко (Гренни Смит))'</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Apple (tart granny smith) (Яблоко (Гренни Смит))' },</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Apple (tart granny smith) (Яблоко (Гренни Смит))', name: 'Apple (tart granny smith) (Яблоко (Гренни Смит))' },</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1006, name: 'Apple (tart granny smith) (Яблоко (Гренни Смит))', selected: false },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>1007</v>
+      </c>
+      <c r="B7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>'Apple Candy (Яблочный мармелад)'</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Apple Candy (Яблочный мармелад)' },</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Apple Candy (Яблочный мармелад)', name: 'Apple Candy (Яблочный мармелад)' },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1007, name: 'Apple Candy (Яблочный мармелад)', selected: false },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>1008</v>
+      </c>
+      <c r="B8" t="s">
         <v>227</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>'Apple Pie (Яблочный пирог)'</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Apple Pie (Яблочный пирог)' },</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Apple Pie (Яблочный пирог)', name: 'Apple Pie (Яблочный пирог)' },</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1008, name: 'Apple Pie (Яблочный пирог)', selected: false },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>1009</v>
+      </c>
+      <c r="B9" t="s">
         <v>228</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>'Apricot (Абрикос)'</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Apricot (Абрикос)' },</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Apricot (Абрикос)', name: 'Apricot (Абрикос)' },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1009, name: 'Apricot (Абрикос)', selected: false },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>1010</v>
+      </c>
+      <c r="B10" t="s">
         <v>229</v>
       </c>
-      <c r="B10" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>'Banana (Банан)'</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Banana (Банан)' },</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Banana (Банан)', name: 'Banana (Банан)' },</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1010, name: 'Banana (Банан)', selected: false },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>1011</v>
+      </c>
+      <c r="B11" t="s">
         <v>230</v>
       </c>
-      <c r="B11" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>'Banana Cream (Банановый крем)'</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Banana Cream (Банановый крем)' },</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Banana Cream (Банановый крем)', name: 'Banana Cream (Банановый крем)' },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1011, name: 'Banana Cream (Банановый крем)', selected: false },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>1012</v>
+      </c>
+      <c r="B12" t="s">
         <v>231</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>'Banana Nut Bread (Банановый хлеб)'</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Banana Nut Bread (Банановый хлеб)' },</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Banana Nut Bread (Банановый хлеб)', name: 'Banana Nut Bread (Банановый хлеб)' },</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1012, name: 'Banana Nut Bread (Банановый хлеб)', selected: false },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>1013</v>
+      </c>
+      <c r="B13" t="s">
         <v>232</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>'Bananas Foster (Банановый фостер)'</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Bananas Foster (Банановый фостер)' },</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Bananas Foster (Банановый фостер)', name: 'Bananas Foster (Банановый фостер)' },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1013, name: 'Bananas Foster (Банановый фостер)', selected: false },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>1014</v>
+      </c>
+      <c r="B14" t="s">
         <v>233</v>
       </c>
-      <c r="B14" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>'Bavarian Cream (Баварский крем)'</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Bavarian Cream (Баварский крем)' },</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Bavarian Cream (Баварский крем)', name: 'Bavarian Cream (Баварский крем)' },</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1014, name: 'Bavarian Cream (Баварский крем)', selected: false },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>1015</v>
+      </c>
+      <c r="B15" t="s">
         <v>234</v>
       </c>
-      <c r="B15" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>'Berry Crunch (Ягодные хлопья)'</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Berry Crunch (Ягодные хлопья)' },</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Berry Crunch (Ягодные хлопья)', name: 'Berry Crunch (Ягодные хлопья)' },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1015, name: 'Berry Crunch (Ягодные хлопья)', selected: false },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>1016</v>
+      </c>
+      <c r="B16" t="s">
         <v>235</v>
       </c>
-      <c r="B16" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>'Bitter Nut Extra (Горький орех)'</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Bitter Nut Extra (Горький орех)' },</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Bitter Nut Extra (Горький орех)', name: 'Bitter Nut Extra (Горький орех)' },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1016, name: 'Bitter Nut Extra (Горький орех)', selected: false },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>1017</v>
+      </c>
+      <c r="B17" t="s">
         <v>236</v>
       </c>
-      <c r="B17" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>'Bittersweet Chocolate (Биттерсвит шоколад)'</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Bittersweet Chocolate (Биттерсвит шоколад)' },</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Bittersweet Chocolate (Биттерсвит шоколад)', name: 'Bittersweet Chocolate (Биттерсвит шоколад)' },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1017, name: 'Bittersweet Chocolate (Биттерсвит шоколад)', selected: false },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>1018</v>
+      </c>
+      <c r="B18" t="s">
         <v>237</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>'Black Cherry (Черешня)'</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Black Cherry (Черешня)' },</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Black Cherry (Черешня)', name: 'Black Cherry (Черешня)' },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1018, name: 'Black Cherry (Черешня)', selected: false },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>1019</v>
+      </c>
+      <c r="B19" t="s">
         <v>238</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>'Black Currant (Черная смородина)'</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Black Currant (Черная смородина)' },</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Black Currant (Черная смородина)', name: 'Black Currant (Черная смородина)' },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1019, name: 'Black Currant (Черная смородина)', selected: false },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>1020</v>
+      </c>
+      <c r="B20" t="s">
         <v>239</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>'Black Honey (Черный мед и табак)'</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Black Honey (Черный мед и табак)' },</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Black Honey (Черный мед и табак)', name: 'Black Honey (Черный мед и табак)' },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1020, name: 'Black Honey (Черный мед и табак)', selected: false },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>1021</v>
+      </c>
+      <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>'Black Tea (Черный чай)'</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Black Tea (Черный чай)' },</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Black Tea (Черный чай)', name: 'Black Tea (Черный чай)' },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1021, name: 'Black Tea (Черный чай)', selected: false },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>1022</v>
+      </c>
+      <c r="B22" t="s">
         <v>240</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>'Blackberry (Ежевика)'</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Blackberry (Ежевика)' },</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Blackberry (Ежевика)', name: 'Blackberry (Ежевика)' },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1022, name: 'Blackberry (Ежевика)', selected: false },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>1023</v>
+      </c>
+      <c r="B23" t="s">
         <v>241</v>
       </c>
-      <c r="B23" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>'Blue Raspberry (Голубая малина)'</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Blue Raspberry (Голубая малина)' },</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Blue Raspberry (Голубая малина)', name: 'Blue Raspberry (Голубая малина)' },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1023, name: 'Blue Raspberry (Голубая малина)', selected: false },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>1024</v>
+      </c>
+      <c r="B24" t="s">
         <v>242</v>
       </c>
-      <c r="B24" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>'Blueberry (Extra) (Черника)'</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Blueberry (Extra) (Черника)' },</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Blueberry (Extra) (Черника)', name: 'Blueberry (Extra) (Черника)' },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1024, name: 'Blueberry (Extra) (Черника)', selected: false },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>1025</v>
+      </c>
+      <c r="B25" t="s">
         <v>243</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>'Blueberry Candy (Черничные леденцы)'</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Blueberry Candy (Черничные леденцы)' },</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Blueberry Candy (Черничные леденцы)', name: 'Blueberry Candy (Черничные леденцы)' },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1025, name: 'Blueberry Candy (Черничные леденцы)', selected: false },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>1026</v>
+      </c>
+      <c r="B26" t="s">
         <v>244</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>'Blueberry Wild (Дикая черника)'</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Blueberry Wild (Дикая черника)' },</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Blueberry Wild (Дикая черника)', name: 'Blueberry Wild (Дикая черника)' },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1026, name: 'Blueberry Wild (Дикая черника)', selected: false },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>1027</v>
+      </c>
+      <c r="B27" t="s">
         <v>245</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>'Boysenberry (Шелковица )'</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Boysenberry (Шелковица )' },</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Boysenberry (Шелковица )', name: 'Boysenberry (Шелковица )' },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1027, name: 'Boysenberry (Шелковица )', selected: false },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>1028</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>'Brandy (Бренди)'</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Brandy (Бренди)' },</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Brandy (Бренди)', name: 'Brandy (Бренди)' },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1028, name: 'Brandy (Бренди)', selected: false },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>1029</v>
+      </c>
+      <c r="B29" t="s">
         <v>246</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>'Brown Sugar (Коричневый сахар)'</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Brown Sugar (Коричневый сахар)' },</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Brown Sugar (Коричневый сахар)', name: 'Brown Sugar (Коричневый сахар)' },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1029, name: 'Brown Sugar (Коричневый сахар)', selected: false },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>1030</v>
+      </c>
+      <c r="B30" t="s">
         <v>247</v>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>'Bubblegum (Жвачка)'</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Bubblegum (Жвачка)' },</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Bubblegum (Жвачка)', name: 'Bubblegum (Жвачка)' },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1030, name: 'Bubblegum (Жвачка)', selected: false },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>1031</v>
+      </c>
+      <c r="B31" t="s">
         <v>248</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>'Bubblegum (Fruity) (Жвачка (Фруктовая))'</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Bubblegum (Fruity) (Жвачка (Фруктовая))' },</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Bubblegum (Fruity) (Жвачка (Фруктовая))', name: 'Bubblegum (Fruity) (Жвачка (Фруктовая))' },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1031, name: 'Bubblegum (Fruity) (Жвачка (Фруктовая))', selected: false },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>1032</v>
+      </c>
+      <c r="B32" t="s">
         <v>249</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>'Butter (Масло)'</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Butter (Масло)' },</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Butter (Масло)', name: 'Butter (Масло)' },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1032, name: 'Butter (Масло)', selected: false },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>1033</v>
+      </c>
+      <c r="B33" t="s">
         <v>250</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>'Butterscotch (Ирис)'</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Butterscotch (Ирис)' },</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Butterscotch (Ирис)', name: 'Butterscotch (Ирис)' },</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1033, name: 'Butterscotch (Ирис)', selected: false },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>1034</v>
+      </c>
+      <c r="B34" t="s">
         <v>251</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>'Cantaloupe (Канталупа)'</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cantaloupe (Канталупа)' },</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cantaloupe (Канталупа)', name: 'Cantaloupe (Канталупа)' },</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1034, name: 'Cantaloupe (Канталупа)', selected: false },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>1035</v>
+      </c>
+      <c r="B35" t="s">
         <v>252</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>'Cappucсino (Каппучино)'</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cappucсino (Каппучино)' },</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cappucсino (Каппучино)', name: 'Cappucсino (Каппучино)' },</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1035, name: 'Cappucсino (Каппучино)', selected: false },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>1036</v>
+      </c>
+      <c r="B36" t="s">
         <v>253</v>
       </c>
-      <c r="B36" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>'Caramel (Карамель)'</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Caramel (Карамель)' },</v>
       </c>
-      <c r="L36" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Caramel (Карамель)', name: 'Caramel (Карамель)' },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1036, name: 'Caramel (Карамель)', selected: false },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>1037</v>
+      </c>
+      <c r="B37" t="s">
         <v>254</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>'Caramel (Original) (Карамель (Оригинальная))'</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Caramel (Original) (Карамель (Оригинальная))' },</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Caramel (Original) (Карамель (Оригинальная))', name: 'Caramel (Original) (Карамель (Оригинальная))' },</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1037, name: 'Caramel (Original) (Карамель (Оригинальная))', selected: false },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>1038</v>
+      </c>
+      <c r="B38" t="s">
         <v>255</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>'Caramel Candy (Карамельная конфета)'</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Caramel Candy (Карамельная конфета)' },</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Caramel Candy (Карамельная конфета)', name: 'Caramel Candy (Карамельная конфета)' },</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1038, name: 'Caramel Candy (Карамельная конфета)', selected: false },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>1039</v>
+      </c>
+      <c r="B39" t="s">
         <v>256</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>'Caramel Cappuccino (Карамель-каппучино)'</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Caramel Cappuccino (Карамель-каппучино)' },</v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Caramel Cappuccino (Карамель-каппучино)', name: 'Caramel Cappuccino (Карамель-каппучино)' },</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1039, name: 'Caramel Cappuccino (Карамель-каппучино)', selected: false },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>1040</v>
+      </c>
+      <c r="B40" t="s">
         <v>257</v>
       </c>
-      <c r="B40" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="0"/>
         <v>'Chai Tea (Чай)'</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Chai Tea (Чай)' },</v>
       </c>
-      <c r="L40" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Chai Tea (Чай)', name: 'Chai Tea (Чай)' },</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="s">
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1040, name: 'Chai Tea (Чай)', selected: false },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>1041</v>
+      </c>
+      <c r="B41" t="s">
         <v>258</v>
       </c>
-      <c r="B41" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="0"/>
         <v>'Champagne (Шампанское)'</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Champagne (Шампанское)' },</v>
       </c>
-      <c r="L41" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Champagne (Шампанское)', name: 'Champagne (Шампанское)' },</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1041, name: 'Champagne (Шампанское)', selected: false },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>1042</v>
+      </c>
+      <c r="B42" t="s">
         <v>259</v>
       </c>
-      <c r="B42" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="0"/>
         <v>'Cheesecake (Чизкейк)'</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cheesecake (Чизкейк)' },</v>
       </c>
-      <c r="L42" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cheesecake (Чизкейк)', name: 'Cheesecake (Чизкейк)' },</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="s">
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1042, name: 'Cheesecake (Чизкейк)', selected: false },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>1043</v>
+      </c>
+      <c r="B43" t="s">
         <v>260</v>
       </c>
-      <c r="B43" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="0"/>
         <v>'Cheesecake (Graham Crust) (Чизкейк (корочка))'</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cheesecake (Graham Crust) (Чизкейк (корочка))' },</v>
       </c>
-      <c r="L43" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cheesecake (Graham Crust) (Чизкейк (корочка))', name: 'Cheesecake (Graham Crust) (Чизкейк (корочка))' },</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" t="s">
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1043, name: 'Cheesecake (Graham Crust) (Чизкейк (корочка))', selected: false },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>1044</v>
+      </c>
+      <c r="B44" t="s">
         <v>261</v>
       </c>
-      <c r="B44" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="0"/>
         <v>'Cherry Blossom (Цветущая вишня)'</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cherry Blossom (Цветущая вишня)' },</v>
       </c>
-      <c r="L44" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cherry Blossom (Цветущая вишня)', name: 'Cherry Blossom (Цветущая вишня)' },</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="s">
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1044, name: 'Cherry Blossom (Цветущая вишня)', selected: false },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>1045</v>
+      </c>
+      <c r="B45" t="s">
         <v>262</v>
       </c>
-      <c r="B45" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="0"/>
         <v>'Cherry Extract (Экстракт вишни)'</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cherry Extract (Экстракт вишни)' },</v>
       </c>
-      <c r="L45" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cherry Extract (Экстракт вишни)', name: 'Cherry Extract (Экстракт вишни)' },</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" t="s">
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1045, name: 'Cherry Extract (Экстракт вишни)', selected: false },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>1046</v>
+      </c>
+      <c r="B46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="0"/>
         <v>'Chocolate (Шоколад)'</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Chocolate (Шоколад)' },</v>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Chocolate (Шоколад)', name: 'Chocolate (Шоколад)' },</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" t="s">
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1046, name: 'Chocolate (Шоколад)', selected: false },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>1047</v>
+      </c>
+      <c r="B47" t="s">
         <v>263</v>
       </c>
-      <c r="B47" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="0"/>
         <v>'Cinnamon (Корица)'</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cinnamon (Корица)' },</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cinnamon (Корица)', name: 'Cinnamon (Корица)' },</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1047, name: 'Cinnamon (Корица)', selected: false },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>1048</v>
+      </c>
+      <c r="B48" t="s">
         <v>264</v>
       </c>
-      <c r="B48" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="0"/>
         <v>'Cinnamon Danish (Корица датская)'</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cinnamon Danish (Корица датская)' },</v>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cinnamon Danish (Корица датская)', name: 'Cinnamon Danish (Корица датская)' },</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1048, name: 'Cinnamon Danish (Корица датская)', selected: false },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>1049</v>
+      </c>
+      <c r="B49" t="s">
         <v>265</v>
       </c>
-      <c r="B49" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="0"/>
         <v>'Cinnamon Red Hot (Корица)'</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cinnamon Red Hot (Корица)' },</v>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cinnamon Red Hot (Корица)', name: 'Cinnamon Red Hot (Корица)' },</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1049, name: 'Cinnamon Red Hot (Корица)', selected: false },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>1050</v>
+      </c>
+      <c r="B50" t="s">
         <v>266</v>
       </c>
-      <c r="B50" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="0"/>
         <v>'Cinnamon Spice (Острая корица)'</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cinnamon Spice (Острая корица)' },</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cinnamon Spice (Острая корица)', name: 'Cinnamon Spice (Острая корица)' },</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1050, name: 'Cinnamon Spice (Острая корица)', selected: false },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>1051</v>
+      </c>
+      <c r="B51" t="s">
         <v>267</v>
       </c>
-      <c r="B51" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="0"/>
         <v>'Cinnamon Sugar Cookie (Печенье с корицей)'</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cinnamon Sugar Cookie (Печенье с корицей)' },</v>
       </c>
-      <c r="L51" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cinnamon Sugar Cookie (Печенье с корицей)', name: 'Cinnamon Sugar Cookie (Печенье с корицей)' },</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="s">
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1051, name: 'Cinnamon Sugar Cookie (Печенье с корицей)', selected: false },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>1052</v>
+      </c>
+      <c r="B52" t="s">
         <v>268</v>
       </c>
-      <c r="B52" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="0"/>
         <v>'Citrus Punch (Цитрусовый пунш)'</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Citrus Punch (Цитрусовый пунш)' },</v>
       </c>
-      <c r="L52" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Citrus Punch (Цитрусовый пунш)', name: 'Citrus Punch (Цитрусовый пунш)' },</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="s">
+      <c r="M52" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1052, name: 'Citrus Punch (Цитрусовый пунш)', selected: false },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>1053</v>
+      </c>
+      <c r="B53" t="s">
         <v>269</v>
       </c>
-      <c r="B53" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="0"/>
         <v>'Clove (Гвоздика)'</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Clove (Гвоздика)' },</v>
       </c>
-      <c r="L53" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Clove (Гвоздика)', name: 'Clove (Гвоздика)' },</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="s">
+      <c r="M53" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1053, name: 'Clove (Гвоздика)', selected: false },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>1054</v>
+      </c>
+      <c r="B54" t="s">
         <v>270</v>
       </c>
-      <c r="B54" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="0"/>
         <v>'Cocoa Rounds (Шоколадные шарики)'</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cocoa Rounds (Шоколадные шарики)' },</v>
       </c>
-      <c r="L54" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cocoa Rounds (Шоколадные шарики)', name: 'Cocoa Rounds (Шоколадные шарики)' },</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
+      <c r="M54" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1054, name: 'Cocoa Rounds (Шоколадные шарики)', selected: false },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>1055</v>
+      </c>
+      <c r="B55" t="s">
         <v>271</v>
       </c>
-      <c r="B55" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="0"/>
         <v>'Coconut (Кокос)'</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Coconut (Кокос)' },</v>
       </c>
-      <c r="L55" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Coconut (Кокос)', name: 'Coconut (Кокос)' },</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" t="s">
+      <c r="M55" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1055, name: 'Coconut (Кокос)', selected: false },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>1056</v>
+      </c>
+      <c r="B56" t="s">
         <v>272</v>
       </c>
-      <c r="B56" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="0"/>
         <v>'Coconut (Extra) (Кокос (Экстра))'</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Coconut (Extra) (Кокос (Экстра))' },</v>
       </c>
-      <c r="L56" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Coconut (Extra) (Кокос (Экстра))', name: 'Coconut (Extra) (Кокос (Экстра))' },</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" t="s">
+      <c r="M56" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1056, name: 'Coconut (Extra) (Кокос (Экстра))', selected: false },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>1057</v>
+      </c>
+      <c r="B57" t="s">
         <v>273</v>
       </c>
-      <c r="B57" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="0"/>
         <v>'Coconut Candy (Кокосовые конфеты)'</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Coconut Candy (Кокосовые конфеты)' },</v>
       </c>
-      <c r="L57" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Coconut Candy (Кокосовые конфеты)', name: 'Coconut Candy (Кокосовые конфеты)' },</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" t="s">
+      <c r="M57" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1057, name: 'Coconut Candy (Кокосовые конфеты)', selected: false },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>1058</v>
+      </c>
+      <c r="B58" t="s">
         <v>274</v>
       </c>
-      <c r="B58" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="0"/>
         <v>'Coffee (Кофе)'</v>
       </c>
-      <c r="K58" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Coffee (Кофе)' },</v>
       </c>
-      <c r="L58" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Coffee (Кофе)', name: 'Coffee (Кофе)' },</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" t="s">
+      <c r="M58" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1058, name: 'Coffee (Кофе)', selected: false },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>1059</v>
+      </c>
+      <c r="B59" t="s">
         <v>275</v>
       </c>
-      <c r="B59" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="0"/>
         <v>'Cotton Candy (Сладкая вата)'</v>
       </c>
-      <c r="K59" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cotton Candy (Сладкая вата)' },</v>
       </c>
-      <c r="L59" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cotton Candy (Сладкая вата)', name: 'Cotton Candy (Сладкая вата)' },</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" t="s">
+      <c r="M59" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1059, name: 'Cotton Candy (Сладкая вата)', selected: false },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>1060</v>
+      </c>
+      <c r="B60" t="s">
         <v>276</v>
       </c>
-      <c r="B60" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="0"/>
         <v>'Cranberry (Клюква)'</v>
       </c>
-      <c r="K60" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cranberry (Клюква)' },</v>
       </c>
-      <c r="L60" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cranberry (Клюква)', name: 'Cranberry (Клюква)' },</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" t="s">
+      <c r="M60" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1060, name: 'Cranberry (Клюква)', selected: false },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>1061</v>
+      </c>
+      <c r="B61" t="s">
         <v>277</v>
       </c>
-      <c r="B61" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="0"/>
         <v>'Cream Soda (Крем-сода)'</v>
       </c>
-      <c r="K61" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cream Soda (Крем-сода)' },</v>
       </c>
-      <c r="L61" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cream Soda (Крем-сода)', name: 'Cream Soda (Крем-сода)' },</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" t="s">
+      <c r="M61" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1061, name: 'Cream Soda (Крем-сода)', selected: false },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <v>1062</v>
+      </c>
+      <c r="B62" t="s">
         <v>278</v>
       </c>
-      <c r="B62" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="0"/>
         <v>'Creme de Menthe (Сладкий мятный ликер)'</v>
       </c>
-      <c r="K62" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Creme de Menthe (Сладкий мятный ликер)' },</v>
       </c>
-      <c r="L62" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Creme de Menthe (Сладкий мятный ликер)', name: 'Creme de Menthe (Сладкий мятный ликер)' },</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" t="s">
+      <c r="M62" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1062, name: 'Creme de Menthe (Сладкий мятный ликер)', selected: false },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>1063</v>
+      </c>
+      <c r="B63" t="s">
         <v>279</v>
       </c>
-      <c r="B63" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="0"/>
         <v>'Cucumber (Огурец)'</v>
       </c>
-      <c r="K63" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cucumber (Огурец)' },</v>
       </c>
-      <c r="L63" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cucumber (Огурец)', name: 'Cucumber (Огурец)' },</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
+      <c r="M63" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1063, name: 'Cucumber (Огурец)', selected: false },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>1064</v>
+      </c>
+      <c r="B64" t="s">
         <v>280</v>
       </c>
-      <c r="B64" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="0"/>
         <v>'Dairy/Milk (Молоко)'</v>
       </c>
-      <c r="K64" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Dairy/Milk (Молоко)' },</v>
       </c>
-      <c r="L64" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Dairy/Milk (Молоко)', name: 'Dairy/Milk (Молоко)' },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" t="s">
+      <c r="M64" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1064, name: 'Dairy/Milk (Молоко)', selected: false },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>1065</v>
+      </c>
+      <c r="B65" t="s">
         <v>281</v>
       </c>
-      <c r="B65" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="0"/>
         <v>'DK Tobacco Base (Табак)'</v>
       </c>
-      <c r="K65" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'DK Tobacco Base (Табак)' },</v>
       </c>
-      <c r="L65" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'DK Tobacco Base (Табак)', name: 'DK Tobacco Base (Табак)' },</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" t="s">
+      <c r="M65" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 1065, name: 'DK Tobacco Base (Табак)', selected: false },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>1066</v>
+      </c>
+      <c r="B66" t="s">
         <v>282</v>
       </c>
-      <c r="B66" t="str">
-        <f t="shared" ref="B66:B129" si="3">CONCATENATE("'",A66,"'")</f>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C129" si="3">CONCATENATE("'",B66,"'")</f>
         <v>'Double Chocolate (Clear) (Двойной шоколад)'</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" ref="K66:K129" si="4">CONCATENATE($F$1,$H$1,B66,$J$1)</f>
+      <c r="L66" t="str">
+        <f t="shared" ref="L66:L129" si="4">CONCATENATE($G$1,$I$1,C66,$K$1)</f>
         <v>{name: 'Double Chocolate (Clear) (Двойной шоколад)' },</v>
       </c>
-      <c r="L66" t="str">
-        <f t="shared" ref="L66:L129" si="5">CONCATENATE($F$1,$G$1,B66,$H$2,$H$1,B66,$J$1)</f>
-        <v>{id: 'Double Chocolate (Clear) (Двойной шоколад)', name: 'Double Chocolate (Clear) (Двойной шоколад)' },</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" t="s">
+      <c r="M66" t="str">
+        <f t="shared" ref="M66:M129" si="5">CONCATENATE($G$1,$H$1,A66,$I$2,$I$1,C66,$I$2,$J$1,$K$1)</f>
+        <v>{id: 1066, name: 'Double Chocolate (Clear) (Двойной шоколад)', selected: false },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>1067</v>
+      </c>
+      <c r="B67" t="s">
         <v>283</v>
       </c>
-      <c r="B67" t="str">
+      <c r="C67" t="str">
         <f t="shared" si="3"/>
         <v>'Double Chocolate (Dark) (Двойной шоколад (Темный))'</v>
       </c>
-      <c r="K67" t="str">
+      <c r="L67" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Double Chocolate (Dark) (Двойной шоколад (Темный))' },</v>
       </c>
-      <c r="L67" t="str">
+      <c r="M67" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Double Chocolate (Dark) (Двойной шоколад (Темный))', name: 'Double Chocolate (Dark) (Двойной шоколад (Темный))' },</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" t="s">
+        <v>{id: 1067, name: 'Double Chocolate (Dark) (Двойной шоколад (Темный))', selected: false },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>1068</v>
+      </c>
+      <c r="B68" t="s">
         <v>284</v>
       </c>
-      <c r="B68" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="3"/>
         <v>'Dragonfruit (Драгонфрут (питайя))'</v>
       </c>
-      <c r="K68" t="str">
+      <c r="L68" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Dragonfruit (Драгонфрут (питайя))' },</v>
       </c>
-      <c r="L68" t="str">
+      <c r="M68" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Dragonfruit (Драгонфрут (питайя))', name: 'Dragonfruit (Драгонфрут (питайя))' },</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" t="s">
+        <v>{id: 1068, name: 'Dragonfruit (Драгонфрут (питайя))', selected: false },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>1069</v>
+      </c>
+      <c r="B69" t="s">
         <v>285</v>
       </c>
-      <c r="B69" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="3"/>
         <v>'Dulce de Leche (Сгущенное молоко)'</v>
       </c>
-      <c r="K69" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Dulce de Leche (Сгущенное молоко)' },</v>
       </c>
-      <c r="L69" t="str">
+      <c r="M69" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Dulce de Leche (Сгущенное молоко)', name: 'Dulce de Leche (Сгущенное молоко)' },</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" t="s">
+        <v>{id: 1069, name: 'Dulce de Leche (Сгущенное молоко)', selected: false },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>1070</v>
+      </c>
+      <c r="B70" t="s">
         <v>286</v>
       </c>
-      <c r="B70" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="3"/>
         <v>'Earl Grey Tea (Эрл-грей)'</v>
       </c>
-      <c r="K70" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Earl Grey Tea (Эрл-грей)' },</v>
       </c>
-      <c r="L70" t="str">
+      <c r="M70" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Earl Grey Tea (Эрл-грей)', name: 'Earl Grey Tea (Эрл-грей)' },</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" t="s">
+        <v>{id: 1070, name: 'Earl Grey Tea (Эрл-грей)', selected: false },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>1071</v>
+      </c>
+      <c r="B71" t="s">
         <v>287</v>
       </c>
-      <c r="B71" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="3"/>
         <v>'Elderberry (Бузина)'</v>
       </c>
-      <c r="K71" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Elderberry (Бузина)' },</v>
       </c>
-      <c r="L71" t="str">
+      <c r="M71" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Elderberry (Бузина)', name: 'Elderberry (Бузина)' },</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" t="s">
+        <v>{id: 1071, name: 'Elderberry (Бузина)', selected: false },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>1072</v>
+      </c>
+      <c r="B72" t="s">
         <v>288</v>
       </c>
-      <c r="B72" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="3"/>
         <v>'Energy Drink (Энергетический напиток)'</v>
       </c>
-      <c r="K72" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Energy Drink (Энергетический напиток)' },</v>
       </c>
-      <c r="L72" t="str">
+      <c r="M72" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Energy Drink (Энергетический напиток)', name: 'Energy Drink (Энергетический напиток)' },</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" t="s">
+        <v>{id: 1072, name: 'Energy Drink (Энергетический напиток)', selected: false },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>1073</v>
+      </c>
+      <c r="B73" t="s">
         <v>289</v>
       </c>
-      <c r="B73" t="str">
+      <c r="C73" t="str">
         <f t="shared" si="3"/>
         <v>'English Toffee (Тоффи)'</v>
       </c>
-      <c r="K73" t="str">
+      <c r="L73" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'English Toffee (Тоффи)' },</v>
       </c>
-      <c r="L73" t="str">
+      <c r="M73" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'English Toffee (Тоффи)', name: 'English Toffee (Тоффи)' },</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" t="s">
+        <v>{id: 1073, name: 'English Toffee (Тоффи)', selected: false },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>1074</v>
+      </c>
+      <c r="B74" t="s">
         <v>290</v>
       </c>
-      <c r="B74" t="str">
+      <c r="C74" t="str">
         <f t="shared" si="3"/>
         <v>'Espresso (Эспрессо)'</v>
       </c>
-      <c r="K74" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Espresso (Эспрессо)' },</v>
       </c>
-      <c r="L74" t="str">
+      <c r="M74" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Espresso (Эспрессо)', name: 'Espresso (Эспрессо)' },</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
+        <v>{id: 1074, name: 'Espresso (Эспрессо)', selected: false },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>1075</v>
+      </c>
+      <c r="B75" t="s">
         <v>291</v>
       </c>
-      <c r="B75" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="3"/>
         <v>'Ethyl Maltol (Этил мальтол)'</v>
       </c>
-      <c r="K75" t="str">
+      <c r="L75" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Ethyl Maltol (Этил мальтол)' },</v>
       </c>
-      <c r="L75" t="str">
+      <c r="M75" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Ethyl Maltol (Этил мальтол)', name: 'Ethyl Maltol (Этил мальтол)' },</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" t="s">
+        <v>{id: 1075, name: 'Ethyl Maltol (Этил мальтол)', selected: false },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>1076</v>
+      </c>
+      <c r="B76" t="s">
         <v>292</v>
       </c>
-      <c r="B76" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="3"/>
         <v>'French Vanilla (Французкая ваниль)'</v>
       </c>
-      <c r="K76" t="str">
+      <c r="L76" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'French Vanilla (Французкая ваниль)' },</v>
       </c>
-      <c r="L76" t="str">
+      <c r="M76" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'French Vanilla (Французкая ваниль)', name: 'French Vanilla (Французкая ваниль)' },</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" t="s">
+        <v>{id: 1076, name: 'French Vanilla (Французкая ваниль)', selected: false },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>1077</v>
+      </c>
+      <c r="B77" t="s">
         <v>82</v>
       </c>
-      <c r="B77" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="3"/>
         <v>'French Vanilla Deluxe (Французкая ваниль (Делюкс))'</v>
       </c>
-      <c r="K77" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'French Vanilla Deluxe (Французкая ваниль (Делюкс))' },</v>
       </c>
-      <c r="L77" t="str">
+      <c r="M77" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'French Vanilla Deluxe (Французкая ваниль (Делюкс))', name: 'French Vanilla Deluxe (Французкая ваниль (Делюкс))' },</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
+        <v>{id: 1077, name: 'French Vanilla Deluxe (Французкая ваниль (Делюкс))', selected: false },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>1078</v>
+      </c>
+      <c r="B78" t="s">
         <v>293</v>
       </c>
-      <c r="B78" t="str">
+      <c r="C78" t="str">
         <f t="shared" si="3"/>
         <v>'Frosted Donut (Пончик)'</v>
       </c>
-      <c r="K78" t="str">
+      <c r="L78" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Frosted Donut (Пончик)' },</v>
       </c>
-      <c r="L78" t="str">
+      <c r="M78" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Frosted Donut (Пончик)', name: 'Frosted Donut (Пончик)' },</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" t="s">
+        <v>{id: 1078, name: 'Frosted Donut (Пончик)', selected: false },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>1079</v>
+      </c>
+      <c r="B79" t="s">
         <v>294</v>
       </c>
-      <c r="B79" t="str">
+      <c r="C79" t="str">
         <f t="shared" si="3"/>
         <v>'Fruit Circles (Фруктовые кольца)'</v>
       </c>
-      <c r="K79" t="str">
+      <c r="L79" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Fruit Circles (Фруктовые кольца)' },</v>
       </c>
-      <c r="L79" t="str">
+      <c r="M79" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Fruit Circles (Фруктовые кольца)', name: 'Fruit Circles (Фруктовые кольца)' },</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" t="s">
+        <v>{id: 1079, name: 'Fruit Circles (Фруктовые кольца)', selected: false },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>1080</v>
+      </c>
+      <c r="B80" t="s">
         <v>295</v>
       </c>
-      <c r="B80" t="str">
+      <c r="C80" t="str">
         <f t="shared" si="3"/>
         <v>'Fruit Circles With Milk (Фруктовые кольца с молоком)'</v>
       </c>
-      <c r="K80" t="str">
+      <c r="L80" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Fruit Circles With Milk (Фруктовые кольца с молоком)' },</v>
       </c>
-      <c r="L80" t="str">
+      <c r="M80" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Fruit Circles With Milk (Фруктовые кольца с молоком)', name: 'Fruit Circles With Milk (Фруктовые кольца с молоком)' },</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" t="s">
+        <v>{id: 1080, name: 'Fruit Circles With Milk (Фруктовые кольца с молоком)', selected: false },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>1081</v>
+      </c>
+      <c r="B81" t="s">
         <v>296</v>
       </c>
-      <c r="B81" t="str">
+      <c r="C81" t="str">
         <f t="shared" si="3"/>
         <v>'Fruity Stick Gum (Жвачка (Fruity Stick))'</v>
       </c>
-      <c r="K81" t="str">
+      <c r="L81" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Fruity Stick Gum (Жвачка (Fruity Stick))' },</v>
       </c>
-      <c r="L81" t="str">
+      <c r="M81" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Fruity Stick Gum (Жвачка (Fruity Stick))', name: 'Fruity Stick Gum (Жвачка (Fruity Stick))' },</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" t="s">
+        <v>{id: 1081, name: 'Fruity Stick Gum (Жвачка (Fruity Stick))', selected: false },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
+        <v>1082</v>
+      </c>
+      <c r="B82" t="s">
         <v>297</v>
       </c>
-      <c r="B82" t="str">
+      <c r="C82" t="str">
         <f t="shared" si="3"/>
         <v>'Fudge Brownie (Брауни)'</v>
       </c>
-      <c r="K82" t="str">
+      <c r="L82" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Fudge Brownie (Брауни)' },</v>
       </c>
-      <c r="L82" t="str">
+      <c r="M82" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Fudge Brownie (Брауни)', name: 'Fudge Brownie (Брауни)' },</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" t="s">
+        <v>{id: 1082, name: 'Fudge Brownie (Брауни)', selected: false },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>1083</v>
+      </c>
+      <c r="B83" t="s">
         <v>298</v>
       </c>
-      <c r="B83" t="str">
+      <c r="C83" t="str">
         <f t="shared" si="3"/>
         <v>'Ginger Ale (Имбирный Эль)'</v>
       </c>
-      <c r="K83" t="str">
+      <c r="L83" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Ginger Ale (Имбирный Эль)' },</v>
       </c>
-      <c r="L83" t="str">
+      <c r="M83" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Ginger Ale (Имбирный Эль)', name: 'Ginger Ale (Имбирный Эль)' },</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" t="s">
+        <v>{id: 1083, name: 'Ginger Ale (Имбирный Эль)', selected: false },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>1084</v>
+      </c>
+      <c r="B84" t="s">
         <v>299</v>
       </c>
-      <c r="B84" t="str">
+      <c r="C84" t="str">
         <f t="shared" si="3"/>
         <v>'Gingerbread (Имбирный пряник)'</v>
       </c>
-      <c r="K84" t="str">
+      <c r="L84" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Gingerbread (Имбирный пряник)' },</v>
       </c>
-      <c r="L84" t="str">
+      <c r="M84" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Gingerbread (Имбирный пряник)', name: 'Gingerbread (Имбирный пряник)' },</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" t="s">
+        <v>{id: 1084, name: 'Gingerbread (Имбирный пряник)', selected: false },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>1085</v>
+      </c>
+      <c r="B85" t="s">
         <v>300</v>
       </c>
-      <c r="B85" t="str">
+      <c r="C85" t="str">
         <f t="shared" si="3"/>
         <v>'Graham Cracker (Грэхем крекер)'</v>
       </c>
-      <c r="K85" t="str">
+      <c r="L85" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Graham Cracker (Грэхем крекер)' },</v>
       </c>
-      <c r="L85" t="str">
+      <c r="M85" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Graham Cracker (Грэхем крекер)', name: 'Graham Cracker (Грэхем крекер)' },</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" t="s">
+        <v>{id: 1085, name: 'Graham Cracker (Грэхем крекер)', selected: false },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>1086</v>
+      </c>
+      <c r="B86" t="s">
         <v>301</v>
       </c>
-      <c r="B86" t="str">
+      <c r="C86" t="str">
         <f t="shared" si="3"/>
         <v>'Graham Cracker Clear (Грэхем крекер)'</v>
       </c>
-      <c r="K86" t="str">
+      <c r="L86" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Graham Cracker Clear (Грэхем крекер)' },</v>
       </c>
-      <c r="L86" t="str">
+      <c r="M86" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Graham Cracker Clear (Грэхем крекер)', name: 'Graham Cracker Clear (Грэхем крекер)' },</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" t="s">
+        <v>{id: 1086, name: 'Graham Cracker Clear (Грэхем крекер)', selected: false },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>1087</v>
+      </c>
+      <c r="B87" t="s">
         <v>302</v>
       </c>
-      <c r="B87" t="str">
+      <c r="C87" t="str">
         <f t="shared" si="3"/>
         <v>'Grape Candy (Виноградные леденцы)'</v>
       </c>
-      <c r="K87" t="str">
+      <c r="L87" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Grape Candy (Виноградные леденцы)' },</v>
       </c>
-      <c r="L87" t="str">
+      <c r="M87" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Grape Candy (Виноградные леденцы)', name: 'Grape Candy (Виноградные леденцы)' },</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" t="s">
+        <v>{id: 1087, name: 'Grape Candy (Виноградные леденцы)', selected: false },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>1088</v>
+      </c>
+      <c r="B88" t="s">
         <v>303</v>
       </c>
-      <c r="B88" t="str">
+      <c r="C88" t="str">
         <f t="shared" si="3"/>
         <v>'Grape Juice (Виноградный сок)'</v>
       </c>
-      <c r="K88" t="str">
+      <c r="L88" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Grape Juice (Виноградный сок)' },</v>
       </c>
-      <c r="L88" t="str">
+      <c r="M88" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Grape Juice (Виноградный сок)', name: 'Grape Juice (Виноградный сок)' },</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" t="s">
+        <v>{id: 1088, name: 'Grape Juice (Виноградный сок)', selected: false },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>1089</v>
+      </c>
+      <c r="B89" t="s">
         <v>304</v>
       </c>
-      <c r="B89" t="str">
+      <c r="C89" t="str">
         <f t="shared" si="3"/>
         <v>'Greek Yogurt (Греческий йогурт)'</v>
       </c>
-      <c r="K89" t="str">
+      <c r="L89" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Greek Yogurt (Греческий йогурт)' },</v>
       </c>
-      <c r="L89" t="str">
+      <c r="M89" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Greek Yogurt (Греческий йогурт)', name: 'Greek Yogurt (Греческий йогурт)' },</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" t="s">
+        <v>{id: 1089, name: 'Greek Yogurt (Греческий йогурт)', selected: false },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>1090</v>
+      </c>
+      <c r="B90" t="s">
         <v>305</v>
       </c>
-      <c r="B90" t="str">
+      <c r="C90" t="str">
         <f t="shared" si="3"/>
         <v>'Green Apple (Зеленое яблоко)'</v>
       </c>
-      <c r="K90" t="str">
+      <c r="L90" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Green Apple (Зеленое яблоко)' },</v>
       </c>
-      <c r="L90" t="str">
+      <c r="M90" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Green Apple (Зеленое яблоко)', name: 'Green Apple (Зеленое яблоко)' },</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" t="s">
+        <v>{id: 1090, name: 'Green Apple (Зеленое яблоко)', selected: false },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>1091</v>
+      </c>
+      <c r="B91" t="s">
         <v>306</v>
       </c>
-      <c r="B91" t="str">
+      <c r="C91" t="str">
         <f t="shared" si="3"/>
         <v>'Green Tea (Зеленый чай)'</v>
       </c>
-      <c r="K91" t="str">
+      <c r="L91" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Green Tea (Зеленый чай)' },</v>
       </c>
-      <c r="L91" t="str">
+      <c r="M91" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Green Tea (Зеленый чай)', name: 'Green Tea (Зеленый чай)' },</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" t="s">
+        <v>{id: 1091, name: 'Green Tea (Зеленый чай)', selected: false },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>1092</v>
+      </c>
+      <c r="B92" t="s">
         <v>307</v>
       </c>
-      <c r="B92" t="str">
+      <c r="C92" t="str">
         <f t="shared" si="3"/>
         <v>'Guava (Гуайява)'</v>
       </c>
-      <c r="K92" t="str">
+      <c r="L92" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Guava (Гуайява)' },</v>
       </c>
-      <c r="L92" t="str">
+      <c r="M92" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Guava (Гуайява)', name: 'Guava (Гуайява)' },</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" t="s">
+        <v>{id: 1092, name: 'Guava (Гуайява)', selected: false },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>1093</v>
+      </c>
+      <c r="B93" t="s">
         <v>308</v>
       </c>
-      <c r="B93" t="str">
+      <c r="C93" t="str">
         <f t="shared" si="3"/>
         <v>'Gummy Candy (Тянучки)'</v>
       </c>
-      <c r="K93" t="str">
+      <c r="L93" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Gummy Candy (Тянучки)' },</v>
       </c>
-      <c r="L93" t="str">
+      <c r="M93" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Gummy Candy (Тянучки)', name: 'Gummy Candy (Тянучки)' },</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" t="s">
+        <v>{id: 1093, name: 'Gummy Candy (Тянучки)', selected: false },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>1094</v>
+      </c>
+      <c r="B94" t="s">
         <v>309</v>
       </c>
-      <c r="B94" t="str">
+      <c r="C94" t="str">
         <f t="shared" si="3"/>
         <v>'Hazelnut (Лесной орех)'</v>
       </c>
-      <c r="K94" t="str">
+      <c r="L94" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Hazelnut (Лесной орех)' },</v>
       </c>
-      <c r="L94" t="str">
+      <c r="M94" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Hazelnut (Лесной орех)', name: 'Hazelnut (Лесной орех)' },</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
-      <c r="A95" t="s">
+        <v>{id: 1094, name: 'Hazelnut (Лесной орех)', selected: false },</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>1095</v>
+      </c>
+      <c r="B95" t="s">
         <v>310</v>
       </c>
-      <c r="B95" t="str">
+      <c r="C95" t="str">
         <f t="shared" si="3"/>
         <v>'Hibiscus (Гибискус)'</v>
       </c>
-      <c r="K95" t="str">
+      <c r="L95" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Hibiscus (Гибискус)' },</v>
       </c>
-      <c r="L95" t="str">
+      <c r="M95" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Hibiscus (Гибискус)', name: 'Hibiscus (Гибискус)' },</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
-      <c r="A96" t="s">
+        <v>{id: 1095, name: 'Hibiscus (Гибискус)', selected: false },</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>1096</v>
+      </c>
+      <c r="B96" t="s">
         <v>311</v>
       </c>
-      <c r="B96" t="str">
+      <c r="C96" t="str">
         <f t="shared" si="3"/>
         <v>'Honey (Мед)'</v>
       </c>
-      <c r="K96" t="str">
+      <c r="L96" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Honey (Мед)' },</v>
       </c>
-      <c r="L96" t="str">
+      <c r="M96" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Honey (Мед)', name: 'Honey (Мед)' },</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="A97" t="s">
+        <v>{id: 1096, name: 'Honey (Мед)', selected: false },</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>1097</v>
+      </c>
+      <c r="B97" t="s">
         <v>312</v>
       </c>
-      <c r="B97" t="str">
+      <c r="C97" t="str">
         <f t="shared" si="3"/>
         <v>'Honeydew (Медовая дыня)'</v>
       </c>
-      <c r="K97" t="str">
+      <c r="L97" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Honeydew (Медовая дыня)' },</v>
       </c>
-      <c r="L97" t="str">
+      <c r="M97" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Honeydew (Медовая дыня)', name: 'Honeydew (Медовая дыня)' },</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="A98" t="s">
+        <v>{id: 1097, name: 'Honeydew (Медовая дыня)', selected: false },</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>1098</v>
+      </c>
+      <c r="B98" t="s">
         <v>313</v>
       </c>
-      <c r="B98" t="str">
+      <c r="C98" t="str">
         <f t="shared" si="3"/>
         <v>'Honeydew II (Медовая дыня (версия 2))'</v>
       </c>
-      <c r="K98" t="str">
+      <c r="L98" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Honeydew II (Медовая дыня (версия 2))' },</v>
       </c>
-      <c r="L98" t="str">
+      <c r="M98" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Honeydew II (Медовая дыня (версия 2))', name: 'Honeydew II (Медовая дыня (версия 2))' },</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
-      <c r="A99" t="s">
+        <v>{id: 1098, name: 'Honeydew II (Медовая дыня (версия 2))', selected: false },</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>1099</v>
+      </c>
+      <c r="B99" t="s">
         <v>314</v>
       </c>
-      <c r="B99" t="str">
+      <c r="C99" t="str">
         <f t="shared" si="3"/>
         <v>'Honeysuckle (Жимолость)'</v>
       </c>
-      <c r="K99" t="str">
+      <c r="L99" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Honeysuckle (Жимолость)' },</v>
       </c>
-      <c r="L99" t="str">
+      <c r="M99" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Honeysuckle (Жимолость)', name: 'Honeysuckle (Жимолость)' },</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" t="s">
+        <v>{id: 1099, name: 'Honeysuckle (Жимолость)', selected: false },</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>1100</v>
+      </c>
+      <c r="B100" t="s">
         <v>315</v>
       </c>
-      <c r="B100" t="str">
+      <c r="C100" t="str">
         <f t="shared" si="3"/>
         <v>'Horehound (Шандра)'</v>
       </c>
-      <c r="K100" t="str">
+      <c r="L100" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Horehound (Шандра)' },</v>
       </c>
-      <c r="L100" t="str">
+      <c r="M100" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Horehound (Шандра)', name: 'Horehound (Шандра)' },</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="A101" t="s">
+        <v>{id: 1100, name: 'Horehound (Шандра)', selected: false },</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>1101</v>
+      </c>
+      <c r="B101" t="s">
         <v>316</v>
       </c>
-      <c r="B101" t="str">
+      <c r="C101" t="str">
         <f t="shared" si="3"/>
         <v>'Huckleberry (Хаклберри)'</v>
       </c>
-      <c r="K101" t="str">
+      <c r="L101" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Huckleberry (Хаклберри)' },</v>
       </c>
-      <c r="L101" t="str">
+      <c r="M101" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Huckleberry (Хаклберри)', name: 'Huckleberry (Хаклберри)' },</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="A102" t="s">
+        <v>{id: 1101, name: 'Huckleberry (Хаклберри)', selected: false },</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102">
+        <v>1102</v>
+      </c>
+      <c r="B102" t="s">
         <v>317</v>
       </c>
-      <c r="B102" t="str">
+      <c r="C102" t="str">
         <f t="shared" si="3"/>
         <v>'Irish Cream (Ирландские сливки)'</v>
       </c>
-      <c r="K102" t="str">
+      <c r="L102" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Irish Cream (Ирландские сливки)' },</v>
       </c>
-      <c r="L102" t="str">
+      <c r="M102" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Irish Cream (Ирландские сливки)', name: 'Irish Cream (Ирландские сливки)' },</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="A103" t="s">
+        <v>{id: 1102, name: 'Irish Cream (Ирландские сливки)', selected: false },</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103">
+        <v>1103</v>
+      </c>
+      <c r="B103" t="s">
         <v>318</v>
       </c>
-      <c r="B103" t="str">
+      <c r="C103" t="str">
         <f t="shared" si="3"/>
         <v>'Jackfruit (Джекфрут)'</v>
       </c>
-      <c r="K103" t="str">
+      <c r="L103" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Jackfruit (Джекфрут)' },</v>
       </c>
-      <c r="L103" t="str">
+      <c r="M103" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Jackfruit (Джекфрут)', name: 'Jackfruit (Джекфрут)' },</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="A104" t="s">
+        <v>{id: 1103, name: 'Jackfruit (Джекфрут)', selected: false },</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104">
+        <v>1104</v>
+      </c>
+      <c r="B104" t="s">
         <v>319</v>
       </c>
-      <c r="B104" t="str">
+      <c r="C104" t="str">
         <f t="shared" si="3"/>
         <v>'Jamaican Rum (Ямайский ром)'</v>
       </c>
-      <c r="K104" t="str">
+      <c r="L104" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Jamaican Rum (Ямайский ром)' },</v>
       </c>
-      <c r="L104" t="str">
+      <c r="M104" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Jamaican Rum (Ямайский ром)', name: 'Jamaican Rum (Ямайский ром)' },</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="A105" t="s">
+        <v>{id: 1104, name: 'Jamaican Rum (Ямайский ром)', selected: false },</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105">
+        <v>1105</v>
+      </c>
+      <c r="B105" t="s">
         <v>320</v>
       </c>
-      <c r="B105" t="str">
+      <c r="C105" t="str">
         <f t="shared" si="3"/>
         <v>'Kalua and Cream (Калуа и сливки)'</v>
       </c>
-      <c r="K105" t="str">
+      <c r="L105" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Kalua and Cream (Калуа и сливки)' },</v>
       </c>
-      <c r="L105" t="str">
+      <c r="M105" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Kalua and Cream (Калуа и сливки)', name: 'Kalua and Cream (Калуа и сливки)' },</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
-      <c r="A106" t="s">
+        <v>{id: 1105, name: 'Kalua and Cream (Калуа и сливки)', selected: false },</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
+      <c r="A106">
+        <v>1106</v>
+      </c>
+      <c r="B106" t="s">
         <v>321</v>
       </c>
-      <c r="B106" t="str">
+      <c r="C106" t="str">
         <f t="shared" si="3"/>
         <v>'Kentucky Bourbon (Бурбон из Кентукки)'</v>
       </c>
-      <c r="K106" t="str">
+      <c r="L106" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Kentucky Bourbon (Бурбон из Кентукки)' },</v>
       </c>
-      <c r="L106" t="str">
+      <c r="M106" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Kentucky Bourbon (Бурбон из Кентукки)', name: 'Kentucky Bourbon (Бурбон из Кентукки)' },</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
-      <c r="A107" t="s">
+        <v>{id: 1106, name: 'Kentucky Bourbon (Бурбон из Кентукки)', selected: false },</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107">
+        <v>1107</v>
+      </c>
+      <c r="B107" t="s">
         <v>322</v>
       </c>
-      <c r="B107" t="str">
+      <c r="C107" t="str">
         <f t="shared" si="3"/>
         <v>'Key Lime (Лайм)'</v>
       </c>
-      <c r="K107" t="str">
+      <c r="L107" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Key Lime (Лайм)' },</v>
       </c>
-      <c r="L107" t="str">
+      <c r="M107" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Key Lime (Лайм)', name: 'Key Lime (Лайм)' },</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
-      <c r="A108" t="s">
+        <v>{id: 1107, name: 'Key Lime (Лайм)', selected: false },</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108">
+        <v>1108</v>
+      </c>
+      <c r="B108" t="s">
         <v>323</v>
       </c>
-      <c r="B108" t="str">
+      <c r="C108" t="str">
         <f t="shared" si="3"/>
         <v>'Kiwi (Киви)'</v>
       </c>
-      <c r="K108" t="str">
+      <c r="L108" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Kiwi (Киви)' },</v>
       </c>
-      <c r="L108" t="str">
+      <c r="M108" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Kiwi (Киви)', name: 'Kiwi (Киви)' },</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
-      <c r="A109" t="s">
+        <v>{id: 1108, name: 'Kiwi (Киви)', selected: false },</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109">
+        <v>1109</v>
+      </c>
+      <c r="B109" t="s">
         <v>324</v>
       </c>
-      <c r="B109" t="str">
+      <c r="C109" t="str">
         <f t="shared" si="3"/>
         <v>'Kiwi (Double) (Киви (двойной))'</v>
       </c>
-      <c r="K109" t="str">
+      <c r="L109" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Kiwi (Double) (Киви (двойной))' },</v>
       </c>
-      <c r="L109" t="str">
+      <c r="M109" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Kiwi (Double) (Киви (двойной))', name: 'Kiwi (Double) (Киви (двойной))' },</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
-      <c r="A110" t="s">
+        <v>{id: 1109, name: 'Kiwi (Double) (Киви (двойной))', selected: false },</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110">
+        <v>1110</v>
+      </c>
+      <c r="B110" t="s">
         <v>325</v>
       </c>
-      <c r="B110" t="str">
+      <c r="C110" t="str">
         <f t="shared" si="3"/>
         <v>'Koolada 10 PG (Кулада)'</v>
       </c>
-      <c r="K110" t="str">
+      <c r="L110" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Koolada 10 PG (Кулада)' },</v>
       </c>
-      <c r="L110" t="str">
+      <c r="M110" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Koolada 10 PG (Кулада)', name: 'Koolada 10 PG (Кулада)' },</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
-      <c r="A111" t="s">
+        <v>{id: 1110, name: 'Koolada 10 PG (Кулада)', selected: false },</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111">
+        <v>1111</v>
+      </c>
+      <c r="B111" t="s">
         <v>326</v>
       </c>
-      <c r="B111" t="str">
+      <c r="C111" t="str">
         <f t="shared" si="3"/>
         <v>'Lemon (water soluble) (Лимон)'</v>
       </c>
-      <c r="K111" t="str">
+      <c r="L111" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Lemon (water soluble) (Лимон)' },</v>
       </c>
-      <c r="L111" t="str">
+      <c r="M111" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Lemon (water soluble) (Лимон)', name: 'Lemon (water soluble) (Лимон)' },</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" t="s">
+        <v>{id: 1111, name: 'Lemon (water soluble) (Лимон)', selected: false },</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
+        <v>1112</v>
+      </c>
+      <c r="B112" t="s">
         <v>327</v>
       </c>
-      <c r="B112" t="str">
+      <c r="C112" t="str">
         <f t="shared" si="3"/>
         <v>'Lemon 2 (Лимон (Версия 2))'</v>
       </c>
-      <c r="K112" t="str">
+      <c r="L112" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Lemon 2 (Лимон (Версия 2))' },</v>
       </c>
-      <c r="L112" t="str">
+      <c r="M112" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Lemon 2 (Лимон (Версия 2))', name: 'Lemon 2 (Лимон (Версия 2))' },</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" t="s">
+        <v>{id: 1112, name: 'Lemon 2 (Лимон (Версия 2))', selected: false },</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
+      <c r="A113">
+        <v>1113</v>
+      </c>
+      <c r="B113" t="s">
         <v>328</v>
       </c>
-      <c r="B113" t="str">
+      <c r="C113" t="str">
         <f t="shared" si="3"/>
         <v>'Lemon Lime (Лимон-лайм)'</v>
       </c>
-      <c r="K113" t="str">
+      <c r="L113" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Lemon Lime (Лимон-лайм)' },</v>
       </c>
-      <c r="L113" t="str">
+      <c r="M113" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Lemon Lime (Лимон-лайм)', name: 'Lemon Lime (Лимон-лайм)' },</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
-      <c r="A114" t="s">
+        <v>{id: 1113, name: 'Lemon Lime (Лимон-лайм)', selected: false },</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114">
+        <v>1114</v>
+      </c>
+      <c r="B114" t="s">
         <v>329</v>
       </c>
-      <c r="B114" t="str">
+      <c r="C114" t="str">
         <f t="shared" si="3"/>
         <v>'Lemon Lime 2 (Лимон лайм (версия 2))'</v>
       </c>
-      <c r="K114" t="str">
+      <c r="L114" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Lemon Lime 2 (Лимон лайм (версия 2))' },</v>
       </c>
-      <c r="L114" t="str">
+      <c r="M114" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Lemon Lime 2 (Лимон лайм (версия 2))', name: 'Lemon Lime 2 (Лимон лайм (версия 2))' },</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
-      <c r="A115" t="s">
+        <v>{id: 1114, name: 'Lemon Lime 2 (Лимон лайм (версия 2))', selected: false },</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115">
+        <v>1115</v>
+      </c>
+      <c r="B115" t="s">
         <v>330</v>
       </c>
-      <c r="B115" t="str">
+      <c r="C115" t="str">
         <f t="shared" si="3"/>
         <v>'Lemonade Cookie (Лимонадное печенье)'</v>
       </c>
-      <c r="K115" t="str">
+      <c r="L115" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Lemonade Cookie (Лимонадное печенье)' },</v>
       </c>
-      <c r="L115" t="str">
+      <c r="M115" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Lemonade Cookie (Лимонадное печенье)', name: 'Lemonade Cookie (Лимонадное печенье)' },</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
-      <c r="A116" t="s">
+        <v>{id: 1115, name: 'Lemonade Cookie (Лимонадное печенье)', selected: false },</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116">
+        <v>1116</v>
+      </c>
+      <c r="B116" t="s">
         <v>127</v>
       </c>
-      <c r="B116" t="str">
+      <c r="C116" t="str">
         <f t="shared" si="3"/>
         <v>'Lucky Leprechaun Cereal (Зефирные хлопья)'</v>
       </c>
-      <c r="K116" t="str">
+      <c r="L116" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Lucky Leprechaun Cereal (Зефирные хлопья)' },</v>
       </c>
-      <c r="L116" t="str">
+      <c r="M116" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Lucky Leprechaun Cereal (Зефирные хлопья)', name: 'Lucky Leprechaun Cereal (Зефирные хлопья)' },</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
-      <c r="A117" t="s">
+        <v>{id: 1116, name: 'Lucky Leprechaun Cereal (Зефирные хлопья)', selected: false },</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117">
+        <v>1117</v>
+      </c>
+      <c r="B117" t="s">
         <v>331</v>
       </c>
-      <c r="B117" t="str">
+      <c r="C117" t="str">
         <f t="shared" si="3"/>
         <v>'Lychee (Личи)'</v>
       </c>
-      <c r="K117" t="str">
+      <c r="L117" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Lychee (Личи)' },</v>
       </c>
-      <c r="L117" t="str">
+      <c r="M117" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Lychee (Личи)', name: 'Lychee (Личи)' },</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
-      <c r="A118" t="s">
+        <v>{id: 1117, name: 'Lychee (Личи)', selected: false },</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118">
+        <v>1118</v>
+      </c>
+      <c r="B118" t="s">
         <v>332</v>
       </c>
-      <c r="B118" t="str">
+      <c r="C118" t="str">
         <f t="shared" si="3"/>
         <v>'M Type Premium (Эм тайп премиум (табак))'</v>
       </c>
-      <c r="K118" t="str">
+      <c r="L118" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'M Type Premium (Эм тайп премиум (табак))' },</v>
       </c>
-      <c r="L118" t="str">
+      <c r="M118" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'M Type Premium (Эм тайп премиум (табак))', name: 'M Type Premium (Эм тайп премиум (табак))' },</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
-      <c r="A119" t="s">
+        <v>{id: 1118, name: 'M Type Premium (Эм тайп премиум (табак))', selected: false },</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119">
+        <v>1119</v>
+      </c>
+      <c r="B119" t="s">
         <v>333</v>
       </c>
-      <c r="B119" t="str">
+      <c r="C119" t="str">
         <f t="shared" si="3"/>
         <v>'Malted milk (Сухое молоко)'</v>
       </c>
-      <c r="K119" t="str">
+      <c r="L119" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Malted milk (Сухое молоко)' },</v>
       </c>
-      <c r="L119" t="str">
+      <c r="M119" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Malted milk (Сухое молоко)', name: 'Malted milk (Сухое молоко)' },</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
-      <c r="A120" t="s">
+        <v>{id: 1119, name: 'Malted milk (Сухое молоко)', selected: false },</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120">
+        <v>1120</v>
+      </c>
+      <c r="B120" t="s">
         <v>334</v>
       </c>
-      <c r="B120" t="str">
+      <c r="C120" t="str">
         <f t="shared" si="3"/>
         <v>'Mango (Манго)'</v>
       </c>
-      <c r="K120" t="str">
+      <c r="L120" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Mango (Манго)' },</v>
       </c>
-      <c r="L120" t="str">
+      <c r="M120" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Mango (Манго)', name: 'Mango (Манго)' },</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
-      <c r="A121" t="s">
+        <v>{id: 1120, name: 'Mango (Манго)', selected: false },</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121">
+        <v>1121</v>
+      </c>
+      <c r="B121" t="s">
         <v>335</v>
       </c>
-      <c r="B121" t="str">
+      <c r="C121" t="str">
         <f t="shared" si="3"/>
         <v>'Maple Extract (Кленовый экстракт)'</v>
       </c>
-      <c r="K121" t="str">
+      <c r="L121" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Maple Extract (Кленовый экстракт)' },</v>
       </c>
-      <c r="L121" t="str">
+      <c r="M121" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Maple Extract (Кленовый экстракт)', name: 'Maple Extract (Кленовый экстракт)' },</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
-      <c r="A122" t="s">
+        <v>{id: 1121, name: 'Maple Extract (Кленовый экстракт)', selected: false },</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122">
+        <v>1122</v>
+      </c>
+      <c r="B122" t="s">
         <v>336</v>
       </c>
-      <c r="B122" t="str">
+      <c r="C122" t="str">
         <f t="shared" si="3"/>
         <v>'Maple Syrup (Кленовый сироп)'</v>
       </c>
-      <c r="K122" t="str">
+      <c r="L122" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Maple Syrup (Кленовый сироп)' },</v>
       </c>
-      <c r="L122" t="str">
+      <c r="M122" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Maple Syrup (Кленовый сироп)', name: 'Maple Syrup (Кленовый сироп)' },</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
-      <c r="A123" t="s">
+        <v>{id: 1122, name: 'Maple Syrup (Кленовый сироп)', selected: false },</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123">
+        <v>1123</v>
+      </c>
+      <c r="B123" t="s">
         <v>337</v>
       </c>
-      <c r="B123" t="str">
+      <c r="C123" t="str">
         <f t="shared" si="3"/>
         <v>'Marshmallow (Маршмеллоу)'</v>
       </c>
-      <c r="K123" t="str">
+      <c r="L123" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Marshmallow (Маршмеллоу)' },</v>
       </c>
-      <c r="L123" t="str">
+      <c r="M123" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Marshmallow (Маршмеллоу)', name: 'Marshmallow (Маршмеллоу)' },</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
-      <c r="A124" t="s">
+        <v>{id: 1123, name: 'Marshmallow (Маршмеллоу)', selected: false },</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124">
+        <v>1124</v>
+      </c>
+      <c r="B124" t="s">
         <v>338</v>
       </c>
-      <c r="B124" t="str">
+      <c r="C124" t="str">
         <f t="shared" si="3"/>
         <v>'Mary Jane (Мери Джейн)'</v>
       </c>
-      <c r="K124" t="str">
+      <c r="L124" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Mary Jane (Мери Джейн)' },</v>
       </c>
-      <c r="L124" t="str">
+      <c r="M124" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Mary Jane (Мери Джейн)', name: 'Mary Jane (Мери Джейн)' },</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
-      <c r="A125" t="s">
+        <v>{id: 1124, name: 'Mary Jane (Мери Джейн)', selected: false },</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125">
+        <v>1125</v>
+      </c>
+      <c r="B125" t="s">
         <v>339</v>
       </c>
-      <c r="B125" t="str">
+      <c r="C125" t="str">
         <f t="shared" si="3"/>
         <v>'Menthol liquid (Ментол)'</v>
       </c>
-      <c r="K125" t="str">
+      <c r="L125" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Menthol liquid (Ментол)' },</v>
       </c>
-      <c r="L125" t="str">
+      <c r="M125" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Menthol liquid (Ментол)', name: 'Menthol liquid (Ментол)' },</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
-      <c r="A126" t="s">
+        <v>{id: 1125, name: 'Menthol liquid (Ментол)', selected: false },</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126">
+        <v>1126</v>
+      </c>
+      <c r="B126" t="s">
         <v>340</v>
       </c>
-      <c r="B126" t="str">
+      <c r="C126" t="str">
         <f t="shared" si="3"/>
         <v>'Meringue (Безе)'</v>
       </c>
-      <c r="K126" t="str">
+      <c r="L126" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Meringue (Безе)' },</v>
       </c>
-      <c r="L126" t="str">
+      <c r="M126" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Meringue (Безе)', name: 'Meringue (Безе)' },</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
-      <c r="A127" t="s">
+        <v>{id: 1126, name: 'Meringue (Безе)', selected: false },</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127">
+        <v>1127</v>
+      </c>
+      <c r="B127" t="s">
         <v>341</v>
       </c>
-      <c r="B127" t="str">
+      <c r="C127" t="str">
         <f t="shared" si="3"/>
         <v>'Milk Chocolate (Молочный шоколад)'</v>
       </c>
-      <c r="K127" t="str">
+      <c r="L127" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Milk Chocolate (Молочный шоколад)' },</v>
       </c>
-      <c r="L127" t="str">
+      <c r="M127" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Milk Chocolate (Молочный шоколад)', name: 'Milk Chocolate (Молочный шоколад)' },</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
-      <c r="A128" t="s">
+        <v>{id: 1127, name: 'Milk Chocolate (Молочный шоколад)', selected: false },</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128">
+        <v>1128</v>
+      </c>
+      <c r="B128" t="s">
         <v>342</v>
       </c>
-      <c r="B128" t="str">
+      <c r="C128" t="str">
         <f t="shared" si="3"/>
         <v>'Mojito Havana (Мохито)'</v>
       </c>
-      <c r="K128" t="str">
+      <c r="L128" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Mojito Havana (Мохито)' },</v>
       </c>
-      <c r="L128" t="str">
+      <c r="M128" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Mojito Havana (Мохито)', name: 'Mojito Havana (Мохито)' },</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
-      <c r="A129" t="s">
+        <v>{id: 1128, name: 'Mojito Havana (Мохито)', selected: false },</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129">
+        <v>1129</v>
+      </c>
+      <c r="B129" t="s">
         <v>343</v>
       </c>
-      <c r="B129" t="str">
+      <c r="C129" t="str">
         <f t="shared" si="3"/>
         <v>'Molasses (Меласса)'</v>
       </c>
-      <c r="K129" t="str">
+      <c r="L129" t="str">
         <f t="shared" si="4"/>
         <v>{name: 'Molasses (Меласса)' },</v>
       </c>
-      <c r="L129" t="str">
+      <c r="M129" t="str">
         <f t="shared" si="5"/>
-        <v>{id: 'Molasses (Меласса)', name: 'Molasses (Меласса)' },</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
-      <c r="A130" t="s">
+        <v>{id: 1129, name: 'Molasses (Меласса)', selected: false },</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130">
+        <v>1130</v>
+      </c>
+      <c r="B130" t="s">
         <v>344</v>
       </c>
-      <c r="B130" t="str">
-        <f t="shared" ref="B130:B193" si="6">CONCATENATE("'",A130,"'")</f>
+      <c r="C130" t="str">
+        <f t="shared" ref="C130:C193" si="6">CONCATENATE("'",B130,"'")</f>
         <v>'Musk Candy (Конфеты Musk Lifesaver)'</v>
       </c>
-      <c r="K130" t="str">
-        <f t="shared" ref="K130:K193" si="7">CONCATENATE($F$1,$H$1,B130,$J$1)</f>
+      <c r="L130" t="str">
+        <f t="shared" ref="L130:L193" si="7">CONCATENATE($G$1,$I$1,C130,$K$1)</f>
         <v>{name: 'Musk Candy (Конфеты Musk Lifesaver)' },</v>
       </c>
-      <c r="L130" t="str">
-        <f t="shared" ref="L130:L193" si="8">CONCATENATE($F$1,$G$1,B130,$H$2,$H$1,B130,$J$1)</f>
-        <v>{id: 'Musk Candy (Конфеты Musk Lifesaver)', name: 'Musk Candy (Конфеты Musk Lifesaver)' },</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
-      <c r="A131" t="s">
+      <c r="M130" t="str">
+        <f t="shared" ref="M130:M193" si="8">CONCATENATE($G$1,$H$1,A130,$I$2,$I$1,C130,$I$2,$J$1,$K$1)</f>
+        <v>{id: 1130, name: 'Musk Candy (Конфеты Musk Lifesaver)', selected: false },</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131">
+        <v>1131</v>
+      </c>
+      <c r="B131" t="s">
         <v>345</v>
       </c>
-      <c r="B131" t="str">
+      <c r="C131" t="str">
         <f t="shared" si="6"/>
         <v>'Nectarine (Нектарин)'</v>
       </c>
-      <c r="K131" t="str">
+      <c r="L131" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Nectarine (Нектарин)' },</v>
       </c>
-      <c r="L131" t="str">
+      <c r="M131" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Nectarine (Нектарин)', name: 'Nectarine (Нектарин)' },</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
-      <c r="A132" t="s">
+        <v>{id: 1131, name: 'Nectarine (Нектарин)', selected: false },</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132">
+        <v>1132</v>
+      </c>
+      <c r="B132" t="s">
         <v>346</v>
       </c>
-      <c r="B132" t="str">
+      <c r="C132" t="str">
         <f t="shared" si="6"/>
         <v>'Oatmeal Cookie (Овсянное печенье)'</v>
       </c>
-      <c r="K132" t="str">
+      <c r="L132" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Oatmeal Cookie (Овсянное печенье)' },</v>
       </c>
-      <c r="L132" t="str">
+      <c r="M132" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Oatmeal Cookie (Овсянное печенье)', name: 'Oatmeal Cookie (Овсянное печенье)' },</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
-      <c r="A133" t="s">
+        <v>{id: 1132, name: 'Oatmeal Cookie (Овсянное печенье)', selected: false },</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133">
+        <v>1133</v>
+      </c>
+      <c r="B133" t="s">
         <v>347</v>
       </c>
-      <c r="B133" t="str">
+      <c r="C133" t="str">
         <f t="shared" si="6"/>
         <v>'Orange Cream (Апельсиновый крем)'</v>
       </c>
-      <c r="K133" t="str">
+      <c r="L133" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Orange Cream (Апельсиновый крем)' },</v>
       </c>
-      <c r="L133" t="str">
+      <c r="M133" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Orange Cream (Апельсиновый крем)', name: 'Orange Cream (Апельсиновый крем)' },</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
-      <c r="A134" t="s">
+        <v>{id: 1133, name: 'Orange Cream (Апельсиновый крем)', selected: false },</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134">
+        <v>1134</v>
+      </c>
+      <c r="B134" t="s">
         <v>348</v>
       </c>
-      <c r="B134" t="str">
+      <c r="C134" t="str">
         <f t="shared" si="6"/>
         <v>'Orange Mandarin (Мандарин)'</v>
       </c>
-      <c r="K134" t="str">
+      <c r="L134" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Orange Mandarin (Мандарин)' },</v>
       </c>
-      <c r="L134" t="str">
+      <c r="M134" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Orange Mandarin (Мандарин)', name: 'Orange Mandarin (Мандарин)' },</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
-      <c r="A135" t="s">
+        <v>{id: 1134, name: 'Orange Mandarin (Мандарин)', selected: false },</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135">
+        <v>1135</v>
+      </c>
+      <c r="B135" t="s">
         <v>349</v>
       </c>
-      <c r="B135" t="str">
+      <c r="C135" t="str">
         <f t="shared" si="6"/>
         <v>'Pancake (Панкейк)'</v>
       </c>
-      <c r="K135" t="str">
+      <c r="L135" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pancake (Панкейк)' },</v>
       </c>
-      <c r="L135" t="str">
+      <c r="M135" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pancake (Панкейк)', name: 'Pancake (Панкейк)' },</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
-      <c r="A136" t="s">
+        <v>{id: 1135, name: 'Pancake (Панкейк)', selected: false },</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136">
+        <v>1136</v>
+      </c>
+      <c r="B136" t="s">
         <v>350</v>
       </c>
-      <c r="B136" t="str">
+      <c r="C136" t="str">
         <f t="shared" si="6"/>
         <v>'Papaya (Папайя)'</v>
       </c>
-      <c r="K136" t="str">
+      <c r="L136" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Papaya (Папайя)' },</v>
       </c>
-      <c r="L136" t="str">
+      <c r="M136" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Papaya (Папайя)', name: 'Papaya (Папайя)' },</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
-      <c r="A137" t="s">
+        <v>{id: 1136, name: 'Papaya (Папайя)', selected: false },</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137">
+        <v>1137</v>
+      </c>
+      <c r="B137" t="s">
         <v>351</v>
       </c>
-      <c r="B137" t="str">
+      <c r="C137" t="str">
         <f t="shared" si="6"/>
         <v>'Passion Fruit (Маракуйя)'</v>
       </c>
-      <c r="K137" t="str">
+      <c r="L137" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Passion Fruit (Маракуйя)' },</v>
       </c>
-      <c r="L137" t="str">
+      <c r="M137" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Passion Fruit (Маракуйя)', name: 'Passion Fruit (Маракуйя)' },</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
-      <c r="A138" t="s">
+        <v>{id: 1137, name: 'Passion Fruit (Маракуйя)', selected: false },</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138">
+        <v>1138</v>
+      </c>
+      <c r="B138" t="s">
         <v>352</v>
       </c>
-      <c r="B138" t="str">
+      <c r="C138" t="str">
         <f t="shared" si="6"/>
         <v>'Peach (Персик)'</v>
       </c>
-      <c r="K138" t="str">
+      <c r="L138" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Peach (Персик)' },</v>
       </c>
-      <c r="L138" t="str">
+      <c r="M138" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Peach (Персик)', name: 'Peach (Персик)' },</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
-      <c r="A139" t="s">
+        <v>{id: 1138, name: 'Peach (Персик)', selected: false },</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139">
+        <v>1139</v>
+      </c>
+      <c r="B139" t="s">
         <v>353</v>
       </c>
-      <c r="B139" t="str">
+      <c r="C139" t="str">
         <f t="shared" si="6"/>
         <v>'Peach (Juicy) (Сок персика)'</v>
       </c>
-      <c r="K139" t="str">
+      <c r="L139" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Peach (Juicy) (Сок персика)' },</v>
       </c>
-      <c r="L139" t="str">
+      <c r="M139" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Peach (Juicy) (Сок персика)', name: 'Peach (Juicy) (Сок персика)' },</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
-      <c r="A140" t="s">
+        <v>{id: 1139, name: 'Peach (Juicy) (Сок персика)', selected: false },</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140">
+        <v>1140</v>
+      </c>
+      <c r="B140" t="s">
         <v>354</v>
       </c>
-      <c r="B140" t="str">
+      <c r="C140" t="str">
         <f t="shared" si="6"/>
         <v>'Peanut Butter (Арахисовое масло)'</v>
       </c>
-      <c r="K140" t="str">
+      <c r="L140" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Peanut Butter (Арахисовое масло)' },</v>
       </c>
-      <c r="L140" t="str">
+      <c r="M140" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Peanut Butter (Арахисовое масло)', name: 'Peanut Butter (Арахисовое масло)' },</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" t="s">
+        <v>{id: 1140, name: 'Peanut Butter (Арахисовое масло)', selected: false },</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141">
+        <v>1141</v>
+      </c>
+      <c r="B141" t="s">
         <v>355</v>
       </c>
-      <c r="B141" t="str">
+      <c r="C141" t="str">
         <f t="shared" si="6"/>
         <v>'Pear (Груша)'</v>
       </c>
-      <c r="K141" t="str">
+      <c r="L141" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pear (Груша)' },</v>
       </c>
-      <c r="L141" t="str">
+      <c r="M141" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pear (Груша)', name: 'Pear (Груша)' },</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
-      <c r="A142" t="s">
+        <v>{id: 1141, name: 'Pear (Груша)', selected: false },</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142">
+        <v>1142</v>
+      </c>
+      <c r="B142" t="s">
         <v>356</v>
       </c>
-      <c r="B142" t="str">
+      <c r="C142" t="str">
         <f t="shared" si="6"/>
         <v>'Pear Candy (Грушевые конфеты)'</v>
       </c>
-      <c r="K142" t="str">
+      <c r="L142" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pear Candy (Грушевые конфеты)' },</v>
       </c>
-      <c r="L142" t="str">
+      <c r="M142" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pear Candy (Грушевые конфеты)', name: 'Pear Candy (Грушевые конфеты)' },</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
-      <c r="A143" t="s">
+        <v>{id: 1142, name: 'Pear Candy (Грушевые конфеты)', selected: false },</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143">
+        <v>1143</v>
+      </c>
+      <c r="B143" t="s">
         <v>357</v>
       </c>
-      <c r="B143" t="str">
+      <c r="C143" t="str">
         <f t="shared" si="6"/>
         <v>'Pecan (Орех Пекан)'</v>
       </c>
-      <c r="K143" t="str">
+      <c r="L143" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pecan (Орех Пекан)' },</v>
       </c>
-      <c r="L143" t="str">
+      <c r="M143" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pecan (Орех Пекан)', name: 'Pecan (Орех Пекан)' },</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
-      <c r="A144" t="s">
+        <v>{id: 1143, name: 'Pecan (Орех Пекан)', selected: false },</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144">
+        <v>1144</v>
+      </c>
+      <c r="B144" t="s">
         <v>358</v>
       </c>
-      <c r="B144" t="str">
+      <c r="C144" t="str">
         <f t="shared" si="6"/>
         <v>'Peppermint (Перечная мята)'</v>
       </c>
-      <c r="K144" t="str">
+      <c r="L144" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Peppermint (Перечная мята)' },</v>
       </c>
-      <c r="L144" t="str">
+      <c r="M144" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Peppermint (Перечная мята)', name: 'Peppermint (Перечная мята)' },</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
-      <c r="A145" t="s">
+        <v>{id: 1144, name: 'Peppermint (Перечная мята)', selected: false },</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145">
+        <v>1145</v>
+      </c>
+      <c r="B145" t="s">
         <v>359</v>
       </c>
-      <c r="B145" t="str">
+      <c r="C145" t="str">
         <f t="shared" si="6"/>
         <v>'Pie Crust (Корочка пирога)'</v>
       </c>
-      <c r="K145" t="str">
+      <c r="L145" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pie Crust (Корочка пирога)' },</v>
       </c>
-      <c r="L145" t="str">
+      <c r="M145" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pie Crust (Корочка пирога)', name: 'Pie Crust (Корочка пирога)' },</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
-      <c r="A146" t="s">
+        <v>{id: 1145, name: 'Pie Crust (Корочка пирога)', selected: false },</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146">
+        <v>1146</v>
+      </c>
+      <c r="B146" t="s">
         <v>161</v>
       </c>
-      <c r="B146" t="str">
+      <c r="C146" t="str">
         <f t="shared" si="6"/>
         <v>'Pina Colada (Пина Колада)'</v>
       </c>
-      <c r="K146" t="str">
+      <c r="L146" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pina Colada (Пина Колада)' },</v>
       </c>
-      <c r="L146" t="str">
+      <c r="M146" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pina Colada (Пина Колада)', name: 'Pina Colada (Пина Колада)' },</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
-      <c r="A147" t="s">
+        <v>{id: 1146, name: 'Pina Colada (Пина Колада)', selected: false },</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147">
+        <v>1147</v>
+      </c>
+      <c r="B147" t="s">
         <v>360</v>
       </c>
-      <c r="B147" t="str">
+      <c r="C147" t="str">
         <f t="shared" si="6"/>
         <v>'Pineapple (Ананас)'</v>
       </c>
-      <c r="K147" t="str">
+      <c r="L147" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pineapple (Ананас)' },</v>
       </c>
-      <c r="L147" t="str">
+      <c r="M147" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pineapple (Ананас)', name: 'Pineapple (Ананас)' },</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
-      <c r="A148" t="s">
+        <v>{id: 1147, name: 'Pineapple (Ананас)', selected: false },</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
+      <c r="A148">
+        <v>1148</v>
+      </c>
+      <c r="B148" t="s">
         <v>361</v>
       </c>
-      <c r="B148" t="str">
+      <c r="C148" t="str">
         <f t="shared" si="6"/>
         <v>'Pistachio (Фисташки)'</v>
       </c>
-      <c r="K148" t="str">
+      <c r="L148" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pistachio (Фисташки)' },</v>
       </c>
-      <c r="L148" t="str">
+      <c r="M148" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pistachio (Фисташки)', name: 'Pistachio (Фисташки)' },</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
-      <c r="A149" t="s">
+        <v>{id: 1148, name: 'Pistachio (Фисташки)', selected: false },</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149">
+        <v>1149</v>
+      </c>
+      <c r="B149" t="s">
         <v>362</v>
       </c>
-      <c r="B149" t="str">
+      <c r="C149" t="str">
         <f t="shared" si="6"/>
         <v>'Plum (Слива)'</v>
       </c>
-      <c r="K149" t="str">
+      <c r="L149" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Plum (Слива)' },</v>
       </c>
-      <c r="L149" t="str">
+      <c r="M149" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Plum (Слива)', name: 'Plum (Слива)' },</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
-      <c r="A150" t="s">
+        <v>{id: 1149, name: 'Plum (Слива)', selected: false },</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150">
+        <v>1150</v>
+      </c>
+      <c r="B150" t="s">
         <v>363</v>
       </c>
-      <c r="B150" t="str">
+      <c r="C150" t="str">
         <f t="shared" si="6"/>
         <v>'Pomegranate (Гранат)'</v>
       </c>
-      <c r="K150" t="str">
+      <c r="L150" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pomegranate (Гранат)' },</v>
       </c>
-      <c r="L150" t="str">
+      <c r="M150" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pomegranate (Гранат)', name: 'Pomegranate (Гранат)' },</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
-      <c r="A151" t="s">
+        <v>{id: 1150, name: 'Pomegranate (Гранат)', selected: false },</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151">
+        <v>1151</v>
+      </c>
+      <c r="B151" t="s">
         <v>364</v>
       </c>
-      <c r="B151" t="str">
+      <c r="C151" t="str">
         <f t="shared" si="6"/>
         <v>'Pomegranate Deluxe (Гранат (делюкс))'</v>
       </c>
-      <c r="K151" t="str">
+      <c r="L151" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Pomegranate Deluxe (Гранат (делюкс))' },</v>
       </c>
-      <c r="L151" t="str">
+      <c r="M151" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Pomegranate Deluxe (Гранат (делюкс))', name: 'Pomegranate Deluxe (Гранат (делюкс))' },</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
-      <c r="A152" t="s">
+        <v>{id: 1151, name: 'Pomegranate Deluxe (Гранат (делюкс))', selected: false },</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152">
+        <v>1152</v>
+      </c>
+      <c r="B152" t="s">
         <v>167</v>
       </c>
-      <c r="B152" t="str">
+      <c r="C152" t="str">
         <f t="shared" si="6"/>
         <v>'Popcorn (Попкорн)'</v>
       </c>
-      <c r="K152" t="str">
+      <c r="L152" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Popcorn (Попкорн)' },</v>
       </c>
-      <c r="L152" t="str">
+      <c r="M152" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Popcorn (Попкорн)', name: 'Popcorn (Попкорн)' },</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="A153" t="s">
+        <v>{id: 1152, name: 'Popcorn (Попкорн)', selected: false },</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153">
+        <v>1153</v>
+      </c>
+      <c r="B153" t="s">
         <v>365</v>
       </c>
-      <c r="B153" t="str">
+      <c r="C153" t="str">
         <f t="shared" si="6"/>
         <v>'Quince (Айва)'</v>
       </c>
-      <c r="K153" t="str">
+      <c r="L153" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Quince (Айва)' },</v>
       </c>
-      <c r="L153" t="str">
+      <c r="M153" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Quince (Айва)', name: 'Quince (Айва)' },</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="A154" t="s">
+        <v>{id: 1153, name: 'Quince (Айва)', selected: false },</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154">
+        <v>1154</v>
+      </c>
+      <c r="B154" t="s">
         <v>366</v>
       </c>
-      <c r="B154" t="str">
+      <c r="C154" t="str">
         <f t="shared" si="6"/>
         <v>'Rainbow Drops (Скиттлс)'</v>
       </c>
-      <c r="K154" t="str">
+      <c r="L154" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Rainbow Drops (Скиттлс)' },</v>
       </c>
-      <c r="L154" t="str">
+      <c r="M154" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Rainbow Drops (Скиттлс)', name: 'Rainbow Drops (Скиттлс)' },</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="A155" t="s">
+        <v>{id: 1154, name: 'Rainbow Drops (Скиттлс)', selected: false },</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155">
+        <v>1155</v>
+      </c>
+      <c r="B155" t="s">
         <v>367</v>
       </c>
-      <c r="B155" t="str">
+      <c r="C155" t="str">
         <f t="shared" si="6"/>
         <v>'Raisin (Изюм)'</v>
       </c>
-      <c r="K155" t="str">
+      <c r="L155" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Raisin (Изюм)' },</v>
       </c>
-      <c r="L155" t="str">
+      <c r="M155" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Raisin (Изюм)', name: 'Raisin (Изюм)' },</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="A156" t="s">
+        <v>{id: 1155, name: 'Raisin (Изюм)', selected: false },</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156">
+        <v>1156</v>
+      </c>
+      <c r="B156" t="s">
         <v>368</v>
       </c>
-      <c r="B156" t="str">
+      <c r="C156" t="str">
         <f t="shared" si="6"/>
         <v>'Raspberry (Малина)'</v>
       </c>
-      <c r="K156" t="str">
+      <c r="L156" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Raspberry (Малина)' },</v>
       </c>
-      <c r="L156" t="str">
+      <c r="M156" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Raspberry (Малина)', name: 'Raspberry (Малина)' },</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="A157" t="s">
+        <v>{id: 1156, name: 'Raspberry (Малина)', selected: false },</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157">
+        <v>1157</v>
+      </c>
+      <c r="B157" t="s">
         <v>369</v>
       </c>
-      <c r="B157" t="str">
+      <c r="C157" t="str">
         <f t="shared" si="6"/>
         <v>'Raspberry (Sweet) (Сладкая малина)'</v>
       </c>
-      <c r="K157" t="str">
+      <c r="L157" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Raspberry (Sweet) (Сладкая малина)' },</v>
       </c>
-      <c r="L157" t="str">
+      <c r="M157" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Raspberry (Sweet) (Сладкая малина)', name: 'Raspberry (Sweet) (Сладкая малина)' },</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="A158" t="s">
+        <v>{id: 1157, name: 'Raspberry (Sweet) (Сладкая малина)', selected: false },</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158">
+        <v>1158</v>
+      </c>
+      <c r="B158" t="s">
         <v>370</v>
       </c>
-      <c r="B158" t="str">
+      <c r="C158" t="str">
         <f t="shared" si="6"/>
         <v>'Red Licorice (Красная лакрица)'</v>
       </c>
-      <c r="K158" t="str">
+      <c r="L158" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Red Licorice (Красная лакрица)' },</v>
       </c>
-      <c r="L158" t="str">
+      <c r="M158" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Red Licorice (Красная лакрица)', name: 'Red Licorice (Красная лакрица)' },</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="A159" t="s">
+        <v>{id: 1158, name: 'Red Licorice (Красная лакрица)', selected: false },</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159">
+        <v>1159</v>
+      </c>
+      <c r="B159" t="s">
         <v>371</v>
       </c>
-      <c r="B159" t="str">
+      <c r="C159" t="str">
         <f t="shared" si="6"/>
         <v>'Red Type II Blend (Ред тайп (табак))'</v>
       </c>
-      <c r="K159" t="str">
+      <c r="L159" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Red Type II Blend (Ред тайп (табак))' },</v>
       </c>
-      <c r="L159" t="str">
+      <c r="M159" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Red Type II Blend (Ред тайп (табак))', name: 'Red Type II Blend (Ред тайп (табак))' },</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="A160" t="s">
+        <v>{id: 1159, name: 'Red Type II Blend (Ред тайп (табак))', selected: false },</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160">
+        <v>1160</v>
+      </c>
+      <c r="B160" t="s">
         <v>372</v>
       </c>
-      <c r="B160" t="str">
+      <c r="C160" t="str">
         <f t="shared" si="6"/>
         <v>'Rice Crunchies (Рисовые хлопья)'</v>
       </c>
-      <c r="K160" t="str">
+      <c r="L160" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Rice Crunchies (Рисовые хлопья)' },</v>
       </c>
-      <c r="L160" t="str">
+      <c r="M160" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Rice Crunchies (Рисовые хлопья)', name: 'Rice Crunchies (Рисовые хлопья)' },</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="A161" t="s">
+        <v>{id: 1160, name: 'Rice Crunchies (Рисовые хлопья)', selected: false },</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161">
+        <v>1161</v>
+      </c>
+      <c r="B161" t="s">
         <v>373</v>
       </c>
-      <c r="B161" t="str">
+      <c r="C161" t="str">
         <f t="shared" si="6"/>
         <v>'Ripe Banana (Спелый банан)'</v>
       </c>
-      <c r="K161" t="str">
+      <c r="L161" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Ripe Banana (Спелый банан)' },</v>
       </c>
-      <c r="L161" t="str">
+      <c r="M161" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Ripe Banana (Спелый банан)', name: 'Ripe Banana (Спелый банан)' },</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
-      <c r="A162" t="s">
+        <v>{id: 1161, name: 'Ripe Banana (Спелый банан)', selected: false },</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
+      <c r="A162">
+        <v>1162</v>
+      </c>
+      <c r="B162" t="s">
         <v>374</v>
       </c>
-      <c r="B162" t="str">
+      <c r="C162" t="str">
         <f t="shared" si="6"/>
         <v>'Root beer flavor (pg) (Рутбир)'</v>
       </c>
-      <c r="K162" t="str">
+      <c r="L162" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Root beer flavor (pg) (Рутбир)' },</v>
       </c>
-      <c r="L162" t="str">
+      <c r="M162" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Root beer flavor (pg) (Рутбир)', name: 'Root beer flavor (pg) (Рутбир)' },</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
-      <c r="A163" t="s">
+        <v>{id: 1162, name: 'Root beer flavor (pg) (Рутбир)', selected: false },</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163">
+        <v>1163</v>
+      </c>
+      <c r="B163" t="s">
         <v>375</v>
       </c>
-      <c r="B163" t="str">
+      <c r="C163" t="str">
         <f t="shared" si="6"/>
         <v>'Root Beer Float (Рутбир Float)'</v>
       </c>
-      <c r="K163" t="str">
+      <c r="L163" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Root Beer Float (Рутбир Float)' },</v>
       </c>
-      <c r="L163" t="str">
+      <c r="M163" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Root Beer Float (Рутбир Float)', name: 'Root Beer Float (Рутбир Float)' },</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
-      <c r="A164" t="s">
+        <v>{id: 1163, name: 'Root Beer Float (Рутбир Float)', selected: false },</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164">
+        <v>1164</v>
+      </c>
+      <c r="B164" t="s">
         <v>376</v>
       </c>
-      <c r="B164" t="str">
+      <c r="C164" t="str">
         <f t="shared" si="6"/>
         <v>'RY4 Double (RY4 (Табак (двойной)))'</v>
       </c>
-      <c r="K164" t="str">
+      <c r="L164" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'RY4 Double (RY4 (Табак (двойной)))' },</v>
       </c>
-      <c r="L164" t="str">
+      <c r="M164" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'RY4 Double (RY4 (Табак (двойной)))', name: 'RY4 Double (RY4 (Табак (двойной)))' },</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
-      <c r="A165" t="s">
+        <v>{id: 1164, name: 'RY4 Double (RY4 (Табак (двойной)))', selected: false },</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165">
+        <v>1165</v>
+      </c>
+      <c r="B165" t="s">
         <v>377</v>
       </c>
-      <c r="B165" t="str">
+      <c r="C165" t="str">
         <f t="shared" si="6"/>
         <v>'RY4 Type (RY4 (Табак))'</v>
       </c>
-      <c r="K165" t="str">
+      <c r="L165" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'RY4 Type (RY4 (Табак))' },</v>
       </c>
-      <c r="L165" t="str">
+      <c r="M165" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'RY4 Type (RY4 (Табак))', name: 'RY4 Type (RY4 (Табак))' },</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
-      <c r="A166" t="s">
+        <v>{id: 1165, name: 'RY4 Type (RY4 (Табак))', selected: false },</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166">
+        <v>1166</v>
+      </c>
+      <c r="B166" t="s">
         <v>378</v>
       </c>
-      <c r="B166" t="str">
+      <c r="C166" t="str">
         <f t="shared" si="6"/>
         <v>'Slim Mint Cookie (Мятное печенье)'</v>
       </c>
-      <c r="K166" t="str">
+      <c r="L166" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Slim Mint Cookie (Мятное печенье)' },</v>
       </c>
-      <c r="L166" t="str">
+      <c r="M166" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Slim Mint Cookie (Мятное печенье)', name: 'Slim Mint Cookie (Мятное печенье)' },</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
-      <c r="A167" t="s">
+        <v>{id: 1166, name: 'Slim Mint Cookie (Мятное печенье)', selected: false },</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167">
+        <v>1167</v>
+      </c>
+      <c r="B167" t="s">
         <v>379</v>
       </c>
-      <c r="B167" t="str">
+      <c r="C167" t="str">
         <f t="shared" si="6"/>
         <v>'Smooth (Smooth)'</v>
       </c>
-      <c r="K167" t="str">
+      <c r="L167" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Smooth (Smooth)' },</v>
       </c>
-      <c r="L167" t="str">
+      <c r="M167" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Smooth (Smooth)', name: 'Smooth (Smooth)' },</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
-      <c r="A168" t="s">
+        <v>{id: 1167, name: 'Smooth (Smooth)', selected: false },</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168">
+        <v>1168</v>
+      </c>
+      <c r="B168" t="s">
         <v>380</v>
       </c>
-      <c r="B168" t="str">
+      <c r="C168" t="str">
         <f t="shared" si="6"/>
         <v>'Sour (Кислый)'</v>
       </c>
-      <c r="K168" t="str">
+      <c r="L168" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Sour (Кислый)' },</v>
       </c>
-      <c r="L168" t="str">
+      <c r="M168" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Sour (Кислый)', name: 'Sour (Кислый)' },</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12">
-      <c r="A169" t="s">
+        <v>{id: 1168, name: 'Sour (Кислый)', selected: false },</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
+      <c r="A169">
+        <v>1169</v>
+      </c>
+      <c r="B169" t="s">
         <v>381</v>
       </c>
-      <c r="B169" t="str">
+      <c r="C169" t="str">
         <f t="shared" si="6"/>
         <v>'Spearmint (Мята колосистая)'</v>
       </c>
-      <c r="K169" t="str">
+      <c r="L169" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Spearmint (Мята колосистая)' },</v>
       </c>
-      <c r="L169" t="str">
+      <c r="M169" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Spearmint (Мята колосистая)', name: 'Spearmint (Мята колосистая)' },</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12">
-      <c r="A170" t="s">
+        <v>{id: 1169, name: 'Spearmint (Мята колосистая)', selected: false },</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170">
+        <v>1170</v>
+      </c>
+      <c r="B170" t="s">
         <v>382</v>
       </c>
-      <c r="B170" t="str">
+      <c r="C170" t="str">
         <f t="shared" si="6"/>
         <v>'Strawberries and Cream (Клубника со сливками)'</v>
       </c>
-      <c r="K170" t="str">
+      <c r="L170" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Strawberries and Cream (Клубника со сливками)' },</v>
       </c>
-      <c r="L170" t="str">
+      <c r="M170" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Strawberries and Cream (Клубника со сливками)', name: 'Strawberries and Cream (Клубника со сливками)' },</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12">
-      <c r="A171" t="s">
+        <v>{id: 1170, name: 'Strawberries and Cream (Клубника со сливками)', selected: false },</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171">
+        <v>1171</v>
+      </c>
+      <c r="B171" t="s">
         <v>383</v>
       </c>
-      <c r="B171" t="str">
+      <c r="C171" t="str">
         <f t="shared" si="6"/>
         <v>'Strawberry (Клубника)'</v>
       </c>
-      <c r="K171" t="str">
+      <c r="L171" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Strawberry (Клубника)' },</v>
       </c>
-      <c r="L171" t="str">
+      <c r="M171" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Strawberry (Клубника)', name: 'Strawberry (Клубника)' },</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12">
-      <c r="A172" t="s">
+        <v>{id: 1171, name: 'Strawberry (Клубника)', selected: false },</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172">
+        <v>1172</v>
+      </c>
+      <c r="B172" t="s">
         <v>384</v>
       </c>
-      <c r="B172" t="str">
+      <c r="C172" t="str">
         <f t="shared" si="6"/>
         <v>'Strawberry (Ripe) (Спелая клубника)'</v>
       </c>
-      <c r="K172" t="str">
+      <c r="L172" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Strawberry (Ripe) (Спелая клубника)' },</v>
       </c>
-      <c r="L172" t="str">
+      <c r="M172" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Strawberry (Ripe) (Спелая клубника)', name: 'Strawberry (Ripe) (Спелая клубника)' },</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12">
-      <c r="A173" t="s">
+        <v>{id: 1172, name: 'Strawberry (Ripe) (Спелая клубника)', selected: false },</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173">
+        <v>1173</v>
+      </c>
+      <c r="B173" t="s">
         <v>385</v>
       </c>
-      <c r="B173" t="str">
+      <c r="C173" t="str">
         <f t="shared" si="6"/>
         <v>'Swedish Gummy (Шведский гамми)'</v>
       </c>
-      <c r="K173" t="str">
+      <c r="L173" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Swedish Gummy (Шведский гамми)' },</v>
       </c>
-      <c r="L173" t="str">
+      <c r="M173" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Swedish Gummy (Шведский гамми)', name: 'Swedish Gummy (Шведский гамми)' },</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12">
-      <c r="A174" t="s">
+        <v>{id: 1173, name: 'Swedish Gummy (Шведский гамми)', selected: false },</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174">
+        <v>1174</v>
+      </c>
+      <c r="B174" t="s">
         <v>386</v>
       </c>
-      <c r="B174" t="str">
+      <c r="C174" t="str">
         <f t="shared" si="6"/>
         <v>'Sweet and Tart (Кофеты Sweet Tart (Холодок))'</v>
       </c>
-      <c r="K174" t="str">
+      <c r="L174" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Sweet and Tart (Кофеты Sweet Tart (Холодок))' },</v>
       </c>
-      <c r="L174" t="str">
+      <c r="M174" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Sweet and Tart (Кофеты Sweet Tart (Холодок))', name: 'Sweet and Tart (Кофеты Sweet Tart (Холодок))' },</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
-      <c r="A175" t="s">
+        <v>{id: 1174, name: 'Sweet and Tart (Кофеты Sweet Tart (Холодок))', selected: false },</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175">
+        <v>1175</v>
+      </c>
+      <c r="B175" t="s">
         <v>387</v>
       </c>
-      <c r="B175" t="str">
+      <c r="C175" t="str">
         <f t="shared" si="6"/>
         <v>'Sweet Cream (Сладкий крем)'</v>
       </c>
-      <c r="K175" t="str">
+      <c r="L175" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Sweet Cream (Сладкий крем)' },</v>
       </c>
-      <c r="L175" t="str">
+      <c r="M175" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Sweet Cream (Сладкий крем)', name: 'Sweet Cream (Сладкий крем)' },</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12">
-      <c r="A176" t="s">
+        <v>{id: 1175, name: 'Sweet Cream (Сладкий крем)', selected: false },</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
+      <c r="A176">
+        <v>1176</v>
+      </c>
+      <c r="B176" t="s">
         <v>388</v>
       </c>
-      <c r="B176" t="str">
+      <c r="C176" t="str">
         <f t="shared" si="6"/>
         <v>'Sweet Tea (Сладкий чай)'</v>
       </c>
-      <c r="K176" t="str">
+      <c r="L176" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Sweet Tea (Сладкий чай)' },</v>
       </c>
-      <c r="L176" t="str">
+      <c r="M176" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Sweet Tea (Сладкий чай)', name: 'Sweet Tea (Сладкий чай)' },</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="A177" t="s">
+        <v>{id: 1176, name: 'Sweet Tea (Сладкий чай)', selected: false },</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177">
+        <v>1177</v>
+      </c>
+      <c r="B177" t="s">
         <v>389</v>
       </c>
-      <c r="B177" t="str">
+      <c r="C177" t="str">
         <f t="shared" si="6"/>
         <v>'Sweetener (Подсластитель)'</v>
       </c>
-      <c r="K177" t="str">
+      <c r="L177" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Sweetener (Подсластитель)' },</v>
       </c>
-      <c r="L177" t="str">
+      <c r="M177" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Sweetener (Подсластитель)', name: 'Sweetener (Подсластитель)' },</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="A178" t="s">
+        <v>{id: 1177, name: 'Sweetener (Подсластитель)', selected: false },</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178">
+        <v>1178</v>
+      </c>
+      <c r="B178" t="s">
         <v>390</v>
       </c>
-      <c r="B178" t="str">
+      <c r="C178" t="str">
         <f t="shared" si="6"/>
         <v>'Tiramisu (Тирамису)'</v>
       </c>
-      <c r="K178" t="str">
+      <c r="L178" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Tiramisu (Тирамису)' },</v>
       </c>
-      <c r="L178" t="str">
+      <c r="M178" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Tiramisu (Тирамису)', name: 'Tiramisu (Тирамису)' },</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="A179" t="s">
+        <v>{id: 1178, name: 'Tiramisu (Тирамису)', selected: false },</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179">
+        <v>1179</v>
+      </c>
+      <c r="B179" t="s">
         <v>391</v>
       </c>
-      <c r="B179" t="str">
+      <c r="C179" t="str">
         <f t="shared" si="6"/>
         <v>'Toasted Almond (Жаренный миндаль)'</v>
       </c>
-      <c r="K179" t="str">
+      <c r="L179" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Toasted Almond (Жаренный миндаль)' },</v>
       </c>
-      <c r="L179" t="str">
+      <c r="M179" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Toasted Almond (Жаренный миндаль)', name: 'Toasted Almond (Жаренный миндаль)' },</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="A180" t="s">
+        <v>{id: 1179, name: 'Toasted Almond (Жаренный миндаль)', selected: false },</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180">
+        <v>1180</v>
+      </c>
+      <c r="B180" t="s">
         <v>392</v>
       </c>
-      <c r="B180" t="str">
+      <c r="C180" t="str">
         <f t="shared" si="6"/>
         <v>'Toasted Marshmallow (Поджареный зефир)'</v>
       </c>
-      <c r="K180" t="str">
+      <c r="L180" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Toasted Marshmallow (Поджареный зефир)' },</v>
       </c>
-      <c r="L180" t="str">
+      <c r="M180" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Toasted Marshmallow (Поджареный зефир)', name: 'Toasted Marshmallow (Поджареный зефир)' },</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12">
-      <c r="A181" t="s">
+        <v>{id: 1180, name: 'Toasted Marshmallow (Поджареный зефир)', selected: false },</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181">
+        <v>1181</v>
+      </c>
+      <c r="B181" t="s">
         <v>393</v>
       </c>
-      <c r="B181" t="str">
+      <c r="C181" t="str">
         <f t="shared" si="6"/>
         <v>'Tutti-Frutti (Тутти-фрутти)'</v>
       </c>
-      <c r="K181" t="str">
+      <c r="L181" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Tutti-Frutti (Тутти-фрутти)' },</v>
       </c>
-      <c r="L181" t="str">
+      <c r="M181" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Tutti-Frutti (Тутти-фрутти)', name: 'Tutti-Frutti (Тутти-фрутти)' },</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="A182" t="s">
+        <v>{id: 1181, name: 'Tutti-Frutti (Тутти-фрутти)', selected: false },</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182">
+        <v>1182</v>
+      </c>
+      <c r="B182" t="s">
         <v>394</v>
       </c>
-      <c r="B182" t="str">
+      <c r="C182" t="str">
         <f t="shared" si="6"/>
         <v>'Vanilla (Bourbon) (Ваниль бурбон)'</v>
       </c>
-      <c r="K182" t="str">
+      <c r="L182" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Vanilla (Bourbon) (Ваниль бурбон)' },</v>
       </c>
-      <c r="L182" t="str">
+      <c r="M182" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Vanilla (Bourbon) (Ваниль бурбон)', name: 'Vanilla (Bourbon) (Ваниль бурбон)' },</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="A183" t="s">
+        <v>{id: 1182, name: 'Vanilla (Bourbon) (Ваниль бурбон)', selected: false },</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183">
+        <v>1183</v>
+      </c>
+      <c r="B183" t="s">
         <v>395</v>
       </c>
-      <c r="B183" t="str">
+      <c r="C183" t="str">
         <f t="shared" si="6"/>
         <v>'Vanilla Bean Gelato (Ванильный заварной крем)'</v>
       </c>
-      <c r="K183" t="str">
+      <c r="L183" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Vanilla Bean Gelato (Ванильный заварной крем)' },</v>
       </c>
-      <c r="L183" t="str">
+      <c r="M183" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Vanilla Bean Gelato (Ванильный заварной крем)', name: 'Vanilla Bean Gelato (Ванильный заварной крем)' },</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="A184" t="s">
+        <v>{id: 1183, name: 'Vanilla Bean Gelato (Ванильный заварной крем)', selected: false },</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184">
+        <v>1184</v>
+      </c>
+      <c r="B184" t="s">
         <v>396</v>
       </c>
-      <c r="B184" t="str">
+      <c r="C184" t="str">
         <f t="shared" si="6"/>
         <v>'Vanilla Bean Ice Cream (Ванильное мороженное)'</v>
       </c>
-      <c r="K184" t="str">
+      <c r="L184" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
       </c>
-      <c r="L184" t="str">
+      <c r="M184" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Vanilla Bean Ice Cream (Ванильное мороженное)', name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="A185" t="s">
+        <v>{id: 1184, name: 'Vanilla Bean Ice Cream (Ванильное мороженное)', selected: false },</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185">
+        <v>1185</v>
+      </c>
+      <c r="B185" t="s">
         <v>397</v>
       </c>
-      <c r="B185" t="str">
+      <c r="C185" t="str">
         <f t="shared" si="6"/>
         <v>'Vanilla Cupcake (Ванильный пирог)'</v>
       </c>
-      <c r="K185" t="str">
+      <c r="L185" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Vanilla Cupcake (Ванильный пирог)' },</v>
       </c>
-      <c r="L185" t="str">
+      <c r="M185" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Vanilla Cupcake (Ванильный пирог)', name: 'Vanilla Cupcake (Ванильный пирог)' },</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12">
-      <c r="A186" t="s">
+        <v>{id: 1185, name: 'Vanilla Cupcake (Ванильный пирог)', selected: false },</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186">
+        <v>1186</v>
+      </c>
+      <c r="B186" t="s">
         <v>398</v>
       </c>
-      <c r="B186" t="str">
+      <c r="C186" t="str">
         <f t="shared" si="6"/>
         <v>'Vanilla Custard (Ванильный кастард)'</v>
       </c>
-      <c r="K186" t="str">
+      <c r="L186" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Vanilla Custard (Ванильный кастард)' },</v>
       </c>
-      <c r="L186" t="str">
+      <c r="M186" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Vanilla Custard (Ванильный кастард)', name: 'Vanilla Custard (Ванильный кастард)' },</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" t="s">
+        <v>{id: 1186, name: 'Vanilla Custard (Ванильный кастард)', selected: false },</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187">
+        <v>1187</v>
+      </c>
+      <c r="B187" t="s">
         <v>399</v>
       </c>
-      <c r="B187" t="str">
+      <c r="C187" t="str">
         <f t="shared" si="6"/>
         <v>'Vanilla Swirl (Ванильный рожок)'</v>
       </c>
-      <c r="K187" t="str">
+      <c r="L187" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Vanilla Swirl (Ванильный рожок)' },</v>
       </c>
-      <c r="L187" t="str">
+      <c r="M187" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Vanilla Swirl (Ванильный рожок)', name: 'Vanilla Swirl (Ванильный рожок)' },</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12">
-      <c r="A188" t="s">
+        <v>{id: 1187, name: 'Vanilla Swirl (Ванильный рожок)', selected: false },</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188">
+        <v>1188</v>
+      </c>
+      <c r="B188" t="s">
         <v>400</v>
       </c>
-      <c r="B188" t="str">
+      <c r="C188" t="str">
         <f t="shared" si="6"/>
         <v>'Vanillin 10 (PG) (Ванилин)'</v>
       </c>
-      <c r="K188" t="str">
+      <c r="L188" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Vanillin 10 (PG) (Ванилин)' },</v>
       </c>
-      <c r="L188" t="str">
+      <c r="M188" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Vanillin 10 (PG) (Ванилин)', name: 'Vanillin 10 (PG) (Ванилин)' },</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="A189" t="s">
+        <v>{id: 1188, name: 'Vanillin 10 (PG) (Ванилин)', selected: false },</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189">
+        <v>1189</v>
+      </c>
+      <c r="B189" t="s">
         <v>401</v>
       </c>
-      <c r="B189" t="str">
+      <c r="C189" t="str">
         <f t="shared" si="6"/>
         <v>'Waffle (Вафли)'</v>
       </c>
-      <c r="K189" t="str">
+      <c r="L189" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Waffle (Вафли)' },</v>
       </c>
-      <c r="L189" t="str">
+      <c r="M189" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Waffle (Вафли)', name: 'Waffle (Вафли)' },</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="A190" t="s">
+        <v>{id: 1189, name: 'Waffle (Вафли)', selected: false },</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
+      <c r="A190">
+        <v>1190</v>
+      </c>
+      <c r="B190" t="s">
         <v>211</v>
       </c>
-      <c r="B190" t="str">
+      <c r="C190" t="str">
         <f t="shared" si="6"/>
         <v>'Waffle (Belgian) (Бельгийские вафли)'</v>
       </c>
-      <c r="K190" t="str">
+      <c r="L190" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Waffle (Belgian) (Бельгийские вафли)' },</v>
       </c>
-      <c r="L190" t="str">
+      <c r="M190" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Waffle (Belgian) (Бельгийские вафли)', name: 'Waffle (Belgian) (Бельгийские вафли)' },</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="A191" t="s">
+        <v>{id: 1190, name: 'Waffle (Belgian) (Бельгийские вафли)', selected: false },</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
+      <c r="A191">
+        <v>1191</v>
+      </c>
+      <c r="B191" t="s">
         <v>402</v>
       </c>
-      <c r="B191" t="str">
+      <c r="C191" t="str">
         <f t="shared" si="6"/>
         <v>'Watermelon (Арбуз)'</v>
       </c>
-      <c r="K191" t="str">
+      <c r="L191" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Watermelon (Арбуз)' },</v>
       </c>
-      <c r="L191" t="str">
+      <c r="M191" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Watermelon (Арбуз)', name: 'Watermelon (Арбуз)' },</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="A192" t="s">
+        <v>{id: 1191, name: 'Watermelon (Арбуз)', selected: false },</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
+      <c r="A192">
+        <v>1192</v>
+      </c>
+      <c r="B192" t="s">
         <v>403</v>
       </c>
-      <c r="B192" t="str">
+      <c r="C192" t="str">
         <f t="shared" si="6"/>
         <v>'Watermelon Candy (Арбузные леденцы)'</v>
       </c>
-      <c r="K192" t="str">
+      <c r="L192" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Watermelon Candy (Арбузные леденцы)' },</v>
       </c>
-      <c r="L192" t="str">
+      <c r="M192" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Watermelon Candy (Арбузные леденцы)', name: 'Watermelon Candy (Арбузные леденцы)' },</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
-      <c r="A193" t="s">
+        <v>{id: 1192, name: 'Watermelon Candy (Арбузные леденцы)', selected: false },</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
+      <c r="A193">
+        <v>1193</v>
+      </c>
+      <c r="B193" t="s">
         <v>404</v>
       </c>
-      <c r="B193" t="str">
+      <c r="C193" t="str">
         <f t="shared" si="6"/>
         <v>'Western (Вестерн)'</v>
       </c>
-      <c r="K193" t="str">
+      <c r="L193" t="str">
         <f t="shared" si="7"/>
         <v>{name: 'Western (Вестерн)' },</v>
       </c>
-      <c r="L193" t="str">
+      <c r="M193" t="str">
         <f t="shared" si="8"/>
-        <v>{id: 'Western (Вестерн)', name: 'Western (Вестерн)' },</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="A194" t="s">
+        <v>{id: 1193, name: 'Western (Вестерн)', selected: false },</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
+      <c r="A194">
+        <v>1194</v>
+      </c>
+      <c r="B194" t="s">
         <v>405</v>
       </c>
-      <c r="B194" t="str">
-        <f t="shared" ref="B194:B197" si="9">CONCATENATE("'",A194,"'")</f>
+      <c r="C194" t="str">
+        <f t="shared" ref="C194:C197" si="9">CONCATENATE("'",B194,"'")</f>
         <v>'Whipped Cream (Взбитые сливки)'</v>
       </c>
-      <c r="K194" t="str">
-        <f t="shared" ref="K194:K197" si="10">CONCATENATE($F$1,$H$1,B194,$J$1)</f>
+      <c r="L194" t="str">
+        <f t="shared" ref="L194:L197" si="10">CONCATENATE($G$1,$I$1,C194,$K$1)</f>
         <v>{name: 'Whipped Cream (Взбитые сливки)' },</v>
       </c>
-      <c r="L194" t="str">
-        <f t="shared" ref="L194:L197" si="11">CONCATENATE($F$1,$G$1,B194,$H$2,$H$1,B194,$J$1)</f>
-        <v>{id: 'Whipped Cream (Взбитые сливки)', name: 'Whipped Cream (Взбитые сливки)' },</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
-      <c r="A195" t="s">
+      <c r="M194" t="str">
+        <f t="shared" ref="M194:M197" si="11">CONCATENATE($G$1,$H$1,A194,$I$2,$I$1,C194,$I$2,$J$1,$K$1)</f>
+        <v>{id: 1194, name: 'Whipped Cream (Взбитые сливки)', selected: false },</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
+      <c r="A195">
+        <v>1195</v>
+      </c>
+      <c r="B195" t="s">
         <v>406</v>
       </c>
-      <c r="B195" t="str">
+      <c r="C195" t="str">
         <f t="shared" si="9"/>
         <v>'White Chocolate (Белый шоколад)'</v>
       </c>
-      <c r="K195" t="str">
+      <c r="L195" t="str">
         <f t="shared" si="10"/>
         <v>{name: 'White Chocolate (Белый шоколад)' },</v>
       </c>
-      <c r="L195" t="str">
+      <c r="M195" t="str">
         <f t="shared" si="11"/>
-        <v>{id: 'White Chocolate (Белый шоколад)', name: 'White Chocolate (Белый шоколад)' },</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12">
-      <c r="A196" t="s">
+        <v>{id: 1195, name: 'White Chocolate (Белый шоколад)', selected: false },</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
+      <c r="A196">
+        <v>1196</v>
+      </c>
+      <c r="B196" t="s">
         <v>407</v>
       </c>
-      <c r="B196" t="str">
+      <c r="C196" t="str">
         <f t="shared" si="9"/>
         <v>'Wintergreen (Мятные кофеты)'</v>
       </c>
-      <c r="K196" t="str">
+      <c r="L196" t="str">
         <f t="shared" si="10"/>
         <v>{name: 'Wintergreen (Мятные кофеты)' },</v>
       </c>
-      <c r="L196" t="str">
+      <c r="M196" t="str">
         <f t="shared" si="11"/>
-        <v>{id: 'Wintergreen (Мятные кофеты)', name: 'Wintergreen (Мятные кофеты)' },</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12">
-      <c r="A197" t="s">
+        <v>{id: 1196, name: 'Wintergreen (Мятные кофеты)', selected: false },</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
+      <c r="A197">
+        <v>1197</v>
+      </c>
+      <c r="B197" t="s">
         <v>219</v>
       </c>
-      <c r="B197" t="str">
+      <c r="C197" t="str">
         <f t="shared" si="9"/>
         <v>'Yam (Ямс)'</v>
       </c>
-      <c r="K197" t="str">
+      <c r="L197" t="str">
         <f t="shared" si="10"/>
         <v>{name: 'Yam (Ямс)' },</v>
       </c>
-      <c r="L197" t="str">
+      <c r="M197" t="str">
         <f t="shared" si="11"/>
-        <v>{id: 'Yam (Ямс)', name: 'Yam (Ямс)' },</v>
+        <v>{id: 1197, name: 'Yam (Ямс)', selected: false },</v>
       </c>
     </row>
   </sheetData>
@@ -12075,1631 +12669,1913 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>2001</v>
+      </c>
+      <c r="B1" t="s">
         <v>486</v>
       </c>
-      <c r="B1" t="str">
-        <f>CONCATENATE("'",A1,"'")</f>
+      <c r="C1" t="str">
+        <f>CONCATENATE("'",B1,"'")</f>
         <v>'Apple Pie (Яблочный пирог)'</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>408</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>410</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>412</v>
       </c>
-      <c r="K1" t="str">
-        <f>CONCATENATE($F$1,$H$1,B1,$J$1)</f>
+      <c r="L1" t="str">
+        <f>CONCATENATE($G$1,$I$1,C1,$K$1)</f>
         <v>{name: 'Apple Pie (Яблочный пирог)' },</v>
       </c>
-      <c r="L1" t="str">
-        <f>CONCATENATE($F$1,$G$1,B1,$H$2,$H$1,B1,$J$1)</f>
-        <v>{id: 'Apple Pie (Яблочный пирог)', name: 'Apple Pie (Яблочный пирог)' },</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="M1" t="str">
+        <f>CONCATENATE($G$1,$H$1,A1,$I$2,$I$1,C1,$K$1)</f>
+        <v>{id: 2001, name: 'Apple Pie (Яблочный пирог)' },</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>2002</v>
+      </c>
+      <c r="B2" t="s">
         <v>414</v>
       </c>
-      <c r="B2" t="str">
-        <f>CONCATENATE("'",A2,"'")</f>
+      <c r="C2" t="str">
+        <f>CONCATENATE("'",B2,"'")</f>
         <v>'Apple Pie V2 (Яблочный пирог 2)'</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>413</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2" si="0">CONCATENATE($F$1,$H$1,B2,$J$1)</f>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2" si="0">CONCATENATE($G$1,$I$1,C2,$K$1)</f>
         <v>{name: 'Apple Pie V2 (Яблочный пирог 2)' },</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2" si="1">CONCATENATE($F$1,$G$1,B2,$H$2,$H$1,B2,$J$1)</f>
-        <v>{id: 'Apple Pie V2 (Яблочный пирог 2)', name: 'Apple Pie V2 (Яблочный пирог 2)' },</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M65" si="1">CONCATENATE($G$1,$H$1,A2,$I$2,$I$1,C2,$K$1)</f>
+        <v>{id: 2002, name: 'Apple Pie V2 (Яблочный пирог 2)' },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3" t="s">
         <v>487</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="2">CONCATENATE("'",A3,"'")</f>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="2">CONCATENATE("'",B3,"'")</f>
         <v>'Apricot (Абрикос)'</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="3">CONCATENATE($F$1,$H$1,B3,$J$1)</f>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="3">CONCATENATE($G$1,$I$1,C3,$K$1)</f>
         <v>{name: 'Apricot (Абрикос)' },</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L66" si="4">CONCATENATE($F$1,$G$1,B3,$H$2,$H$1,B3,$J$1)</f>
-        <v>{id: 'Apricot (Абрикос)', name: 'Apricot (Абрикос)' },</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="M3" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2003, name: 'Apricot (Абрикос)' },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
         <v>415</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="2"/>
         <v>'Banana (Банан)'</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Banana (Банан)' },</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Banana (Банан)', name: 'Banana (Банан)' },</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2004, name: 'Banana (Банан)' },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>2005</v>
+      </c>
+      <c r="B5" t="s">
         <v>488</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="2"/>
         <v>'Banana Split (Банановый сплит)'</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Banana Split (Банановый сплит)' },</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Banana Split (Банановый сплит)', name: 'Banana Split (Банановый сплит)' },</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2005, name: 'Banana Split (Банановый сплит)' },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2006</v>
+      </c>
+      <c r="B6" t="s">
         <v>416</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="2"/>
         <v>'Bavarian Cream (Баварский крем)'</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Bavarian Cream (Баварский крем)' },</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Bavarian Cream (Баварский крем)', name: 'Bavarian Cream (Баварский крем)' },</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2006, name: 'Bavarian Cream (Баварский крем)' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>2007</v>
+      </c>
+      <c r="B7" t="s">
         <v>417</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="2"/>
         <v>'Blackberry (Ежевика)'</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Blackberry (Ежевика)' },</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Blackberry (Ежевика)', name: 'Blackberry (Ежевика)' },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2007, name: 'Blackberry (Ежевика)' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8" t="s">
         <v>489</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="2"/>
         <v>'Blueberry (Черника)'</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Blueberry (Черника)' },</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Blueberry (Черника)', name: 'Blueberry (Черника)' },</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2008, name: 'Blueberry (Черника)' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9" t="s">
         <v>490</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="2"/>
         <v>'Blueberry Cinnamon Crumble (Черничный пирог с корицей)'</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)' },</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)', name: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)' },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2009, name: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)' },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>2010</v>
+      </c>
+      <c r="B10" t="s">
         <v>491</v>
       </c>
-      <c r="B10" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="2"/>
         <v>'Blueberry Jam (Черничное варенье)'</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Blueberry Jam (Черничное варенье)' },</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Blueberry Jam (Черничное варенье)', name: 'Blueberry Jam (Черничное варенье)' },</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2010, name: 'Blueberry Jam (Черничное варенье)' },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>2011</v>
+      </c>
+      <c r="B11" t="s">
         <v>492</v>
       </c>
-      <c r="B11" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="2"/>
         <v>'Blueberry Pomegranate (Черника и гранат)'</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Blueberry Pomegranate (Черника и гранат)' },</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Blueberry Pomegranate (Черника и гранат)', name: 'Blueberry Pomegranate (Черника и гранат)' },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2011, name: 'Blueberry Pomegranate (Черника и гранат)' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>2012</v>
+      </c>
+      <c r="B12" t="s">
         <v>493</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="2"/>
         <v>'Boston Cream Pie V2 (Бостонский кремовый пирог)'</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Boston Cream Pie V2 (Бостонский кремовый пирог)' },</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Boston Cream Pie V2 (Бостонский кремовый пирог)', name: 'Boston Cream Pie V2 (Бостонский кремовый пирог)' },</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2012, name: 'Boston Cream Pie V2 (Бостонский кремовый пирог)' },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13" t="s">
         <v>418</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="2"/>
         <v>'Bubble Gum (Жвачка)'</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Bubble Gum (Жвачка)' },</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Bubble Gum (Жвачка)', name: 'Bubble Gum (Жвачка)' },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2013, name: 'Bubble Gum (Жвачка)' },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" t="s">
         <v>419</v>
       </c>
-      <c r="B14" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="2"/>
         <v>'Butter Cream (Крем)'</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Butter Cream (Крем)' },</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Butter Cream (Крем)', name: 'Butter Cream (Крем)' },</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2014, name: 'Butter Cream (Крем)' },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15" t="s">
         <v>420</v>
       </c>
-      <c r="B15" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="2"/>
         <v>'Cake Batter (Тесто для кекса)'</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cake Batter (Тесто для кекса)' },</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cake Batter (Тесто для кекса)', name: 'Cake Batter (Тесто для кекса)' },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2015, name: 'Cake Batter (Тесто для кекса)' },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16" t="s">
         <v>421</v>
       </c>
-      <c r="B16" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="2"/>
         <v>'Cantaloupe (Мускусная дыня)'</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cantaloupe (Мускусная дыня)' },</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cantaloupe (Мускусная дыня)', name: 'Cantaloupe (Мускусная дыня)' },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2016, name: 'Cantaloupe (Мускусная дыня)' },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17" t="s">
         <v>422</v>
       </c>
-      <c r="B17" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="2"/>
         <v>'Cappuccino (Каппучино)'</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cappuccino (Каппучино)' },</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cappuccino (Каппучино)', name: 'Cappuccino (Каппучино)' },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2017, name: 'Cappuccino (Каппучино)' },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>2018</v>
+      </c>
+      <c r="B18" t="s">
         <v>423</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="2"/>
         <v>'Caramel V2 (Карамель 2)'</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Caramel V2 (Карамель 2)' },</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Caramel V2 (Карамель 2)', name: 'Caramel V2 (Карамель 2)' },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2018, name: 'Caramel V2 (Карамель 2)' },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
         <v>424</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="2"/>
         <v>'Cereal 27 (Кукурузные хлопья)'</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cereal 27 (Кукурузные хлопья)' },</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cereal 27 (Кукурузные хлопья)', name: 'Cereal 27 (Кукурузные хлопья)' },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2019, name: 'Cereal 27 (Кукурузные хлопья)' },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20" t="s">
         <v>425</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="2"/>
         <v>'Cherry (Wild) w/Stevia (Дикая вишня и стевия)'</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)' },</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)', name: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)' },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2020, name: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)' },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="s">
         <v>426</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
         <v>'Chocolate Coconut Almond (Шоколад кокос миндаль)'</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Chocolate Coconut Almond (Шоколад кокос миндаль)' },</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Chocolate Coconut Almond (Шоколад кокос миндаль)', name: 'Chocolate Coconut Almond (Шоколад кокос миндаль)' },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2021, name: 'Chocolate Coconut Almond (Шоколад кокос миндаль)' },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>2022</v>
+      </c>
+      <c r="B22" t="s">
         <v>427</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="2"/>
         <v>'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)'</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)' },</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)', name: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)' },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2022, name: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)' },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>2023</v>
+      </c>
+      <c r="B23" t="s">
         <v>428</v>
       </c>
-      <c r="B23" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="2"/>
         <v>'Chocolate Raspberry (Малина с шоколадом)'</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Chocolate Raspberry (Малина с шоколадом)' },</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Chocolate Raspberry (Малина с шоколадом)', name: 'Chocolate Raspberry (Малина с шоколадом)' },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2023, name: 'Chocolate Raspberry (Малина с шоколадом)' },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>2024</v>
+      </c>
+      <c r="B24" t="s">
         <v>494</v>
       </c>
-      <c r="B24" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="2"/>
         <v>'Churro (Чуррос)'</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Churro (Чуррос)' },</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Churro (Чуррос)', name: 'Churro (Чуррос)' },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2024, name: 'Churro (Чуррос)' },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>2025</v>
+      </c>
+      <c r="B25" t="s">
         <v>495</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="2"/>
         <v>'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)'</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)' },</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)', name: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)' },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2025, name: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)' },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>2026</v>
+      </c>
+      <c r="B26" t="s">
         <v>496</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="2"/>
         <v>'Coconut (Кокос)'</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Coconut (Кокос)' },</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Coconut (Кокос)', name: 'Coconut (Кокос)' },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2026, name: 'Coconut (Кокос)' },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>2027</v>
+      </c>
+      <c r="B27" t="s">
         <v>429</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="2"/>
         <v>'Cola (Кола)'</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cola (Кола)' },</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cola (Кола)', name: 'Cola (Кола)' },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2027, name: 'Cola (Кола)' },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>2028</v>
+      </c>
+      <c r="B28" t="s">
         <v>430</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="2"/>
         <v>'Concord Grape w/Stevia (Конкорд и стевия)'</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Concord Grape w/Stevia (Конкорд и стевия)' },</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Concord Grape w/Stevia (Конкорд и стевия)', name: 'Concord Grape w/Stevia (Конкорд и стевия)' },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2028, name: 'Concord Grape w/Stevia (Конкорд и стевия)' },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>2029</v>
+      </c>
+      <c r="B29" t="s">
         <v>431</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="2"/>
         <v>'Cool Mint (Мятная свежесть)'</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cool Mint (Мятная свежесть)' },</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cool Mint (Мятная свежесть)', name: 'Cool Mint (Мятная свежесть)' },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2029, name: 'Cool Mint (Мятная свежесть)' },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>2030</v>
+      </c>
+      <c r="B30" t="s">
         <v>432</v>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="2"/>
         <v>'Cranberry (Клюква)'</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Cranberry (Клюква)' },</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Cranberry (Клюква)', name: 'Cranberry (Клюква)' },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2030, name: 'Cranberry (Клюква)' },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>2031</v>
+      </c>
+      <c r="B31" t="s">
         <v>433</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="2"/>
         <v>'Creamy Yogurt (Кремовый йогурт)'</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Creamy Yogurt (Кремовый йогурт)' },</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Creamy Yogurt (Кремовый йогурт)', name: 'Creamy Yogurt (Кремовый йогурт)' },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2031, name: 'Creamy Yogurt (Кремовый йогурт)' },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>2032</v>
+      </c>
+      <c r="B32" t="s">
         <v>434</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="2"/>
         <v>'Double Apple (Двойное яблоко)'</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Double Apple (Двойное яблоко)' },</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Double Apple (Двойное яблоко)', name: 'Double Apple (Двойное яблоко)' },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2032, name: 'Double Apple (Двойное яблоко)' },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>2033</v>
+      </c>
+      <c r="B33" t="s">
         <v>435</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="2"/>
         <v>'Double Watermelon (Двойной арбуз)'</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Double Watermelon (Двойной арбуз)' },</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Double Watermelon (Двойной арбуз)', name: 'Double Watermelon (Двойной арбуз)' },</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2033, name: 'Double Watermelon (Двойной арбуз)' },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>2034</v>
+      </c>
+      <c r="B34" t="s">
         <v>436</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="2"/>
         <v>'Dragon Fruit (Драгонфрут)'</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Dragon Fruit (Драгонфрут)' },</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Dragon Fruit (Драгонфрут)', name: 'Dragon Fruit (Драгонфрут)' },</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2034, name: 'Dragon Fruit (Драгонфрут)' },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>2035</v>
+      </c>
+      <c r="B35" t="s">
         <v>497</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="2"/>
         <v>'French Vanilla (Французкая ваниль)'</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'French Vanilla (Французкая ваниль)' },</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'French Vanilla (Французкая ваниль)', name: 'French Vanilla (Французкая ваниль)' },</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2035, name: 'French Vanilla (Французкая ваниль)' },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>2036</v>
+      </c>
+      <c r="B36" t="s">
         <v>437</v>
       </c>
-      <c r="B36" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="2"/>
         <v>'Funnel Cake (Торт "Муравейник")'</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Funnel Cake (Торт "Муравейник")' },</v>
       </c>
-      <c r="L36" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Funnel Cake (Торт "Муравейник")', name: 'Funnel Cake (Торт "Муравейник")' },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2036, name: 'Funnel Cake (Торт "Муравейник")' },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>2037</v>
+      </c>
+      <c r="B37" t="s">
         <v>498</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="2"/>
         <v>'Glazed Doughnut (Глазированный пончик)'</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Glazed Doughnut (Глазированный пончик)' },</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Glazed Doughnut (Глазированный пончик)', name: 'Glazed Doughnut (Глазированный пончик)' },</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2037, name: 'Glazed Doughnut (Глазированный пончик)' },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>2038</v>
+      </c>
+      <c r="B38" t="s">
         <v>438</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="2"/>
         <v>'Golden Pineapple (Золотой ананас)'</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Golden Pineapple (Золотой ананас)' },</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Golden Pineapple (Золотой ананас)', name: 'Golden Pineapple (Золотой ананас)' },</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2038, name: 'Golden Pineapple (Золотой ананас)' },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>2039</v>
+      </c>
+      <c r="B39" t="s">
         <v>439</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="2"/>
         <v>'Graham Cracker V2 (Грэхем крекер 2)'</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Graham Cracker V2 (Грэхем крекер 2)' },</v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Graham Cracker V2 (Грэхем крекер 2)', name: 'Graham Cracker V2 (Грэхем крекер 2)' },</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" t="s">
+      <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2039, name: 'Graham Cracker V2 (Грэхем крекер 2)' },</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>2040</v>
+      </c>
+      <c r="B40" t="s">
         <v>440</v>
       </c>
-      <c r="B40" t="str">
+      <c r="C40" t="str">
         <f t="shared" si="2"/>
         <v>'Grapefruit (Грейпфрут)'</v>
       </c>
-      <c r="K40" t="str">
+      <c r="L40" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Grapefruit (Грейпфрут)' },</v>
       </c>
-      <c r="L40" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Grapefruit (Грейпфрут)', name: 'Grapefruit (Грейпфрут)' },</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="s">
+      <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2040, name: 'Grapefruit (Грейпфрут)' },</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>2041</v>
+      </c>
+      <c r="B41" t="s">
         <v>441</v>
       </c>
-      <c r="B41" t="str">
+      <c r="C41" t="str">
         <f t="shared" si="2"/>
         <v>'Greek Yogurt (Греческий йогурт)'</v>
       </c>
-      <c r="K41" t="str">
+      <c r="L41" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Greek Yogurt (Греческий йогурт)' },</v>
       </c>
-      <c r="L41" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Greek Yogurt (Греческий йогурт)', name: 'Greek Yogurt (Греческий йогурт)' },</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2041, name: 'Greek Yogurt (Греческий йогурт)' },</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>2042</v>
+      </c>
+      <c r="B42" t="s">
         <v>442</v>
       </c>
-      <c r="B42" t="str">
+      <c r="C42" t="str">
         <f t="shared" si="2"/>
         <v>'Green Apple (Зеленое яблоко)'</v>
       </c>
-      <c r="K42" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Green Apple (Зеленое яблоко)' },</v>
       </c>
-      <c r="L42" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Green Apple (Зеленое яблоко)', name: 'Green Apple (Зеленое яблоко)' },</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="s">
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2042, name: 'Green Apple (Зеленое яблоко)' },</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>2043</v>
+      </c>
+      <c r="B43" t="s">
         <v>443</v>
       </c>
-      <c r="B43" t="str">
+      <c r="C43" t="str">
         <f t="shared" si="2"/>
         <v>'Grenadine (Гренадин)'</v>
       </c>
-      <c r="K43" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Grenadine (Гренадин)' },</v>
       </c>
-      <c r="L43" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Grenadine (Гренадин)', name: 'Grenadine (Гренадин)' },</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" t="s">
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2043, name: 'Grenadine (Гренадин)' },</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>2044</v>
+      </c>
+      <c r="B44" t="s">
         <v>444</v>
       </c>
-      <c r="B44" t="str">
+      <c r="C44" t="str">
         <f t="shared" si="2"/>
         <v>'Harvest Berry (Лесные ягоды)'</v>
       </c>
-      <c r="K44" t="str">
+      <c r="L44" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Harvest Berry (Лесные ягоды)' },</v>
       </c>
-      <c r="L44" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Harvest Berry (Лесные ягоды)', name: 'Harvest Berry (Лесные ягоды)' },</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="s">
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2044, name: 'Harvest Berry (Лесные ягоды)' },</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>2045</v>
+      </c>
+      <c r="B45" t="s">
         <v>445</v>
       </c>
-      <c r="B45" t="str">
+      <c r="C45" t="str">
         <f t="shared" si="2"/>
         <v>'Hazelnut (Лесной орех)'</v>
       </c>
-      <c r="K45" t="str">
+      <c r="L45" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Hazelnut (Лесной орех)' },</v>
       </c>
-      <c r="L45" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Hazelnut (Лесной орех)', name: 'Hazelnut (Лесной орех)' },</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" t="s">
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2045, name: 'Hazelnut (Лесной орех)' },</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>2046</v>
+      </c>
+      <c r="B46" t="s">
         <v>446</v>
       </c>
-      <c r="B46" t="str">
+      <c r="C46" t="str">
         <f t="shared" si="2"/>
         <v>'Honeydew Melon (Медовая дыня)'</v>
       </c>
-      <c r="K46" t="str">
+      <c r="L46" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Honeydew Melon (Медовая дыня)' },</v>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Honeydew Melon (Медовая дыня)', name: 'Honeydew Melon (Медовая дыня)' },</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" t="s">
+      <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2046, name: 'Honeydew Melon (Медовая дыня)' },</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>2047</v>
+      </c>
+      <c r="B47" t="s">
         <v>499</v>
       </c>
-      <c r="B47" t="str">
+      <c r="C47" t="str">
         <f t="shared" si="2"/>
         <v>'Italian Lemon Sicily (Сицилийский лимон)'</v>
       </c>
-      <c r="K47" t="str">
+      <c r="L47" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Italian Lemon Sicily (Сицилийский лимон)' },</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Italian Lemon Sicily (Сицилийский лимон)', name: 'Italian Lemon Sicily (Сицилийский лимон)' },</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" t="s">
+      <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2047, name: 'Italian Lemon Sicily (Сицилийский лимон)' },</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>2048</v>
+      </c>
+      <c r="B48" t="s">
         <v>500</v>
       </c>
-      <c r="B48" t="str">
+      <c r="C48" t="str">
         <f t="shared" si="2"/>
         <v>'Jelly Candy (Конфеты из желе)'</v>
       </c>
-      <c r="K48" t="str">
+      <c r="L48" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Jelly Candy (Конфеты из желе)' },</v>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Jelly Candy (Конфеты из желе)', name: 'Jelly Candy (Конфеты из желе)' },</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" t="s">
+      <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2048, name: 'Jelly Candy (Конфеты из желе)' },</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>2049</v>
+      </c>
+      <c r="B49" t="s">
         <v>447</v>
       </c>
-      <c r="B49" t="str">
+      <c r="C49" t="str">
         <f t="shared" si="2"/>
         <v>'Jelly Candys (Конфеты желе)'</v>
       </c>
-      <c r="K49" t="str">
+      <c r="L49" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Jelly Candys (Конфеты желе)' },</v>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Jelly Candys (Конфеты желе)', name: 'Jelly Candys (Конфеты желе)' },</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" t="s">
+      <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2049, name: 'Jelly Candys (Конфеты желе)' },</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>2050</v>
+      </c>
+      <c r="B50" t="s">
         <v>448</v>
       </c>
-      <c r="B50" t="str">
+      <c r="C50" t="str">
         <f t="shared" si="2"/>
         <v>'Juicy Lemon (Сок лимона)'</v>
       </c>
-      <c r="K50" t="str">
+      <c r="L50" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Juicy Lemon (Сок лимона)' },</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Juicy Lemon (Сок лимона)', name: 'Juicy Lemon (Сок лимона)' },</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" t="s">
+      <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2050, name: 'Juicy Lemon (Сок лимона)' },</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>2051</v>
+      </c>
+      <c r="B51" t="s">
         <v>449</v>
       </c>
-      <c r="B51" t="str">
+      <c r="C51" t="str">
         <f t="shared" si="2"/>
         <v>'Juicy Orange (Сочный апельсин)'</v>
       </c>
-      <c r="K51" t="str">
+      <c r="L51" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Juicy Orange (Сочный апельсин)' },</v>
       </c>
-      <c r="L51" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Juicy Orange (Сочный апельсин)', name: 'Juicy Orange (Сочный апельсин)' },</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" t="s">
+      <c r="M51" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2051, name: 'Juicy Orange (Сочный апельсин)' },</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>2052</v>
+      </c>
+      <c r="B52" t="s">
         <v>450</v>
       </c>
-      <c r="B52" t="str">
+      <c r="C52" t="str">
         <f t="shared" si="2"/>
         <v>'Juicy Peach (Сочный персик)'</v>
       </c>
-      <c r="K52" t="str">
+      <c r="L52" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Juicy Peach (Сочный персик)' },</v>
       </c>
-      <c r="L52" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Juicy Peach (Сочный персик)', name: 'Juicy Peach (Сочный персик)' },</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" t="s">
+      <c r="M52" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2052, name: 'Juicy Peach (Сочный персик)' },</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>2053</v>
+      </c>
+      <c r="B53" t="s">
         <v>451</v>
       </c>
-      <c r="B53" t="str">
+      <c r="C53" t="str">
         <f t="shared" si="2"/>
         <v>'Kiwi (Киви)'</v>
       </c>
-      <c r="K53" t="str">
+      <c r="L53" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Kiwi (Киви)' },</v>
       </c>
-      <c r="L53" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Kiwi (Киви)', name: 'Kiwi (Киви)' },</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="s">
+      <c r="M53" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2053, name: 'Kiwi (Киви)' },</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>2054</v>
+      </c>
+      <c r="B54" t="s">
         <v>452</v>
       </c>
-      <c r="B54" t="str">
+      <c r="C54" t="str">
         <f t="shared" si="2"/>
         <v>'Kiwi Strawberry (Киви и клубника)'</v>
       </c>
-      <c r="K54" t="str">
+      <c r="L54" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Kiwi Strawberry (Киви и клубника)' },</v>
       </c>
-      <c r="L54" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Kiwi Strawberry (Киви и клубника)', name: 'Kiwi Strawberry (Киви и клубника)' },</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
+      <c r="M54" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2054, name: 'Kiwi Strawberry (Киви и клубника)' },</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>2055</v>
+      </c>
+      <c r="B55" t="s">
         <v>453</v>
       </c>
-      <c r="B55" t="str">
+      <c r="C55" t="str">
         <f t="shared" si="2"/>
         <v>'Lemon Lime (Лимон-лайм)'</v>
       </c>
-      <c r="K55" t="str">
+      <c r="L55" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Lemon Lime (Лимон-лайм)' },</v>
       </c>
-      <c r="L55" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Lemon Lime (Лимон-лайм)', name: 'Lemon Lime (Лимон-лайм)' },</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" t="s">
+      <c r="M55" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2055, name: 'Lemon Lime (Лимон-лайм)' },</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>2056</v>
+      </c>
+      <c r="B56" t="s">
         <v>501</v>
       </c>
-      <c r="B56" t="str">
+      <c r="C56" t="str">
         <f t="shared" si="2"/>
         <v>'Lemon Meringue Pie (Лимонный пирог с безе)'</v>
       </c>
-      <c r="K56" t="str">
+      <c r="L56" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Lemon Meringue Pie (Лимонный пирог с безе)' },</v>
       </c>
-      <c r="L56" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Lemon Meringue Pie (Лимонный пирог с безе)', name: 'Lemon Meringue Pie (Лимонный пирог с безе)' },</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" t="s">
+      <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2056, name: 'Lemon Meringue Pie (Лимонный пирог с безе)' },</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>2057</v>
+      </c>
+      <c r="B57" t="s">
         <v>454</v>
       </c>
-      <c r="B57" t="str">
+      <c r="C57" t="str">
         <f t="shared" si="2"/>
         <v>'Maple (Pancake Syrup) (Кленовый сироп)'</v>
       </c>
-      <c r="K57" t="str">
+      <c r="L57" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Maple (Pancake Syrup) (Кленовый сироп)' },</v>
       </c>
-      <c r="L57" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Maple (Pancake Syrup) (Кленовый сироп)', name: 'Maple (Pancake Syrup) (Кленовый сироп)' },</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" t="s">
+      <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2057, name: 'Maple (Pancake Syrup) (Кленовый сироп)' },</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>2058</v>
+      </c>
+      <c r="B58" t="s">
         <v>455</v>
       </c>
-      <c r="B58" t="str">
+      <c r="C58" t="str">
         <f t="shared" si="2"/>
         <v>'Milk Chocolate Toffee (Шоколаный тоффи)'</v>
       </c>
-      <c r="K58" t="str">
+      <c r="L58" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Milk Chocolate Toffee (Шоколаный тоффи)' },</v>
       </c>
-      <c r="L58" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Milk Chocolate Toffee (Шоколаный тоффи)', name: 'Milk Chocolate Toffee (Шоколаный тоффи)' },</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" t="s">
+      <c r="M58" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2058, name: 'Milk Chocolate Toffee (Шоколаный тоффи)' },</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>2059</v>
+      </c>
+      <c r="B59" t="s">
         <v>502</v>
       </c>
-      <c r="B59" t="str">
+      <c r="C59" t="str">
         <f t="shared" si="2"/>
         <v>'New York Cheesecake (New York чизкейк)'</v>
       </c>
-      <c r="K59" t="str">
+      <c r="L59" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'New York Cheesecake (New York чизкейк)' },</v>
       </c>
-      <c r="L59" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'New York Cheesecake (New York чизкейк)', name: 'New York Cheesecake (New York чизкейк)' },</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" t="s">
+      <c r="M59" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2059, name: 'New York Cheesecake (New York чизкейк)' },</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>2060</v>
+      </c>
+      <c r="B60" t="s">
         <v>456</v>
       </c>
-      <c r="B60" t="str">
+      <c r="C60" t="str">
         <f t="shared" si="2"/>
         <v>'New York Cheesecake v2 (New York чизкейк v2)'</v>
       </c>
-      <c r="K60" t="str">
+      <c r="L60" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'New York Cheesecake v2 (New York чизкейк v2)' },</v>
       </c>
-      <c r="L60" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'New York Cheesecake v2 (New York чизкейк v2)', name: 'New York Cheesecake v2 (New York чизкейк v2)' },</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" t="s">
+      <c r="M60" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2060, name: 'New York Cheesecake v2 (New York чизкейк v2)' },</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>2061</v>
+      </c>
+      <c r="B61" t="s">
         <v>457</v>
       </c>
-      <c r="B61" t="str">
+      <c r="C61" t="str">
         <f t="shared" si="2"/>
         <v>'Orange Creamsicle (Апельсиновое мороженное)'</v>
       </c>
-      <c r="K61" t="str">
+      <c r="L61" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Orange Creamsicle (Апельсиновое мороженное)' },</v>
       </c>
-      <c r="L61" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Orange Creamsicle (Апельсиновое мороженное)', name: 'Orange Creamsicle (Апельсиновое мороженное)' },</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" t="s">
+      <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2061, name: 'Orange Creamsicle (Апельсиновое мороженное)' },</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <v>2062</v>
+      </c>
+      <c r="B62" t="s">
         <v>458</v>
       </c>
-      <c r="B62" t="str">
+      <c r="C62" t="str">
         <f t="shared" si="2"/>
         <v>'Orange Mango (Апельсин и манго)'</v>
       </c>
-      <c r="K62" t="str">
+      <c r="L62" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Orange Mango (Апельсин и манго)' },</v>
       </c>
-      <c r="L62" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Orange Mango (Апельсин и манго)', name: 'Orange Mango (Апельсин и манго)' },</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" t="s">
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2062, name: 'Orange Mango (Апельсин и манго)' },</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>2063</v>
+      </c>
+      <c r="B63" t="s">
         <v>459</v>
       </c>
-      <c r="B63" t="str">
+      <c r="C63" t="str">
         <f t="shared" si="2"/>
         <v>'Passion Fruit (Маракуйя)'</v>
       </c>
-      <c r="K63" t="str">
+      <c r="L63" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Passion Fruit (Маракуйя)' },</v>
       </c>
-      <c r="L63" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Passion Fruit (Маракуйя)', name: 'Passion Fruit (Маракуйя)' },</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" t="s">
+      <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2063, name: 'Passion Fruit (Маракуйя)' },</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>2064</v>
+      </c>
+      <c r="B64" t="s">
         <v>460</v>
       </c>
-      <c r="B64" t="str">
+      <c r="C64" t="str">
         <f t="shared" si="2"/>
         <v>'Peach w/Stevia (Персик и стевия)'</v>
       </c>
-      <c r="K64" t="str">
+      <c r="L64" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Peach w/Stevia (Персик и стевия)' },</v>
       </c>
-      <c r="L64" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Peach w/Stevia (Персик и стевия)', name: 'Peach w/Stevia (Персик и стевия)' },</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" t="s">
+      <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2064, name: 'Peach w/Stevia (Персик и стевия)' },</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>2065</v>
+      </c>
+      <c r="B65" t="s">
         <v>461</v>
       </c>
-      <c r="B65" t="str">
+      <c r="C65" t="str">
         <f t="shared" si="2"/>
         <v>'Peaches and Cream (Персики в крему)'</v>
       </c>
-      <c r="K65" t="str">
+      <c r="L65" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Peaches and Cream (Персики в крему)' },</v>
       </c>
-      <c r="L65" t="str">
-        <f t="shared" si="4"/>
-        <v>{id: 'Peaches and Cream (Персики в крему)', name: 'Peaches and Cream (Персики в крему)' },</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" t="s">
+      <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v>{id: 2065, name: 'Peaches and Cream (Персики в крему)' },</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>2066</v>
+      </c>
+      <c r="B66" t="s">
         <v>462</v>
       </c>
-      <c r="B66" t="str">
+      <c r="C66" t="str">
         <f t="shared" si="2"/>
         <v>'Peaches and Cream v2 (Персики в крему v2)'</v>
       </c>
-      <c r="K66" t="str">
+      <c r="L66" t="str">
         <f t="shared" si="3"/>
         <v>{name: 'Peaches and Cream v2 (Персики в крему v2)' },</v>
       </c>
-      <c r="L66" t="str">
+      <c r="M66" t="str">
+        <f t="shared" ref="M66:M94" si="4">CONCATENATE($G$1,$H$1,A66,$I$2,$I$1,C66,$K$1)</f>
+        <v>{id: 2066, name: 'Peaches and Cream v2 (Персики в крему v2)' },</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>2067</v>
+      </c>
+      <c r="B67" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C94" si="5">CONCATENATE("'",B67,"'")</f>
+        <v>'Peanut Butter V2 (Арахисовое масло (версия 2))'</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L94" si="6">CONCATENATE($G$1,$I$1,C67,$K$1)</f>
+        <v>{name: 'Peanut Butter V2 (Арахисовое масло (версия 2))' },</v>
+      </c>
+      <c r="M67" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 'Peaches and Cream v2 (Персики в крему v2)', name: 'Peaches and Cream v2 (Персики в крему v2)' },</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" t="s">
-        <v>463</v>
-      </c>
-      <c r="B67" t="str">
-        <f t="shared" ref="B67:B94" si="5">CONCATENATE("'",A67,"'")</f>
-        <v>'Peanut Butter V2 (Арахисовое масло (версия 2))'</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" ref="K67:K94" si="6">CONCATENATE($F$1,$H$1,B67,$J$1)</f>
-        <v>{name: 'Peanut Butter V2 (Арахисовое масло (версия 2))' },</v>
-      </c>
-      <c r="L67" t="str">
-        <f t="shared" ref="L67:L94" si="7">CONCATENATE($F$1,$G$1,B67,$H$2,$H$1,B67,$J$1)</f>
-        <v>{id: 'Peanut Butter V2 (Арахисовое масло (версия 2))', name: 'Peanut Butter V2 (Арахисовое масло (версия 2))' },</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" t="s">
+        <v>{id: 2067, name: 'Peanut Butter V2 (Арахисовое масло (версия 2))' },</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>2068</v>
+      </c>
+      <c r="B68" t="s">
         <v>464</v>
       </c>
-      <c r="B68" t="str">
+      <c r="C68" t="str">
         <f t="shared" si="5"/>
         <v>'Pear Flavor (Груша)'</v>
       </c>
-      <c r="K68" t="str">
+      <c r="L68" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Pear Flavor (Груша)' },</v>
       </c>
-      <c r="L68" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Pear Flavor (Груша)', name: 'Pear Flavor (Груша)' },</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" t="s">
+      <c r="M68" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2068, name: 'Pear Flavor (Груша)' },</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>2069</v>
+      </c>
+      <c r="B69" t="s">
         <v>465</v>
       </c>
-      <c r="B69" t="str">
+      <c r="C69" t="str">
         <f t="shared" si="5"/>
         <v>'Pink Lemonades (Лимонад)'</v>
       </c>
-      <c r="K69" t="str">
+      <c r="L69" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Pink Lemonades (Лимонад)' },</v>
       </c>
-      <c r="L69" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Pink Lemonades (Лимонад)', name: 'Pink Lemonades (Лимонад)' },</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" t="s">
+      <c r="M69" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2069, name: 'Pink Lemonades (Лимонад)' },</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>2070</v>
+      </c>
+      <c r="B70" t="s">
         <v>466</v>
       </c>
-      <c r="B70" t="str">
+      <c r="C70" t="str">
         <f t="shared" si="5"/>
         <v>'Pomegranate V2 (Гранат 2)'</v>
       </c>
-      <c r="K70" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Pomegranate V2 (Гранат 2)' },</v>
       </c>
-      <c r="L70" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Pomegranate V2 (Гранат 2)', name: 'Pomegranate V2 (Гранат 2)' },</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" t="s">
+      <c r="M70" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2070, name: 'Pomegranate V2 (Гранат 2)' },</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>2071</v>
+      </c>
+      <c r="B71" t="s">
         <v>467</v>
       </c>
-      <c r="B71" t="str">
+      <c r="C71" t="str">
         <f t="shared" si="5"/>
         <v>'Raspberry (Малина)'</v>
       </c>
-      <c r="K71" t="str">
+      <c r="L71" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Raspberry (Малина)' },</v>
       </c>
-      <c r="L71" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Raspberry (Малина)', name: 'Raspberry (Малина)' },</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" t="s">
+      <c r="M71" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2071, name: 'Raspberry (Малина)' },</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>2072</v>
+      </c>
+      <c r="B72" t="s">
         <v>468</v>
       </c>
-      <c r="B72" t="str">
+      <c r="C72" t="str">
         <f t="shared" si="5"/>
         <v>'Raspberry V2 (Малина 2)'</v>
       </c>
-      <c r="K72" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Raspberry V2 (Малина 2)' },</v>
       </c>
-      <c r="L72" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Raspberry V2 (Малина 2)', name: 'Raspberry V2 (Малина 2)' },</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" t="s">
+      <c r="M72" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2072, name: 'Raspberry V2 (Малина 2)' },</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>2073</v>
+      </c>
+      <c r="B73" t="s">
         <v>503</v>
       </c>
-      <c r="B73" t="str">
+      <c r="C73" t="str">
         <f t="shared" si="5"/>
         <v>'Simply Vanilla (Ваниль)'</v>
       </c>
-      <c r="K73" t="str">
+      <c r="L73" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Simply Vanilla (Ваниль)' },</v>
       </c>
-      <c r="L73" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Simply Vanilla (Ваниль)', name: 'Simply Vanilla (Ваниль)' },</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" t="s">
+      <c r="M73" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2073, name: 'Simply Vanilla (Ваниль)' },</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>2074</v>
+      </c>
+      <c r="B74" t="s">
         <v>469</v>
       </c>
-      <c r="B74" t="str">
+      <c r="C74" t="str">
         <f t="shared" si="5"/>
         <v>'Strawberries and Cream ( Клубника в сливках)'</v>
       </c>
-      <c r="K74" t="str">
+      <c r="L74" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Strawberries and Cream ( Клубника в сливках)' },</v>
       </c>
-      <c r="L74" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Strawberries and Cream ( Клубника в сливках)', name: 'Strawberries and Cream ( Клубника в сливках)' },</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" t="s">
+      <c r="M74" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2074, name: 'Strawberries and Cream ( Клубника в сливках)' },</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>2075</v>
+      </c>
+      <c r="B75" t="s">
         <v>470</v>
       </c>
-      <c r="B75" t="str">
+      <c r="C75" t="str">
         <f t="shared" si="5"/>
         <v>'Strawberry Taffys (Клубничный тэфи)'</v>
       </c>
-      <c r="K75" t="str">
+      <c r="L75" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Strawberry Taffys (Клубничный тэфи)' },</v>
       </c>
-      <c r="L75" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Strawberry Taffys (Клубничный тэфи)', name: 'Strawberry Taffys (Клубничный тэфи)' },</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" t="s">
+      <c r="M75" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2075, name: 'Strawberry Taffys (Клубничный тэфи)' },</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>2076</v>
+      </c>
+      <c r="B76" t="s">
         <v>471</v>
       </c>
-      <c r="B76" t="str">
+      <c r="C76" t="str">
         <f t="shared" si="5"/>
         <v>'Sugar Cookie v2 (Сахарное печенье v2)'</v>
       </c>
-      <c r="K76" t="str">
+      <c r="L76" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sugar Cookie v2 (Сахарное печенье v2)' },</v>
       </c>
-      <c r="L76" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sugar Cookie v2 (Сахарное печенье v2)', name: 'Sugar Cookie v2 (Сахарное печенье v2)' },</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" t="s">
+      <c r="M76" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2076, name: 'Sugar Cookie v2 (Сахарное печенье v2)' },</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>2077</v>
+      </c>
+      <c r="B77" t="s">
         <v>472</v>
       </c>
-      <c r="B77" t="str">
+      <c r="C77" t="str">
         <f t="shared" si="5"/>
         <v>'Super Sweet Sucralose Sweetener (Подсластитель)'</v>
       </c>
-      <c r="K77" t="str">
+      <c r="L77" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Super Sweet Sucralose Sweetener (Подсластитель)' },</v>
       </c>
-      <c r="L77" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Super Sweet Sucralose Sweetener (Подсластитель)', name: 'Super Sweet Sucralose Sweetener (Подсластитель)' },</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
+      <c r="M77" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2077, name: 'Super Sweet Sucralose Sweetener (Подсластитель)' },</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>2078</v>
+      </c>
+      <c r="B78" t="s">
         <v>473</v>
       </c>
-      <c r="B78" t="str">
+      <c r="C78" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Cream (Сладкий крем)'</v>
       </c>
-      <c r="K78" t="str">
+      <c r="L78" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Cream (Сладкий крем)' },</v>
       </c>
-      <c r="L78" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Cream (Сладкий крем)', name: 'Sweet Cream (Сладкий крем)' },</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" t="s">
+      <c r="M78" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2078, name: 'Sweet Cream (Сладкий крем)' },</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>2079</v>
+      </c>
+      <c r="B79" t="s">
         <v>474</v>
       </c>
-      <c r="B79" t="str">
+      <c r="C79" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Lychee (Сладкий личи)'</v>
       </c>
-      <c r="K79" t="str">
+      <c r="L79" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Lychee (Сладкий личи)' },</v>
       </c>
-      <c r="L79" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Lychee (Сладкий личи)', name: 'Sweet Lychee (Сладкий личи)' },</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" t="s">
+      <c r="M79" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2079, name: 'Sweet Lychee (Сладкий личи)' },</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>2080</v>
+      </c>
+      <c r="B80" t="s">
         <v>475</v>
       </c>
-      <c r="B80" t="str">
+      <c r="C80" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Mango (Сладкий манго)'</v>
       </c>
-      <c r="K80" t="str">
+      <c r="L80" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Mango (Сладкий манго)' },</v>
       </c>
-      <c r="L80" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Mango (Сладкий манго)', name: 'Sweet Mango (Сладкий манго)' },</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" t="s">
+      <c r="M80" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2080, name: 'Sweet Mango (Сладкий манго)' },</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>2081</v>
+      </c>
+      <c r="B81" t="s">
         <v>504</v>
       </c>
-      <c r="B81" t="str">
+      <c r="C81" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Strawberry (Сладкая клубника)'</v>
       </c>
-      <c r="K81" t="str">
+      <c r="L81" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Strawberry (Сладкая клубника)' },</v>
       </c>
-      <c r="L81" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Strawberry (Сладкая клубника)', name: 'Sweet Strawberry (Сладкая клубника)' },</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" t="s">
+      <c r="M81" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2081, name: 'Sweet Strawberry (Сладкая клубника)' },</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
+        <v>2082</v>
+      </c>
+      <c r="B82" t="s">
         <v>505</v>
       </c>
-      <c r="B82" t="str">
+      <c r="C82" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Strawberry RF (Сладкая клубника РФ)'</v>
       </c>
-      <c r="K82" t="str">
+      <c r="L82" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Strawberry RF (Сладкая клубника РФ)' },</v>
       </c>
-      <c r="L82" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Strawberry RF (Сладкая клубника РФ)', name: 'Sweet Strawberry RF (Сладкая клубника РФ)' },</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" t="s">
+      <c r="M82" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2082, name: 'Sweet Strawberry RF (Сладкая клубника РФ)' },</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>2083</v>
+      </c>
+      <c r="B83" t="s">
         <v>476</v>
       </c>
-      <c r="B83" t="str">
+      <c r="C83" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Tangerine (Сладкий мандарин)'</v>
       </c>
-      <c r="K83" t="str">
+      <c r="L83" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Tangerine (Сладкий мандарин)' },</v>
       </c>
-      <c r="L83" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Tangerine (Сладкий мандарин)', name: 'Sweet Tangerine (Сладкий мандарин)' },</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" t="s">
+      <c r="M83" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2083, name: 'Sweet Tangerine (Сладкий мандарин)' },</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>2084</v>
+      </c>
+      <c r="B84" t="s">
         <v>477</v>
       </c>
-      <c r="B84" t="str">
+      <c r="C84" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Tangerine Rf (Сладкий мандарин)'</v>
       </c>
-      <c r="K84" t="str">
+      <c r="L84" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Tangerine Rf (Сладкий мандарин)' },</v>
       </c>
-      <c r="L84" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Tangerine Rf (Сладкий мандарин)', name: 'Sweet Tangerine Rf (Сладкий мандарин)' },</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" t="s">
+      <c r="M84" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2084, name: 'Sweet Tangerine Rf (Сладкий мандарин)' },</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>2085</v>
+      </c>
+      <c r="B85" t="s">
         <v>478</v>
       </c>
-      <c r="B85" t="str">
+      <c r="C85" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Tea (Сладкий чай)'</v>
       </c>
-      <c r="K85" t="str">
+      <c r="L85" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Tea (Сладкий чай)' },</v>
       </c>
-      <c r="L85" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Tea (Сладкий чай)', name: 'Sweet Tea (Сладкий чай)' },</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" t="s">
+      <c r="M85" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2085, name: 'Sweet Tea (Сладкий чай)' },</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>2086</v>
+      </c>
+      <c r="B86" t="s">
         <v>479</v>
       </c>
-      <c r="B86" t="str">
+      <c r="C86" t="str">
         <f t="shared" si="5"/>
         <v>'Sweet Watermelon (Сладкий арбуз)'</v>
       </c>
-      <c r="K86" t="str">
+      <c r="L86" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Sweet Watermelon (Сладкий арбуз)' },</v>
       </c>
-      <c r="L86" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Sweet Watermelon (Сладкий арбуз)', name: 'Sweet Watermelon (Сладкий арбуз)' },</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" t="s">
+      <c r="M86" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2086, name: 'Sweet Watermelon (Сладкий арбуз)' },</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>2087</v>
+      </c>
+      <c r="B87" t="s">
         <v>480</v>
       </c>
-      <c r="B87" t="str">
+      <c r="C87" t="str">
         <f t="shared" si="5"/>
         <v>'Vanilla Bean Ice Cream (Ванильное мороженное)'</v>
       </c>
-      <c r="K87" t="str">
+      <c r="L87" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
       </c>
-      <c r="L87" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Vanilla Bean Ice Cream (Ванильное мороженное)', name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
-      <c r="A88" t="s">
+      <c r="M87" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2087, name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>2088</v>
+      </c>
+      <c r="B88" t="s">
         <v>481</v>
       </c>
-      <c r="B88" t="str">
+      <c r="C88" t="str">
         <f t="shared" si="5"/>
         <v>'Vanilla Cupcake V2 (Ванильный пирог)'</v>
       </c>
-      <c r="K88" t="str">
+      <c r="L88" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Vanilla Cupcake V2 (Ванильный пирог)' },</v>
       </c>
-      <c r="L88" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Vanilla Cupcake V2 (Ванильный пирог)', name: 'Vanilla Cupcake V2 (Ванильный пирог)' },</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="A89" t="s">
+      <c r="M88" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2088, name: 'Vanilla Cupcake V2 (Ванильный пирог)' },</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>2089</v>
+      </c>
+      <c r="B89" t="s">
         <v>482</v>
       </c>
-      <c r="B89" t="str">
+      <c r="C89" t="str">
         <f t="shared" si="5"/>
         <v>'Vanilla Custard (Ванильный кастард)'</v>
       </c>
-      <c r="K89" t="str">
+      <c r="L89" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Vanilla Custard (Ванильный кастард)' },</v>
       </c>
-      <c r="L89" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Vanilla Custard (Ванильный кастард)', name: 'Vanilla Custard (Ванильный кастард)' },</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="A90" t="s">
+      <c r="M89" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2089, name: 'Vanilla Custard (Ванильный кастард)' },</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>2090</v>
+      </c>
+      <c r="B90" t="s">
         <v>506</v>
       </c>
-      <c r="B90" t="str">
+      <c r="C90" t="str">
         <f t="shared" si="5"/>
         <v>'Vanilla Custard V2 (Ванильный крем v2)'</v>
       </c>
-      <c r="K90" t="str">
+      <c r="L90" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Vanilla Custard V2 (Ванильный крем v2)' },</v>
       </c>
-      <c r="L90" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Vanilla Custard V2 (Ванильный крем v2)', name: 'Vanilla Custard V2 (Ванильный крем v2)' },</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" t="s">
+      <c r="M90" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2090, name: 'Vanilla Custard V2 (Ванильный крем v2)' },</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>2091</v>
+      </c>
+      <c r="B91" t="s">
         <v>483</v>
       </c>
-      <c r="B91" t="str">
+      <c r="C91" t="str">
         <f t="shared" si="5"/>
         <v>'Vanilla Whipped Cream (Ванильные взбитые сливки)'</v>
       </c>
-      <c r="K91" t="str">
+      <c r="L91" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Vanilla Whipped Cream (Ванильные взбитые сливки)' },</v>
       </c>
-      <c r="L91" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Vanilla Whipped Cream (Ванильные взбитые сливки)', name: 'Vanilla Whipped Cream (Ванильные взбитые сливки)' },</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" t="s">
+      <c r="M91" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2091, name: 'Vanilla Whipped Cream (Ванильные взбитые сливки)' },</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>2092</v>
+      </c>
+      <c r="B92" t="s">
         <v>484</v>
       </c>
-      <c r="B92" t="str">
+      <c r="C92" t="str">
         <f t="shared" si="5"/>
         <v>'Waffle (Вафли)'</v>
       </c>
-      <c r="K92" t="str">
+      <c r="L92" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Waffle (Вафли)' },</v>
       </c>
-      <c r="L92" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Waffle (Вафли)', name: 'Waffle (Вафли)' },</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="A93" t="s">
+      <c r="M92" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2092, name: 'Waffle (Вафли)' },</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>2093</v>
+      </c>
+      <c r="B93" t="s">
         <v>507</v>
       </c>
-      <c r="B93" t="str">
+      <c r="C93" t="str">
         <f t="shared" si="5"/>
         <v>'Wild Cherry (Дикая вишня)'</v>
       </c>
-      <c r="K93" t="str">
+      <c r="L93" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Wild Cherry (Дикая вишня)' },</v>
       </c>
-      <c r="L93" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Wild Cherry (Дикая вишня)', name: 'Wild Cherry (Дикая вишня)' },</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="A94" t="s">
+      <c r="M93" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2093, name: 'Wild Cherry (Дикая вишня)' },</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>2094</v>
+      </c>
+      <c r="B94" t="s">
         <v>485</v>
       </c>
-      <c r="B94" t="str">
+      <c r="C94" t="str">
         <f t="shared" si="5"/>
         <v>'Yellow Peach (Желтый персик)'</v>
       </c>
-      <c r="K94" t="str">
+      <c r="L94" t="str">
         <f t="shared" si="6"/>
         <v>{name: 'Yellow Peach (Желтый персик)' },</v>
       </c>
-      <c r="L94" t="str">
-        <f t="shared" si="7"/>
-        <v>{id: 'Yellow Peach (Желтый персик)', name: 'Yellow Peach (Желтый персик)' },</v>
+      <c r="M94" t="str">
+        <f t="shared" si="4"/>
+        <v>{id: 2094, name: 'Yellow Peach (Желтый персик)' },</v>
       </c>
     </row>
   </sheetData>
@@ -13710,696 +14586,813 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>3001</v>
+      </c>
+      <c r="B1" t="s">
         <v>508</v>
       </c>
-      <c r="B1" t="str">
-        <f>CONCATENATE("'",A1,"'")</f>
+      <c r="C1" t="str">
+        <f>CONCATENATE("'",B1,"'")</f>
         <v>'Apple Pie (Яблочный Пирог)'</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>408</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>410</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>411</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>412</v>
       </c>
-      <c r="K1" t="str">
-        <f>CONCATENATE($F$1,$H$1,B1,$J$1)</f>
+      <c r="L1" t="str">
+        <f>CONCATENATE($G$1,$I$1,C1,$K$1)</f>
         <v>{name: 'Apple Pie (Яблочный Пирог)' },</v>
       </c>
-      <c r="L1" t="str">
-        <f>CONCATENATE($F$1,$G$1,B1,$H$2,$H$1,B1,$J$1)</f>
-        <v>{id: 'Apple Pie (Яблочный Пирог)', name: 'Apple Pie (Яблочный Пирог)' },</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="M1" t="str">
+        <f>CONCATENATE($G$1,$H$1,A1,$I$2,$I$1,C1,$K$1)</f>
+        <v>{id: 3001, name: 'Apple Pie (Яблочный Пирог)' },</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>3002</v>
+      </c>
+      <c r="B2" t="s">
         <v>509</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B39" si="0">CONCATENATE("'",A2,"'")</f>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C39" si="0">CONCATENATE("'",B2,"'")</f>
         <v>'Bilberry (Черника)'</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>413</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K39" si="1">CONCATENATE($F$1,$H$1,B2,$J$1)</f>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L39" si="1">CONCATENATE($G$1,$I$1,C2,$K$1)</f>
         <v>{name: 'Bilberry (Черника)' },</v>
       </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L39" si="2">CONCATENATE($F$1,$G$1,B2,$H$2,$H$1,B2,$J$1)</f>
-        <v>{id: 'Bilberry (Черника)', name: 'Bilberry (Черника)' },</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M39" si="2">CONCATENATE($G$1,$H$1,A2,$I$2,$I$1,C2,$K$1)</f>
+        <v>{id: 3002, name: 'Bilberry (Черника)' },</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>3003</v>
+      </c>
+      <c r="B3" t="s">
         <v>510</v>
       </c>
-      <c r="B3" t="str">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
         <v>'Biscotto Cookie (Овсяное Печенье)'</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Biscotto Cookie (Овсяное Печенье)' },</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Biscotto Cookie (Овсяное Печенье)', name: 'Biscotto Cookie (Овсяное Печенье)' },</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="M3" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3003, name: 'Biscotto Cookie (Овсяное Печенье)' },</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3004</v>
+      </c>
+      <c r="B4" t="s">
         <v>417</v>
       </c>
-      <c r="B4" t="str">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
         <v>'Blackberry (Ежевика)'</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Blackberry (Ежевика)' },</v>
       </c>
-      <c r="L4" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Blackberry (Ежевика)', name: 'Blackberry (Ежевика)' },</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3004, name: 'Blackberry (Ежевика)' },</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>3005</v>
+      </c>
+      <c r="B5" t="s">
         <v>511</v>
       </c>
-      <c r="B5" t="str">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
         <v>'Blackcurrant (Черная Смородина)'</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Blackcurrant (Черная Смородина)' },</v>
       </c>
-      <c r="L5" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Blackcurrant (Черная Смородина)', name: 'Blackcurrant (Черная Смородина)' },</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3005, name: 'Blackcurrant (Черная Смородина)' },</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>3006</v>
+      </c>
+      <c r="B6" t="s">
         <v>512</v>
       </c>
-      <c r="B6" t="str">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
         <v>'Caramel (Карамель)'</v>
       </c>
-      <c r="K6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Caramel (Карамель)' },</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Caramel (Карамель)', name: 'Caramel (Карамель)' },</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3006, name: 'Caramel (Карамель)' },</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>3007</v>
+      </c>
+      <c r="B7" t="s">
         <v>513</v>
       </c>
-      <c r="B7" t="str">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
         <v>'Champagne (Шампанское)'</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Champagne (Шампанское)' },</v>
       </c>
-      <c r="L7" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Champagne (Шампанское)', name: 'Champagne (Шампанское)' },</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3007, name: 'Champagne (Шампанское)' },</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>3008</v>
+      </c>
+      <c r="B8" t="s">
         <v>514</v>
       </c>
-      <c r="B8" t="str">
+      <c r="C8" t="str">
         <f t="shared" si="0"/>
         <v>'Cherry (Вишня)'</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cherry (Вишня)' },</v>
       </c>
-      <c r="L8" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cherry (Вишня)', name: 'Cherry (Вишня)' },</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3008, name: 'Cherry (Вишня)' },</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>3009</v>
+      </c>
+      <c r="B9" t="s">
         <v>515</v>
       </c>
-      <c r="B9" t="str">
+      <c r="C9" t="str">
         <f t="shared" si="0"/>
         <v>'Citrus Mix (Цитрусовый Микс)'</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Citrus Mix (Цитрусовый Микс)' },</v>
       </c>
-      <c r="L9" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Citrus Mix (Цитрусовый Микс)', name: 'Citrus Mix (Цитрусовый Микс)' },</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3009, name: 'Citrus Mix (Цитрусовый Микс)' },</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>3010</v>
+      </c>
+      <c r="B10" t="s">
         <v>516</v>
       </c>
-      <c r="B10" t="str">
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>'Classic Vanilla (Ваниль)'</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Classic Vanilla (Ваниль)' },</v>
       </c>
-      <c r="L10" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Classic Vanilla (Ваниль)', name: 'Classic Vanilla (Ваниль)' },</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3010, name: 'Classic Vanilla (Ваниль)' },</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>3011</v>
+      </c>
+      <c r="B11" t="s">
         <v>496</v>
       </c>
-      <c r="B11" t="str">
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>'Coconut (Кокос)'</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Coconut (Кокос)' },</v>
       </c>
-      <c r="L11" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Coconut (Кокос)', name: 'Coconut (Кокос)' },</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3011, name: 'Coconut (Кокос)' },</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>3012</v>
+      </c>
+      <c r="B12" t="s">
         <v>429</v>
       </c>
-      <c r="B12" t="str">
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>'Cola (Кола)'</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Cola (Кола)' },</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Cola (Кола)', name: 'Cola (Кола)' },</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3012, name: 'Cola (Кола)' },</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>3013</v>
+      </c>
+      <c r="B13" t="s">
         <v>517</v>
       </c>
-      <c r="B13" t="str">
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>'Custard Cream (Заварной Крем)'</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Custard Cream (Заварной Крем)' },</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Custard Cream (Заварной Крем)', name: 'Custard Cream (Заварной Крем)' },</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3013, name: 'Custard Cream (Заварной Крем)' },</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>3014</v>
+      </c>
+      <c r="B14" t="s">
         <v>518</v>
       </c>
-      <c r="B14" t="str">
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>'Forest Fruit Mix (Фруктовый Микс)'</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Forest Fruit Mix (Фруктовый Микс)' },</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Forest Fruit Mix (Фруктовый Микс)', name: 'Forest Fruit Mix (Фруктовый Микс)' },</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3014, name: 'Forest Fruit Mix (Фруктовый Микс)' },</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>3015</v>
+      </c>
+      <c r="B15" t="s">
         <v>519</v>
       </c>
-      <c r="B15" t="str">
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>'Fuji Apple (Яблоко Fuji)'</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Fuji Apple (Яблоко Fuji)' },</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Fuji Apple (Яблоко Fuji)', name: 'Fuji Apple (Яблоко Fuji)' },</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3015, name: 'Fuji Apple (Яблоко Fuji)' },</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>3016</v>
+      </c>
+      <c r="B16" t="s">
         <v>520</v>
       </c>
-      <c r="B16" t="str">
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>'Green Tea (Зеленый Чай)'</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Green Tea (Зеленый Чай)' },</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Green Tea (Зеленый Чай)', name: 'Green Tea (Зеленый Чай)' },</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3016, name: 'Green Tea (Зеленый Чай)' },</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>3017</v>
+      </c>
+      <c r="B17" t="s">
         <v>521</v>
       </c>
-      <c r="B17" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>'Hazelnut (Лесной Орех)'</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Hazelnut (Лесной Орех)' },</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Hazelnut (Лесной Орех)', name: 'Hazelnut (Лесной Орех)' },</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="s">
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3017, name: 'Hazelnut (Лесной Орех)' },</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>3018</v>
+      </c>
+      <c r="B18" t="s">
         <v>451</v>
       </c>
-      <c r="B18" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>'Kiwi (Киви)'</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Kiwi (Киви)' },</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Kiwi (Киви)', name: 'Kiwi (Киви)' },</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3018, name: 'Kiwi (Киви)' },</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>3019</v>
+      </c>
+      <c r="B19" t="s">
         <v>522</v>
       </c>
-      <c r="B19" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>'Lemon Sicily (Лимон Сицилийский)'</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Lemon Sicily (Лимон Сицилийский)' },</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Lemon Sicily (Лимон Сицилийский)', name: 'Lemon Sicily (Лимон Сицилийский)' },</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3019, name: 'Lemon Sicily (Лимон Сицилийский)' },</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>3020</v>
+      </c>
+      <c r="B20" t="s">
         <v>523</v>
       </c>
-      <c r="B20" t="str">
+      <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>'Lime Tahity Distilled (Лайм)'</v>
       </c>
-      <c r="K20" t="str">
+      <c r="L20" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Lime Tahity Distilled (Лайм)' },</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Lime Tahity Distilled (Лайм)', name: 'Lime Tahity Distilled (Лайм)' },</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="s">
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3020, name: 'Lime Tahity Distilled (Лайм)' },</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>3021</v>
+      </c>
+      <c r="B21" t="s">
         <v>524</v>
       </c>
-      <c r="B21" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>'Mandarin (Мандарин)'</v>
       </c>
-      <c r="K21" t="str">
+      <c r="L21" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Mandarin (Мандарин)' },</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Mandarin (Мандарин)', name: 'Mandarin (Мандарин)' },</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3021, name: 'Mandarin (Мандарин)' },</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>3022</v>
+      </c>
+      <c r="B22" t="s">
         <v>525</v>
       </c>
-      <c r="B22" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>'Mango (Манго)'</v>
       </c>
-      <c r="K22" t="str">
+      <c r="L22" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Mango (Манго)' },</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Mango (Манго)', name: 'Mango (Манго)' },</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3022, name: 'Mango (Манго)' },</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>3023</v>
+      </c>
+      <c r="B23" t="s">
         <v>526</v>
       </c>
-      <c r="B23" t="str">
+      <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>'Marshmallow (Зефир)'</v>
       </c>
-      <c r="K23" t="str">
+      <c r="L23" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Marshmallow (Зефир)' },</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Marshmallow (Зефир)', name: 'Marshmallow (Зефир)' },</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3023, name: 'Marshmallow (Зефир)' },</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>3024</v>
+      </c>
+      <c r="B24" t="s">
         <v>527</v>
       </c>
-      <c r="B24" t="str">
+      <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>'Maxx Blend (Табак Maxx Blend)'</v>
       </c>
-      <c r="K24" t="str">
+      <c r="L24" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Maxx Blend (Табак Maxx Blend)' },</v>
       </c>
-      <c r="L24" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Maxx Blend (Табак Maxx Blend)', name: 'Maxx Blend (Табак Maxx Blend)' },</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3024, name: 'Maxx Blend (Табак Maxx Blend)' },</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>3025</v>
+      </c>
+      <c r="B25" t="s">
         <v>528</v>
       </c>
-      <c r="B25" t="str">
+      <c r="C25" t="str">
         <f t="shared" si="0"/>
         <v>'Melon Cantaloupe (Мускусная Дыня)'</v>
       </c>
-      <c r="K25" t="str">
+      <c r="L25" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Melon Cantaloupe (Мускусная Дыня)' },</v>
       </c>
-      <c r="L25" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Melon Cantaloupe (Мускусная Дыня)', name: 'Melon Cantaloupe (Мускусная Дыня)' },</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3025, name: 'Melon Cantaloupe (Мускусная Дыня)' },</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>3026</v>
+      </c>
+      <c r="B26" t="s">
         <v>529</v>
       </c>
-      <c r="B26" t="str">
+      <c r="C26" t="str">
         <f t="shared" si="0"/>
         <v>'Menthol (Ментол)'</v>
       </c>
-      <c r="K26" t="str">
+      <c r="L26" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Menthol (Ментол)' },</v>
       </c>
-      <c r="L26" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Menthol (Ментол)', name: 'Menthol (Ментол)' },</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3026, name: 'Menthol (Ментол)' },</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>3027</v>
+      </c>
+      <c r="B27" t="s">
         <v>530</v>
       </c>
-      <c r="B27" t="str">
+      <c r="C27" t="str">
         <f t="shared" si="0"/>
         <v>'Meringue (Безе)'</v>
       </c>
-      <c r="K27" t="str">
+      <c r="L27" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Meringue (Безе)' },</v>
       </c>
-      <c r="L27" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Meringue (Безе)', name: 'Meringue (Безе)' },</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3027, name: 'Meringue (Безе)' },</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>3028</v>
+      </c>
+      <c r="B28" t="s">
         <v>531</v>
       </c>
-      <c r="B28" t="str">
+      <c r="C28" t="str">
         <f t="shared" si="0"/>
         <v>'Nonna’s Cake (Пирог Нонны)'</v>
       </c>
-      <c r="K28" t="str">
+      <c r="L28" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Nonna’s Cake (Пирог Нонны)' },</v>
       </c>
-      <c r="L28" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Nonna’s Cake (Пирог Нонны)', name: 'Nonna’s Cake (Пирог Нонны)' },</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3028, name: 'Nonna’s Cake (Пирог Нонны)' },</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>3029</v>
+      </c>
+      <c r="B29" t="s">
         <v>532</v>
       </c>
-      <c r="B29" t="str">
+      <c r="C29" t="str">
         <f t="shared" si="0"/>
         <v>'Orange (Апельсин)'</v>
       </c>
-      <c r="K29" t="str">
+      <c r="L29" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Orange (Апельсин)' },</v>
       </c>
-      <c r="L29" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Orange (Апельсин)', name: 'Orange (Апельсин)' },</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3029, name: 'Orange (Апельсин)' },</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>3030</v>
+      </c>
+      <c r="B30" t="s">
         <v>533</v>
       </c>
-      <c r="B30" t="str">
+      <c r="C30" t="str">
         <f t="shared" si="0"/>
         <v>'Passionfruit (Маракуйя)'</v>
       </c>
-      <c r="K30" t="str">
+      <c r="L30" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Passionfruit (Маракуйя)' },</v>
       </c>
-      <c r="L30" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Passionfruit (Маракуйя)', name: 'Passionfruit (Маракуйя)' },</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3030, name: 'Passionfruit (Маракуйя)' },</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>3031</v>
+      </c>
+      <c r="B31" t="s">
         <v>467</v>
       </c>
-      <c r="B31" t="str">
+      <c r="C31" t="str">
         <f t="shared" si="0"/>
         <v>'Raspberry (Малина)'</v>
       </c>
-      <c r="K31" t="str">
+      <c r="L31" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Raspberry (Малина)' },</v>
       </c>
-      <c r="L31" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Raspberry (Малина)', name: 'Raspberry (Малина)' },</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3031, name: 'Raspberry (Малина)' },</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>3032</v>
+      </c>
+      <c r="B32" t="s">
         <v>534</v>
       </c>
-      <c r="B32" t="str">
+      <c r="C32" t="str">
         <f t="shared" si="0"/>
         <v>'Soho (Табак Soho)'</v>
       </c>
-      <c r="K32" t="str">
+      <c r="L32" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Soho (Табак Soho)' },</v>
       </c>
-      <c r="L32" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Soho (Табак Soho)', name: 'Soho (Табак Soho)' },</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3032, name: 'Soho (Табак Soho)' },</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>3033</v>
+      </c>
+      <c r="B33" t="s">
         <v>535</v>
       </c>
-      <c r="B33" t="str">
+      <c r="C33" t="str">
         <f t="shared" si="0"/>
         <v>'Spearmint (Мятная Жвачка)'</v>
       </c>
-      <c r="K33" t="str">
+      <c r="L33" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Spearmint (Мятная Жвачка)' },</v>
       </c>
-      <c r="L33" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Spearmint (Мятная Жвачка)', name: 'Spearmint (Мятная Жвачка)' },</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3033, name: 'Spearmint (Мятная Жвачка)' },</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>3034</v>
+      </c>
+      <c r="B34" t="s">
         <v>536</v>
       </c>
-      <c r="B34" t="str">
+      <c r="C34" t="str">
         <f t="shared" si="0"/>
         <v>'Stark Apple (Яблоко Красное)'</v>
       </c>
-      <c r="K34" t="str">
+      <c r="L34" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Stark Apple (Яблоко Красное)' },</v>
       </c>
-      <c r="L34" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Stark Apple (Яблоко Красное)', name: 'Stark Apple (Яблоко Красное)' },</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3034, name: 'Stark Apple (Яблоко Красное)' },</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>3035</v>
+      </c>
+      <c r="B35" t="s">
         <v>537</v>
       </c>
-      <c r="B35" t="str">
+      <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>'Strawberry (Клубника)'</v>
       </c>
-      <c r="K35" t="str">
+      <c r="L35" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Strawberry (Клубника)' },</v>
       </c>
-      <c r="L35" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Strawberry (Клубника)', name: 'Strawberry (Клубника)' },</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3035, name: 'Strawberry (Клубника)' },</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>3036</v>
+      </c>
+      <c r="B36" t="s">
         <v>538</v>
       </c>
-      <c r="B36" t="str">
+      <c r="C36" t="str">
         <f t="shared" si="0"/>
         <v>'Virginia (Табак Virginia)'</v>
       </c>
-      <c r="K36" t="str">
+      <c r="L36" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Virginia (Табак Virginia)' },</v>
       </c>
-      <c r="L36" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Virginia (Табак Virginia)', name: 'Virginia (Табак Virginia)' },</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3036, name: 'Virginia (Табак Virginia)' },</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>3037</v>
+      </c>
+      <c r="B37" t="s">
         <v>539</v>
       </c>
-      <c r="B37" t="str">
+      <c r="C37" t="str">
         <f t="shared" si="0"/>
         <v>'Watermelon (Арбуз)'</v>
       </c>
-      <c r="K37" t="str">
+      <c r="L37" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Watermelon (Арбуз)' },</v>
       </c>
-      <c r="L37" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Watermelon (Арбуз)', name: 'Watermelon (Арбуз)' },</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" t="s">
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3037, name: 'Watermelon (Арбуз)' },</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>3038</v>
+      </c>
+      <c r="B38" t="s">
         <v>540</v>
       </c>
-      <c r="B38" t="str">
+      <c r="C38" t="str">
         <f t="shared" si="0"/>
         <v>'White Peach (Белый Персик)'</v>
       </c>
-      <c r="K38" t="str">
+      <c r="L38" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'White Peach (Белый Персик)' },</v>
       </c>
-      <c r="L38" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'White Peach (Белый Персик)', name: 'White Peach (Белый Персик)' },</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" t="s">
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3038, name: 'White Peach (Белый Персик)' },</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>3039</v>
+      </c>
+      <c r="B39" t="s">
         <v>541</v>
       </c>
-      <c r="B39" t="str">
+      <c r="C39" t="str">
         <f t="shared" si="0"/>
         <v>'Yogurt (Йогурт)'</v>
       </c>
-      <c r="K39" t="str">
+      <c r="L39" t="str">
         <f t="shared" si="1"/>
         <v>{name: 'Yogurt (Йогурт)' },</v>
       </c>
-      <c r="L39" t="str">
-        <f t="shared" si="2"/>
-        <v>{id: 'Yogurt (Йогурт)', name: 'Yogurt (Йогурт)' },</v>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>{id: 3039, name: 'Yogurt (Йогурт)' },</v>
       </c>
     </row>
   </sheetData>

--- a/info/список ароматизаторов.xlsx
+++ b/info/список ароматизаторов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -8694,7 +8694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -12671,7 +12671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M94"/>
     </sheetView>
   </sheetViews>
@@ -12711,8 +12711,8 @@
         <v>{name: 'Apple Pie (Яблочный пирог)' },</v>
       </c>
       <c r="M1" t="str">
-        <f>CONCATENATE($G$1,$H$1,A1,$I$2,$I$1,C1,$K$1)</f>
-        <v>{id: 2001, name: 'Apple Pie (Яблочный пирог)' },</v>
+        <f>CONCATENATE($G$1,$H$1,A1,$I$2,$I$1,C1,$I$2,$J$1,$K$1)</f>
+        <v>{id: 2001, name: 'Apple Pie (Яблочный пирог)', isSelected: false },</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -12734,8 +12734,8 @@
         <v>{name: 'Apple Pie V2 (Яблочный пирог 2)' },</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M65" si="1">CONCATENATE($G$1,$H$1,A2,$I$2,$I$1,C2,$K$1)</f>
-        <v>{id: 2002, name: 'Apple Pie V2 (Яблочный пирог 2)' },</v>
+        <f t="shared" ref="M2:M65" si="1">CONCATENATE($G$1,$H$1,A2,$I$2,$I$1,C2,$I$2,$J$1,$K$1)</f>
+        <v>{id: 2002, name: 'Apple Pie V2 (Яблочный пирог 2)', isSelected: false },</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2003, name: 'Apricot (Абрикос)' },</v>
+        <v>{id: 2003, name: 'Apricot (Абрикос)', isSelected: false },</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12775,7 +12775,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2004, name: 'Banana (Банан)' },</v>
+        <v>{id: 2004, name: 'Banana (Банан)', isSelected: false },</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2005, name: 'Banana Split (Банановый сплит)' },</v>
+        <v>{id: 2005, name: 'Banana Split (Банановый сплит)', isSelected: false },</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2006, name: 'Bavarian Cream (Баварский крем)' },</v>
+        <v>{id: 2006, name: 'Bavarian Cream (Баварский крем)', isSelected: false },</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2007, name: 'Blackberry (Ежевика)' },</v>
+        <v>{id: 2007, name: 'Blackberry (Ежевика)', isSelected: false },</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2008, name: 'Blueberry (Черника)' },</v>
+        <v>{id: 2008, name: 'Blueberry (Черника)', isSelected: false },</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12875,7 +12875,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2009, name: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)' },</v>
+        <v>{id: 2009, name: 'Blueberry Cinnamon Crumble (Черничный пирог с корицей)', isSelected: false },</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -12895,7 +12895,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2010, name: 'Blueberry Jam (Черничное варенье)' },</v>
+        <v>{id: 2010, name: 'Blueberry Jam (Черничное варенье)', isSelected: false },</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -12915,7 +12915,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2011, name: 'Blueberry Pomegranate (Черника и гранат)' },</v>
+        <v>{id: 2011, name: 'Blueberry Pomegranate (Черника и гранат)', isSelected: false },</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2012, name: 'Boston Cream Pie V2 (Бостонский кремовый пирог)' },</v>
+        <v>{id: 2012, name: 'Boston Cream Pie V2 (Бостонский кремовый пирог)', isSelected: false },</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2013, name: 'Bubble Gum (Жвачка)' },</v>
+        <v>{id: 2013, name: 'Bubble Gum (Жвачка)', isSelected: false },</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -12975,7 +12975,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2014, name: 'Butter Cream (Крем)' },</v>
+        <v>{id: 2014, name: 'Butter Cream (Крем)', isSelected: false },</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -12995,7 +12995,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2015, name: 'Cake Batter (Тесто для кекса)' },</v>
+        <v>{id: 2015, name: 'Cake Batter (Тесто для кекса)', isSelected: false },</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -13015,7 +13015,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2016, name: 'Cantaloupe (Мускусная дыня)' },</v>
+        <v>{id: 2016, name: 'Cantaloupe (Мускусная дыня)', isSelected: false },</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -13035,7 +13035,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2017, name: 'Cappuccino (Каппучино)' },</v>
+        <v>{id: 2017, name: 'Cappuccino (Каппучино)', isSelected: false },</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2018, name: 'Caramel V2 (Карамель 2)' },</v>
+        <v>{id: 2018, name: 'Caramel V2 (Карамель 2)', isSelected: false },</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2019, name: 'Cereal 27 (Кукурузные хлопья)' },</v>
+        <v>{id: 2019, name: 'Cereal 27 (Кукурузные хлопья)', isSelected: false },</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2020, name: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)' },</v>
+        <v>{id: 2020, name: 'Cherry (Wild) w/Stevia (Дикая вишня и стевия)', isSelected: false },</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2021, name: 'Chocolate Coconut Almond (Шоколад кокос миндаль)' },</v>
+        <v>{id: 2021, name: 'Chocolate Coconut Almond (Шоколад кокос миндаль)', isSelected: false },</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -13135,7 +13135,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2022, name: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)' },</v>
+        <v>{id: 2022, name: 'Chocolate Glazed Doughnut (Глазированный шаколадный пончик)', isSelected: false },</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2023, name: 'Chocolate Raspberry (Малина с шоколадом)' },</v>
+        <v>{id: 2023, name: 'Chocolate Raspberry (Малина с шоколадом)', isSelected: false },</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -13175,7 +13175,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2024, name: 'Churro (Чуррос)' },</v>
+        <v>{id: 2024, name: 'Churro (Чуррос)', isSelected: false },</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2025, name: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)' },</v>
+        <v>{id: 2025, name: 'Cinnamon Danish Swirl V2 (Датский завиток с корицей 2)', isSelected: false },</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -13215,7 +13215,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2026, name: 'Coconut (Кокос)' },</v>
+        <v>{id: 2026, name: 'Coconut (Кокос)', isSelected: false },</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2027, name: 'Cola (Кола)' },</v>
+        <v>{id: 2027, name: 'Cola (Кола)', isSelected: false },</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2028, name: 'Concord Grape w/Stevia (Конкорд и стевия)' },</v>
+        <v>{id: 2028, name: 'Concord Grape w/Stevia (Конкорд и стевия)', isSelected: false },</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2029, name: 'Cool Mint (Мятная свежесть)' },</v>
+        <v>{id: 2029, name: 'Cool Mint (Мятная свежесть)', isSelected: false },</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -13295,7 +13295,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2030, name: 'Cranberry (Клюква)' },</v>
+        <v>{id: 2030, name: 'Cranberry (Клюква)', isSelected: false },</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -13315,7 +13315,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2031, name: 'Creamy Yogurt (Кремовый йогурт)' },</v>
+        <v>{id: 2031, name: 'Creamy Yogurt (Кремовый йогурт)', isSelected: false },</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -13335,7 +13335,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2032, name: 'Double Apple (Двойное яблоко)' },</v>
+        <v>{id: 2032, name: 'Double Apple (Двойное яблоко)', isSelected: false },</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -13355,7 +13355,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2033, name: 'Double Watermelon (Двойной арбуз)' },</v>
+        <v>{id: 2033, name: 'Double Watermelon (Двойной арбуз)', isSelected: false },</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2034, name: 'Dragon Fruit (Драгонфрут)' },</v>
+        <v>{id: 2034, name: 'Dragon Fruit (Драгонфрут)', isSelected: false },</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2035, name: 'French Vanilla (Французкая ваниль)' },</v>
+        <v>{id: 2035, name: 'French Vanilla (Французкая ваниль)', isSelected: false },</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2036, name: 'Funnel Cake (Торт "Муравейник")' },</v>
+        <v>{id: 2036, name: 'Funnel Cake (Торт "Муравейник")', isSelected: false },</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -13435,7 +13435,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2037, name: 'Glazed Doughnut (Глазированный пончик)' },</v>
+        <v>{id: 2037, name: 'Glazed Doughnut (Глазированный пончик)', isSelected: false },</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2038, name: 'Golden Pineapple (Золотой ананас)' },</v>
+        <v>{id: 2038, name: 'Golden Pineapple (Золотой ананас)', isSelected: false },</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2039, name: 'Graham Cracker V2 (Грэхем крекер 2)' },</v>
+        <v>{id: 2039, name: 'Graham Cracker V2 (Грэхем крекер 2)', isSelected: false },</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -13495,7 +13495,7 @@
       </c>
       <c r="M40" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2040, name: 'Grapefruit (Грейпфрут)' },</v>
+        <v>{id: 2040, name: 'Grapefruit (Грейпфрут)', isSelected: false },</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="M41" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2041, name: 'Greek Yogurt (Греческий йогурт)' },</v>
+        <v>{id: 2041, name: 'Greek Yogurt (Греческий йогурт)', isSelected: false },</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="M42" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2042, name: 'Green Apple (Зеленое яблоко)' },</v>
+        <v>{id: 2042, name: 'Green Apple (Зеленое яблоко)', isSelected: false },</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -13555,7 +13555,7 @@
       </c>
       <c r="M43" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2043, name: 'Grenadine (Гренадин)' },</v>
+        <v>{id: 2043, name: 'Grenadine (Гренадин)', isSelected: false },</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="M44" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2044, name: 'Harvest Berry (Лесные ягоды)' },</v>
+        <v>{id: 2044, name: 'Harvest Berry (Лесные ягоды)', isSelected: false },</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -13595,7 +13595,7 @@
       </c>
       <c r="M45" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2045, name: 'Hazelnut (Лесной орех)' },</v>
+        <v>{id: 2045, name: 'Hazelnut (Лесной орех)', isSelected: false },</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="M46" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2046, name: 'Honeydew Melon (Медовая дыня)' },</v>
+        <v>{id: 2046, name: 'Honeydew Melon (Медовая дыня)', isSelected: false },</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -13635,7 +13635,7 @@
       </c>
       <c r="M47" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2047, name: 'Italian Lemon Sicily (Сицилийский лимон)' },</v>
+        <v>{id: 2047, name: 'Italian Lemon Sicily (Сицилийский лимон)', isSelected: false },</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="M48" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2048, name: 'Jelly Candy (Конфеты из желе)' },</v>
+        <v>{id: 2048, name: 'Jelly Candy (Конфеты из желе)', isSelected: false },</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="M49" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2049, name: 'Jelly Candys (Конфеты желе)' },</v>
+        <v>{id: 2049, name: 'Jelly Candys (Конфеты желе)', isSelected: false },</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="M50" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2050, name: 'Juicy Lemon (Сок лимона)' },</v>
+        <v>{id: 2050, name: 'Juicy Lemon (Сок лимона)', isSelected: false },</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="M51" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2051, name: 'Juicy Orange (Сочный апельсин)' },</v>
+        <v>{id: 2051, name: 'Juicy Orange (Сочный апельсин)', isSelected: false },</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="M52" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2052, name: 'Juicy Peach (Сочный персик)' },</v>
+        <v>{id: 2052, name: 'Juicy Peach (Сочный персик)', isSelected: false },</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -13755,7 +13755,7 @@
       </c>
       <c r="M53" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2053, name: 'Kiwi (Киви)' },</v>
+        <v>{id: 2053, name: 'Kiwi (Киви)', isSelected: false },</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -13775,7 +13775,7 @@
       </c>
       <c r="M54" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2054, name: 'Kiwi Strawberry (Киви и клубника)' },</v>
+        <v>{id: 2054, name: 'Kiwi Strawberry (Киви и клубника)', isSelected: false },</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="M55" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2055, name: 'Lemon Lime (Лимон-лайм)' },</v>
+        <v>{id: 2055, name: 'Lemon Lime (Лимон-лайм)', isSelected: false },</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -13815,7 +13815,7 @@
       </c>
       <c r="M56" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2056, name: 'Lemon Meringue Pie (Лимонный пирог с безе)' },</v>
+        <v>{id: 2056, name: 'Lemon Meringue Pie (Лимонный пирог с безе)', isSelected: false },</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -13835,7 +13835,7 @@
       </c>
       <c r="M57" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2057, name: 'Maple (Pancake Syrup) (Кленовый сироп)' },</v>
+        <v>{id: 2057, name: 'Maple (Pancake Syrup) (Кленовый сироп)', isSelected: false },</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -13855,7 +13855,7 @@
       </c>
       <c r="M58" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2058, name: 'Milk Chocolate Toffee (Шоколаный тоффи)' },</v>
+        <v>{id: 2058, name: 'Milk Chocolate Toffee (Шоколаный тоффи)', isSelected: false },</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="M59" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2059, name: 'New York Cheesecake (New York чизкейк)' },</v>
+        <v>{id: 2059, name: 'New York Cheesecake (New York чизкейк)', isSelected: false },</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="M60" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2060, name: 'New York Cheesecake v2 (New York чизкейк v2)' },</v>
+        <v>{id: 2060, name: 'New York Cheesecake v2 (New York чизкейк v2)', isSelected: false },</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -13915,7 +13915,7 @@
       </c>
       <c r="M61" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2061, name: 'Orange Creamsicle (Апельсиновое мороженное)' },</v>
+        <v>{id: 2061, name: 'Orange Creamsicle (Апельсиновое мороженное)', isSelected: false },</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="M62" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2062, name: 'Orange Mango (Апельсин и манго)' },</v>
+        <v>{id: 2062, name: 'Orange Mango (Апельсин и манго)', isSelected: false },</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="M63" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2063, name: 'Passion Fruit (Маракуйя)' },</v>
+        <v>{id: 2063, name: 'Passion Fruit (Маракуйя)', isSelected: false },</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -13975,7 +13975,7 @@
       </c>
       <c r="M64" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2064, name: 'Peach w/Stevia (Персик и стевия)' },</v>
+        <v>{id: 2064, name: 'Peach w/Stevia (Персик и стевия)', isSelected: false },</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="M65" t="str">
         <f t="shared" si="1"/>
-        <v>{id: 2065, name: 'Peaches and Cream (Персики в крему)' },</v>
+        <v>{id: 2065, name: 'Peaches and Cream (Персики в крему)', isSelected: false },</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -14014,8 +14014,8 @@
         <v>{name: 'Peaches and Cream v2 (Персики в крему v2)' },</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ref="M66:M94" si="4">CONCATENATE($G$1,$H$1,A66,$I$2,$I$1,C66,$K$1)</f>
-        <v>{id: 2066, name: 'Peaches and Cream v2 (Персики в крему v2)' },</v>
+        <f t="shared" ref="M66:M94" si="4">CONCATENATE($G$1,$H$1,A66,$I$2,$I$1,C66,$I$2,$J$1,$K$1)</f>
+        <v>{id: 2066, name: 'Peaches and Cream v2 (Персики в крему v2)', isSelected: false },</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="M67" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2067, name: 'Peanut Butter V2 (Арахисовое масло (версия 2))' },</v>
+        <v>{id: 2067, name: 'Peanut Butter V2 (Арахисовое масло (версия 2))', isSelected: false },</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -14055,7 +14055,7 @@
       </c>
       <c r="M68" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2068, name: 'Pear Flavor (Груша)' },</v>
+        <v>{id: 2068, name: 'Pear Flavor (Груша)', isSelected: false },</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="M69" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2069, name: 'Pink Lemonades (Лимонад)' },</v>
+        <v>{id: 2069, name: 'Pink Lemonades (Лимонад)', isSelected: false },</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -14095,7 +14095,7 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2070, name: 'Pomegranate V2 (Гранат 2)' },</v>
+        <v>{id: 2070, name: 'Pomegranate V2 (Гранат 2)', isSelected: false },</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2071, name: 'Raspberry (Малина)' },</v>
+        <v>{id: 2071, name: 'Raspberry (Малина)', isSelected: false },</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -14135,7 +14135,7 @@
       </c>
       <c r="M72" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2072, name: 'Raspberry V2 (Малина 2)' },</v>
+        <v>{id: 2072, name: 'Raspberry V2 (Малина 2)', isSelected: false },</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="M73" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2073, name: 'Simply Vanilla (Ваниль)' },</v>
+        <v>{id: 2073, name: 'Simply Vanilla (Ваниль)', isSelected: false },</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -14175,7 +14175,7 @@
       </c>
       <c r="M74" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2074, name: 'Strawberries and Cream ( Клубника в сливках)' },</v>
+        <v>{id: 2074, name: 'Strawberries and Cream ( Клубника в сливках)', isSelected: false },</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="M75" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2075, name: 'Strawberry Taffys (Клубничный тэфи)' },</v>
+        <v>{id: 2075, name: 'Strawberry Taffys (Клубничный тэфи)', isSelected: false },</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="M76" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2076, name: 'Sugar Cookie v2 (Сахарное печенье v2)' },</v>
+        <v>{id: 2076, name: 'Sugar Cookie v2 (Сахарное печенье v2)', isSelected: false },</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -14235,7 +14235,7 @@
       </c>
       <c r="M77" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2077, name: 'Super Sweet Sucralose Sweetener (Подсластитель)' },</v>
+        <v>{id: 2077, name: 'Super Sweet Sucralose Sweetener (Подсластитель)', isSelected: false },</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -14255,7 +14255,7 @@
       </c>
       <c r="M78" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2078, name: 'Sweet Cream (Сладкий крем)' },</v>
+        <v>{id: 2078, name: 'Sweet Cream (Сладкий крем)', isSelected: false },</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -14275,7 +14275,7 @@
       </c>
       <c r="M79" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2079, name: 'Sweet Lychee (Сладкий личи)' },</v>
+        <v>{id: 2079, name: 'Sweet Lychee (Сладкий личи)', isSelected: false },</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -14295,7 +14295,7 @@
       </c>
       <c r="M80" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2080, name: 'Sweet Mango (Сладкий манго)' },</v>
+        <v>{id: 2080, name: 'Sweet Mango (Сладкий манго)', isSelected: false },</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -14315,7 +14315,7 @@
       </c>
       <c r="M81" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2081, name: 'Sweet Strawberry (Сладкая клубника)' },</v>
+        <v>{id: 2081, name: 'Sweet Strawberry (Сладкая клубника)', isSelected: false },</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="M82" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2082, name: 'Sweet Strawberry RF (Сладкая клубника РФ)' },</v>
+        <v>{id: 2082, name: 'Sweet Strawberry RF (Сладкая клубника РФ)', isSelected: false },</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="M83" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2083, name: 'Sweet Tangerine (Сладкий мандарин)' },</v>
+        <v>{id: 2083, name: 'Sweet Tangerine (Сладкий мандарин)', isSelected: false },</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="M84" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2084, name: 'Sweet Tangerine Rf (Сладкий мандарин)' },</v>
+        <v>{id: 2084, name: 'Sweet Tangerine Rf (Сладкий мандарин)', isSelected: false },</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="M85" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2085, name: 'Sweet Tea (Сладкий чай)' },</v>
+        <v>{id: 2085, name: 'Sweet Tea (Сладкий чай)', isSelected: false },</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="M86" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2086, name: 'Sweet Watermelon (Сладкий арбуз)' },</v>
+        <v>{id: 2086, name: 'Sweet Watermelon (Сладкий арбуз)', isSelected: false },</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -14435,7 +14435,7 @@
       </c>
       <c r="M87" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2087, name: 'Vanilla Bean Ice Cream (Ванильное мороженное)' },</v>
+        <v>{id: 2087, name: 'Vanilla Bean Ice Cream (Ванильное мороженное)', isSelected: false },</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="M88" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2088, name: 'Vanilla Cupcake V2 (Ванильный пирог)' },</v>
+        <v>{id: 2088, name: 'Vanilla Cupcake V2 (Ванильный пирог)', isSelected: false },</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -14475,7 +14475,7 @@
       </c>
       <c r="M89" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2089, name: 'Vanilla Custard (Ванильный кастард)' },</v>
+        <v>{id: 2089, name: 'Vanilla Custard (Ванильный кастард)', isSelected: false },</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="M90" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2090, name: 'Vanilla Custard V2 (Ванильный крем v2)' },</v>
+        <v>{id: 2090, name: 'Vanilla Custard V2 (Ванильный крем v2)', isSelected: false },</v>
       </c>
     </row>
     <row r="91" spans="1:13">
@@ -14515,7 +14515,7 @@
       </c>
       <c r="M91" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2091, name: 'Vanilla Whipped Cream (Ванильные взбитые сливки)' },</v>
+        <v>{id: 2091, name: 'Vanilla Whipped Cream (Ванильные взбитые сливки)', isSelected: false },</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -14535,7 +14535,7 @@
       </c>
       <c r="M92" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2092, name: 'Waffle (Вафли)' },</v>
+        <v>{id: 2092, name: 'Waffle (Вафли)', isSelected: false },</v>
       </c>
     </row>
     <row r="93" spans="1:13">
@@ -14555,7 +14555,7 @@
       </c>
       <c r="M93" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2093, name: 'Wild Cherry (Дикая вишня)' },</v>
+        <v>{id: 2093, name: 'Wild Cherry (Дикая вишня)', isSelected: false },</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -14575,7 +14575,7 @@
       </c>
       <c r="M94" t="str">
         <f t="shared" si="4"/>
-        <v>{id: 2094, name: 'Yellow Peach (Желтый персик)' },</v>
+        <v>{id: 2094, name: 'Yellow Peach (Желтый персик)', isSelected: false },</v>
       </c>
     </row>
   </sheetData>
@@ -14588,7 +14588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M39"/>
     </sheetView>
   </sheetViews>
@@ -14628,8 +14628,8 @@
         <v>{name: 'Apple Pie (Яблочный Пирог)' },</v>
       </c>
       <c r="M1" t="str">
-        <f>CONCATENATE($G$1,$H$1,A1,$I$2,$I$1,C1,$K$1)</f>
-        <v>{id: 3001, name: 'Apple Pie (Яблочный Пирог)' },</v>
+        <f>CONCATENATE($G$1,$H$1,A1,$I$2,$I$1,C1,$I$2,$J$1,$K$1)</f>
+        <v>{id: 3001, name: 'Apple Pie (Яблочный Пирог)', isSelected: false },</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -14651,8 +14651,8 @@
         <v>{name: 'Bilberry (Черника)' },</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M39" si="2">CONCATENATE($G$1,$H$1,A2,$I$2,$I$1,C2,$K$1)</f>
-        <v>{id: 3002, name: 'Bilberry (Черника)' },</v>
+        <f t="shared" ref="M2:M39" si="2">CONCATENATE($G$1,$H$1,A2,$I$2,$I$1,C2,$I$2,$J$1,$K$1)</f>
+        <v>{id: 3002, name: 'Bilberry (Черника)', isSelected: false },</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="M3" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3003, name: 'Biscotto Cookie (Овсяное Печенье)' },</v>
+        <v>{id: 3003, name: 'Biscotto Cookie (Овсяное Печенье)', isSelected: false },</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -14692,7 +14692,7 @@
       </c>
       <c r="M4" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3004, name: 'Blackberry (Ежевика)' },</v>
+        <v>{id: 3004, name: 'Blackberry (Ежевика)', isSelected: false },</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3005, name: 'Blackcurrant (Черная Смородина)' },</v>
+        <v>{id: 3005, name: 'Blackcurrant (Черная Смородина)', isSelected: false },</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3006, name: 'Caramel (Карамель)' },</v>
+        <v>{id: 3006, name: 'Caramel (Карамель)', isSelected: false },</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -14752,7 +14752,7 @@
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3007, name: 'Champagne (Шампанское)' },</v>
+        <v>{id: 3007, name: 'Champagne (Шампанское)', isSelected: false },</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3008, name: 'Cherry (Вишня)' },</v>
+        <v>{id: 3008, name: 'Cherry (Вишня)', isSelected: false },</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3009, name: 'Citrus Mix (Цитрусовый Микс)' },</v>
+        <v>{id: 3009, name: 'Citrus Mix (Цитрусовый Микс)', isSelected: false },</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="M10" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3010, name: 'Classic Vanilla (Ваниль)' },</v>
+        <v>{id: 3010, name: 'Classic Vanilla (Ваниль)', isSelected: false },</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -14832,7 +14832,7 @@
       </c>
       <c r="M11" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3011, name: 'Coconut (Кокос)' },</v>
+        <v>{id: 3011, name: 'Coconut (Кокос)', isSelected: false },</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -14852,7 +14852,7 @@
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3012, name: 'Cola (Кола)' },</v>
+        <v>{id: 3012, name: 'Cola (Кола)', isSelected: false },</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="M13" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3013, name: 'Custard Cream (Заварной Крем)' },</v>
+        <v>{id: 3013, name: 'Custard Cream (Заварной Крем)', isSelected: false },</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3014, name: 'Forest Fruit Mix (Фруктовый Микс)' },</v>
+        <v>{id: 3014, name: 'Forest Fruit Mix (Фруктовый Микс)', isSelected: false },</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="M15" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3015, name: 'Fuji Apple (Яблоко Fuji)' },</v>
+        <v>{id: 3015, name: 'Fuji Apple (Яблоко Fuji)', isSelected: false },</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="M16" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3016, name: 'Green Tea (Зеленый Чай)' },</v>
+        <v>{id: 3016, name: 'Green Tea (Зеленый Чай)', isSelected: false },</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -14952,7 +14952,7 @@
       </c>
       <c r="M17" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3017, name: 'Hazelnut (Лесной Орех)' },</v>
+        <v>{id: 3017, name: 'Hazelnut (Лесной Орех)', isSelected: false },</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="M18" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3018, name: 'Kiwi (Киви)' },</v>
+        <v>{id: 3018, name: 'Kiwi (Киви)', isSelected: false },</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -14992,7 +14992,7 @@
       </c>
       <c r="M19" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3019, name: 'Lemon Sicily (Лимон Сицилийский)' },</v>
+        <v>{id: 3019, name: 'Lemon Sicily (Лимон Сицилийский)', isSelected: false },</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -15012,7 +15012,7 @@
       </c>
       <c r="M20" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3020, name: 'Lime Tahity Distilled (Лайм)' },</v>
+        <v>{id: 3020, name: 'Lime Tahity Distilled (Лайм)', isSelected: false },</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="M21" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3021, name: 'Mandarin (Мандарин)' },</v>
+        <v>{id: 3021, name: 'Mandarin (Мандарин)', isSelected: false },</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="M22" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3022, name: 'Mango (Манго)' },</v>
+        <v>{id: 3022, name: 'Mango (Манго)', isSelected: false },</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -15072,7 +15072,7 @@
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3023, name: 'Marshmallow (Зефир)' },</v>
+        <v>{id: 3023, name: 'Marshmallow (Зефир)', isSelected: false },</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3024, name: 'Maxx Blend (Табак Maxx Blend)' },</v>
+        <v>{id: 3024, name: 'Maxx Blend (Табак Maxx Blend)', isSelected: false },</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3025, name: 'Melon Cantaloupe (Мускусная Дыня)' },</v>
+        <v>{id: 3025, name: 'Melon Cantaloupe (Мускусная Дыня)', isSelected: false },</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -15132,7 +15132,7 @@
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3026, name: 'Menthol (Ментол)' },</v>
+        <v>{id: 3026, name: 'Menthol (Ментол)', isSelected: false },</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -15152,7 +15152,7 @@
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3027, name: 'Meringue (Безе)' },</v>
+        <v>{id: 3027, name: 'Meringue (Безе)', isSelected: false },</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -15172,7 +15172,7 @@
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3028, name: 'Nonna’s Cake (Пирог Нонны)' },</v>
+        <v>{id: 3028, name: 'Nonna’s Cake (Пирог Нонны)', isSelected: false },</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="M29" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3029, name: 'Orange (Апельсин)' },</v>
+        <v>{id: 3029, name: 'Orange (Апельсин)', isSelected: false },</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="M30" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3030, name: 'Passionfruit (Маракуйя)' },</v>
+        <v>{id: 3030, name: 'Passionfruit (Маракуйя)', isSelected: false },</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="M31" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3031, name: 'Raspberry (Малина)' },</v>
+        <v>{id: 3031, name: 'Raspberry (Малина)', isSelected: false },</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="M32" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3032, name: 'Soho (Табак Soho)' },</v>
+        <v>{id: 3032, name: 'Soho (Табак Soho)', isSelected: false },</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="M33" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3033, name: 'Spearmint (Мятная Жвачка)' },</v>
+        <v>{id: 3033, name: 'Spearmint (Мятная Жвачка)', isSelected: false },</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="M34" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3034, name: 'Stark Apple (Яблоко Красное)' },</v>
+        <v>{id: 3034, name: 'Stark Apple (Яблоко Красное)', isSelected: false },</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -15312,7 +15312,7 @@
       </c>
       <c r="M35" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3035, name: 'Strawberry (Клубника)' },</v>
+        <v>{id: 3035, name: 'Strawberry (Клубника)', isSelected: false },</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -15332,7 +15332,7 @@
       </c>
       <c r="M36" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3036, name: 'Virginia (Табак Virginia)' },</v>
+        <v>{id: 3036, name: 'Virginia (Табак Virginia)', isSelected: false },</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="M37" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3037, name: 'Watermelon (Арбуз)' },</v>
+        <v>{id: 3037, name: 'Watermelon (Арбуз)', isSelected: false },</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -15372,7 +15372,7 @@
       </c>
       <c r="M38" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3038, name: 'White Peach (Белый Персик)' },</v>
+        <v>{id: 3038, name: 'White Peach (Белый Персик)', isSelected: false },</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="M39" t="str">
         <f t="shared" si="2"/>
-        <v>{id: 3039, name: 'Yogurt (Йогурт)' },</v>
+        <v>{id: 3039, name: 'Yogurt (Йогурт)', isSelected: false },</v>
       </c>
     </row>
   </sheetData>
